--- a/DDOG.xlsx
+++ b/DDOG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffe\Documents\GitHub\martinshkreli-models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352D2E90-A09A-47EF-8732-65547AD15861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3B50DB-0A71-4894-B84A-351264157695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57315" yWindow="0" windowWidth="20955" windowHeight="16665" activeTab="1" xr2:uid="{3FD86B5C-07F1-42A4-9D66-8FB9C4BAF175}"/>
+    <workbookView xWindow="14235" yWindow="90" windowWidth="26190" windowHeight="20805" activeTab="1" xr2:uid="{3FD86B5C-07F1-42A4-9D66-8FB9C4BAF175}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -41,6 +41,7 @@
     <author>tc={B694AA91-5F28-404D-8B9F-89A2BFECAE55}</author>
     <author>tc={15E8E758-37B6-468B-81A6-B3305FD6827A}</author>
     <author>tc={95169845-1F7F-4051-990A-FE3D69449576}</author>
+    <author>tc={939E2C75-C2A6-4046-AF27-AFF4D420F9BB}</author>
   </authors>
   <commentList>
     <comment ref="L6" authorId="0" shapeId="0" xr:uid="{B694AA91-5F28-404D-8B9F-89A2BFECAE55}">
@@ -59,7 +60,17 @@
     Q2: 410-414m</t>
       </text>
     </comment>
-    <comment ref="S6" authorId="2" shapeId="0" xr:uid="{95169845-1F7F-4051-990A-FE3D69449576}">
+    <comment ref="V6" authorId="2" shapeId="0" xr:uid="{95169845-1F7F-4051-990A-FE3D69449576}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q2: 1610-1630m
+Reply:
+    Q1: 1600-1620m</t>
+      </text>
+    </comment>
+    <comment ref="V7" authorId="3" shapeId="0" xr:uid="{939E2C75-C2A6-4046-AF27-AFF4D420F9BB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -74,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
   <si>
     <t>Price</t>
   </si>
@@ -248,12 +259,47 @@
   </si>
   <si>
     <t>CFFO</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Discount Rate</t>
+  </si>
+  <si>
+    <t>Terminal Rate</t>
+  </si>
+  <si>
+    <t>Growth Rate</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Share Price</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>Market Cap</t>
+  </si>
+  <si>
+    <t>FY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -276,9 +322,9 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -290,7 +336,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -298,12 +344,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -328,18 +392,27 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -416,9 +489,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -456,7 +529,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -562,7 +635,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -704,7 +777,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -718,10 +791,16 @@
   <threadedComment ref="M6" dT="2022-09-02T14:59:12.36" personId="{6EBEE36F-B86D-4667-B671-D0667117F4FF}" id="{15E8E758-37B6-468B-81A6-B3305FD6827A}">
     <text>Q2: 410-414m</text>
   </threadedComment>
-  <threadedComment ref="S6" dT="2022-09-02T14:59:40.61" personId="{6EBEE36F-B86D-4667-B671-D0667117F4FF}" id="{95169845-1F7F-4051-990A-FE3D69449576}">
+  <threadedComment ref="V6" dT="2022-09-02T14:59:40.61" personId="{6EBEE36F-B86D-4667-B671-D0667117F4FF}" id="{95169845-1F7F-4051-990A-FE3D69449576}">
     <text>Q2: 1610-1630m</text>
   </threadedComment>
-  <threadedComment ref="S6" dT="2022-09-02T15:01:04.51" personId="{6EBEE36F-B86D-4667-B671-D0667117F4FF}" id="{618BFB8A-809A-468A-BF3E-6286A5CBAEB3}" parentId="{95169845-1F7F-4051-990A-FE3D69449576}">
+  <threadedComment ref="V6" dT="2022-09-02T15:01:04.51" personId="{6EBEE36F-B86D-4667-B671-D0667117F4FF}" id="{618BFB8A-809A-468A-BF3E-6286A5CBAEB3}" parentId="{95169845-1F7F-4051-990A-FE3D69449576}">
+    <text>Q1: 1600-1620m</text>
+  </threadedComment>
+  <threadedComment ref="V7" dT="2022-09-02T14:59:40.61" personId="{6EBEE36F-B86D-4667-B671-D0667117F4FF}" id="{939E2C75-C2A6-4046-AF27-AFF4D420F9BB}">
+    <text>Q2: 1610-1630m</text>
+  </threadedComment>
+  <threadedComment ref="V7" dT="2022-09-02T15:01:04.51" personId="{6EBEE36F-B86D-4667-B671-D0667117F4FF}" id="{67F1968D-792E-4F6B-B86B-D7480C200BB9}" parentId="{939E2C75-C2A6-4046-AF27-AFF4D420F9BB}">
     <text>Q1: 1600-1620m</text>
   </threadedComment>
 </ThreadedComments>
@@ -732,7 +811,7 @@
   <dimension ref="N2:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -742,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>97.2</v>
+        <v>109.87</v>
       </c>
     </row>
     <row r="3" spans="14:16" x14ac:dyDescent="0.2">
@@ -750,11 +829,9 @@
         <v>1</v>
       </c>
       <c r="O3" s="5">
-        <v>315</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>296.27</v>
+      </c>
+      <c r="P3" s="2"/>
     </row>
     <row r="4" spans="14:16" x14ac:dyDescent="0.2">
       <c r="N4" t="s">
@@ -762,7 +839,7 @@
       </c>
       <c r="O4" s="5">
         <f>+O2*O3</f>
-        <v>30618</v>
+        <v>32551.1849</v>
       </c>
     </row>
     <row r="5" spans="14:16" x14ac:dyDescent="0.2">
@@ -770,22 +847,18 @@
         <v>3</v>
       </c>
       <c r="O5" s="5">
-        <v>1707</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>2002</v>
+      </c>
+      <c r="P5" s="2"/>
     </row>
     <row r="6" spans="14:16" x14ac:dyDescent="0.2">
       <c r="N6" t="s">
         <v>4</v>
       </c>
       <c r="O6" s="5">
-        <v>737</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>846.33</v>
+      </c>
+      <c r="P6" s="2"/>
     </row>
     <row r="7" spans="14:16" x14ac:dyDescent="0.2">
       <c r="N7" t="s">
@@ -793,7 +866,7 @@
       </c>
       <c r="O7" s="5">
         <f>+O4-O5+O6</f>
-        <v>29648</v>
+        <v>31395.514900000002</v>
       </c>
     </row>
   </sheetData>
@@ -803,28 +876,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB5D0F6-F818-4D6B-9D91-E5CB5E0CBE0F}">
-  <dimension ref="A1:U54"/>
+  <dimension ref="A1:CZ54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B52" sqref="B52"/>
+      <selection pane="bottomRight" activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="14" width="9.140625" style="2"/>
+    <col min="3" max="13" width="9.140625" style="2"/>
+    <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="L1" s="13">
+        <v>44742</v>
+      </c>
+      <c r="M1" s="13">
+        <v>44834</v>
+      </c>
+      <c r="N1" s="13">
+        <v>44926</v>
+      </c>
+      <c r="O1" s="14">
+        <v>45016</v>
+      </c>
+      <c r="S1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:104" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
@@ -861,27 +952,56 @@
       <c r="N2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q2">
+      <c r="O2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2">
+        <v>2019</v>
+      </c>
+      <c r="T2">
         <v>2020</v>
       </c>
-      <c r="R2">
-        <f>+Q2+1</f>
+      <c r="U2">
+        <f>+T2+1</f>
         <v>2021</v>
       </c>
-      <c r="S2">
-        <f t="shared" ref="S2:U2" si="0">+R2+1</f>
+      <c r="V2">
+        <f t="shared" ref="V2:X2" si="0">+U2+1</f>
         <v>2022</v>
       </c>
-      <c r="T2">
+      <c r="W2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="U2">
+      <c r="X2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Y2">
+        <v>2025</v>
+      </c>
+      <c r="Z2">
+        <v>2026</v>
+      </c>
+      <c r="AA2">
+        <v>2027</v>
+      </c>
+      <c r="AB2">
+        <v>2028</v>
+      </c>
+      <c r="AC2">
+        <v>2029</v>
+      </c>
+      <c r="AD2">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="3" spans="1:104" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>47</v>
       </c>
@@ -898,7 +1018,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:104" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
@@ -929,17 +1049,360 @@
         <v>406.13799999999998</v>
       </c>
       <c r="M6" s="4">
-        <v>415</v>
+        <v>436.53300000000002</v>
       </c>
       <c r="N6" s="4">
-        <v>450</v>
+        <v>469.399</v>
+      </c>
+      <c r="O6" s="3">
+        <v>481.714</v>
+      </c>
+      <c r="P6" s="3">
+        <v>509.64</v>
       </c>
       <c r="S6" s="3">
-        <f>SUM(K6:N6)</f>
-        <v>1634.1679999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>362.78</v>
+      </c>
+      <c r="T6" s="3">
+        <v>603.46600000000001</v>
+      </c>
+      <c r="U6" s="3">
+        <v>1028.7840000000001</v>
+      </c>
+      <c r="V6" s="3">
+        <f>SUM($K$6:$N$6)</f>
+        <v>1675.1</v>
+      </c>
+      <c r="W6" s="3">
+        <f t="shared" ref="W6:AD6" si="1">V6*(1+$S$23)</f>
+        <v>2177.63</v>
+      </c>
+      <c r="X6" s="3">
+        <f t="shared" si="1"/>
+        <v>2830.9190000000003</v>
+      </c>
+      <c r="Y6" s="3">
+        <f t="shared" si="1"/>
+        <v>3680.1947000000005</v>
+      </c>
+      <c r="Z6" s="3">
+        <f t="shared" si="1"/>
+        <v>4784.2531100000006</v>
+      </c>
+      <c r="AA6" s="3">
+        <f t="shared" si="1"/>
+        <v>6219.5290430000014</v>
+      </c>
+      <c r="AB6" s="3">
+        <f t="shared" si="1"/>
+        <v>8085.387755900002</v>
+      </c>
+      <c r="AC6" s="3">
+        <f t="shared" si="1"/>
+        <v>10511.004082670002</v>
+      </c>
+      <c r="AD6" s="3">
+        <f t="shared" si="1"/>
+        <v>13664.305307471004</v>
+      </c>
+      <c r="AE6" s="3">
+        <f>AD6*(1+S24)</f>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="AF6" s="3">
+        <f t="shared" ref="AF6:CQ6" si="2">AE6*(1+T24)</f>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="AG6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="AH6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="AI6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="AJ6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="AK6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="AL6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="AM6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="AN6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="AO6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="AP6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="AQ6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="AR6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="AS6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="AT6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="AU6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="AV6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="AW6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="AX6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="AY6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="AZ6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="BA6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="BB6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="BC6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="BD6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="BE6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="BF6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="BG6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="BH6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="BI6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="BJ6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="BK6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="BL6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="BM6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="BN6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="BO6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="BP6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="BQ6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="BR6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="BS6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="BT6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="BU6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="BV6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="BW6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="BX6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="BY6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="BZ6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="CA6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="CB6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="CC6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="CD6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="CE6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="CF6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="CG6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="CH6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="CI6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="CJ6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="CK6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="CL6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="CM6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="CN6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="CO6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="CP6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="CQ6" s="3">
+        <f t="shared" si="2"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="CR6" s="3">
+        <f t="shared" ref="CR6:CZ6" si="3">CQ6*(1+CF24)</f>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="CS6" s="3">
+        <f t="shared" si="3"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="CT6" s="3">
+        <f t="shared" si="3"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="CU6" s="3">
+        <f t="shared" si="3"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="CV6" s="3">
+        <f t="shared" si="3"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="CW6" s="3">
+        <f t="shared" si="3"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="CX6" s="3">
+        <f t="shared" si="3"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="CY6" s="3">
+        <f t="shared" si="3"/>
+        <v>13800.948360545714</v>
+      </c>
+      <c r="CZ6" s="3">
+        <f t="shared" si="3"/>
+        <v>13800.948360545714</v>
+      </c>
+    </row>
+    <row r="7" spans="1:104" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>20</v>
       </c>
@@ -969,51 +1432,92 @@
       <c r="L7" s="6">
         <v>81.924999999999997</v>
       </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M7" s="6">
+        <v>93.599000000000004</v>
+      </c>
+      <c r="N7" s="6">
+        <v>96.757000000000005</v>
+      </c>
+      <c r="O7" s="5">
+        <v>99.914000000000001</v>
+      </c>
+      <c r="P7" s="5">
+        <v>101.846</v>
+      </c>
+      <c r="S7" s="3">
+        <v>362.78</v>
+      </c>
+      <c r="T7" s="3">
+        <v>603.46600000000001</v>
+      </c>
+      <c r="U7" s="3">
+        <v>1028.7840000000001</v>
+      </c>
+      <c r="V7" s="3">
+        <f>SUM($K$6:$N$6)</f>
+        <v>1675.1</v>
+      </c>
+      <c r="W7" s="5">
+        <f>SUM(O6:R6)</f>
+        <v>991.35400000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:104" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6">
-        <f>+E6-E7</f>
+        <f t="shared" ref="E8:P8" si="4">+E6-E7</f>
         <v>120.691</v>
       </c>
       <c r="F8" s="6">
-        <f>+F6-F7</f>
+        <f t="shared" si="4"/>
         <v>136.67500000000001</v>
       </c>
       <c r="G8" s="6">
-        <f>+G6-G7</f>
+        <f t="shared" si="4"/>
         <v>151.88300000000001</v>
       </c>
       <c r="H8" s="6">
-        <f>+H6-H7</f>
+        <f t="shared" si="4"/>
         <v>176.45100000000002</v>
       </c>
       <c r="I8" s="6">
-        <f>+I6-I7</f>
+        <f t="shared" si="4"/>
         <v>207.15600000000001</v>
       </c>
       <c r="J8" s="6">
-        <f>+J6-J7</f>
+        <f t="shared" si="4"/>
         <v>259.04899999999998</v>
       </c>
       <c r="K8" s="6">
-        <f>+K6-K7</f>
+        <f t="shared" si="4"/>
         <v>288.56799999999998</v>
       </c>
       <c r="L8" s="6">
-        <f>+L6-L7</f>
+        <f t="shared" si="4"/>
         <v>324.21299999999997</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M8" s="6">
+        <f t="shared" si="4"/>
+        <v>342.93400000000003</v>
+      </c>
+      <c r="N8" s="6">
+        <f t="shared" si="4"/>
+        <v>372.642</v>
+      </c>
+      <c r="O8" s="6">
+        <f t="shared" si="4"/>
+        <v>381.8</v>
+      </c>
+      <c r="P8" s="6">
+        <f t="shared" si="4"/>
+        <v>407.79399999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:104" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
@@ -1043,10 +1547,20 @@
       <c r="L9" s="6">
         <v>177.69900000000001</v>
       </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-    </row>
-    <row r="10" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M9" s="6">
+        <v>205.38800000000001</v>
+      </c>
+      <c r="N9" s="6">
+        <v>218.65600000000001</v>
+      </c>
+      <c r="O9" s="5">
+        <v>229.47800000000001</v>
+      </c>
+      <c r="P9" s="5">
+        <v>239.494</v>
+      </c>
+    </row>
+    <row r="10" spans="1:104" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>23</v>
       </c>
@@ -1076,10 +1590,20 @@
       <c r="L10" s="6">
         <v>115.27</v>
       </c>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M10" s="6">
+        <v>129.49299999999999</v>
+      </c>
+      <c r="N10" s="6">
+        <v>149.35900000000001</v>
+      </c>
+      <c r="O10" s="5">
+        <v>144.971</v>
+      </c>
+      <c r="P10" s="5">
+        <v>147.45500000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:104" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>24</v>
       </c>
@@ -1109,92 +1633,130 @@
       <c r="L11" s="6">
         <v>34.383000000000003</v>
       </c>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M11" s="6">
+        <v>39.395000000000003</v>
+      </c>
+      <c r="N11" s="6">
+        <v>39.255000000000003</v>
+      </c>
+      <c r="O11" s="5">
+        <v>42.320999999999998</v>
+      </c>
+      <c r="P11" s="5">
+        <v>42.670999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:104" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6">
-        <f>SUM(E9:E11)</f>
+        <f t="shared" ref="E12:P12" si="5">SUM(E9:E11)</f>
         <v>129.958</v>
       </c>
       <c r="F12" s="6">
-        <f>SUM(F9:F11)</f>
+        <f t="shared" si="5"/>
         <v>145.613</v>
       </c>
       <c r="G12" s="6">
-        <f>SUM(G9:G11)</f>
+        <f t="shared" si="5"/>
         <v>164.71299999999999</v>
       </c>
       <c r="H12" s="6">
-        <f>SUM(H9:H11)</f>
+        <f t="shared" si="5"/>
         <v>186.33699999999999</v>
       </c>
       <c r="I12" s="6">
-        <f>SUM(I9:I11)</f>
+        <f t="shared" si="5"/>
         <v>212.05100000000002</v>
       </c>
       <c r="J12" s="6">
-        <f>SUM(J9:J11)</f>
+        <f t="shared" si="5"/>
         <v>250.59399999999999</v>
       </c>
       <c r="K12" s="6">
-        <f>SUM(K9:K11)</f>
+        <f t="shared" si="5"/>
         <v>278.154</v>
       </c>
       <c r="L12" s="6">
-        <f>SUM(L9:L11)</f>
+        <f t="shared" si="5"/>
         <v>327.35199999999998</v>
       </c>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-    </row>
-    <row r="13" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M12" s="6">
+        <f t="shared" si="5"/>
+        <v>374.27599999999995</v>
+      </c>
+      <c r="N12" s="6">
+        <f t="shared" si="5"/>
+        <v>407.27</v>
+      </c>
+      <c r="O12" s="6">
+        <f t="shared" si="5"/>
+        <v>416.77</v>
+      </c>
+      <c r="P12" s="6">
+        <f t="shared" si="5"/>
+        <v>429.62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:104" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6">
-        <f>E8-E12</f>
+        <f t="shared" ref="E13:P13" si="6">E8-E12</f>
         <v>-9.2669999999999959</v>
       </c>
       <c r="F13" s="6">
-        <f>F8-F12</f>
+        <f t="shared" si="6"/>
         <v>-8.9379999999999882</v>
       </c>
       <c r="G13" s="6">
-        <f>G8-G12</f>
+        <f t="shared" si="6"/>
         <v>-12.829999999999984</v>
       </c>
       <c r="H13" s="6">
-        <f>H8-H12</f>
+        <f t="shared" si="6"/>
         <v>-9.8859999999999673</v>
       </c>
       <c r="I13" s="6">
-        <f>I8-I12</f>
+        <f t="shared" si="6"/>
         <v>-4.8950000000000102</v>
       </c>
       <c r="J13" s="6">
-        <f>J8-J12</f>
+        <f t="shared" si="6"/>
         <v>8.4549999999999841</v>
       </c>
       <c r="K13" s="6">
-        <f>K8-K12</f>
+        <f t="shared" si="6"/>
         <v>10.413999999999987</v>
       </c>
       <c r="L13" s="6">
         <f>L8-L12</f>
         <v>-3.13900000000001</v>
       </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M13" s="6">
+        <f t="shared" si="6"/>
+        <v>-31.341999999999928</v>
+      </c>
+      <c r="N13" s="6">
+        <f t="shared" si="6"/>
+        <v>-34.627999999999986</v>
+      </c>
+      <c r="O13" s="6">
+        <f t="shared" si="6"/>
+        <v>-34.96999999999997</v>
+      </c>
+      <c r="P13" s="6">
+        <f t="shared" si="6"/>
+        <v>-21.826000000000022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:104" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
@@ -1229,51 +1791,79 @@
         <f>-4.541+7.669</f>
         <v>3.1279999999999992</v>
       </c>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M14" s="6">
+        <f>12.011-2.885</f>
+        <v>9.1259999999999994</v>
+      </c>
+      <c r="N14" s="6">
+        <f>11.793-2.175</f>
+        <v>9.6179999999999986</v>
+      </c>
+      <c r="O14" s="5">
+        <f>16.727-2.181</f>
+        <v>14.545999999999999</v>
+      </c>
+      <c r="P14" s="5">
+        <f>22.624-1.526</f>
+        <v>21.097999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:104" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6">
-        <f>+E13+E14</f>
+        <f t="shared" ref="E15:P15" si="7">+E13+E14</f>
         <v>-14.554999999999996</v>
       </c>
       <c r="F15" s="6">
-        <f>+F13+F14</f>
+        <f t="shared" si="7"/>
         <v>-15.166999999999987</v>
       </c>
       <c r="G15" s="6">
-        <f>+G13+G14</f>
+        <f t="shared" si="7"/>
         <v>-12.528999999999986</v>
       </c>
       <c r="H15" s="6">
-        <f>+H13+H14</f>
+        <f t="shared" si="7"/>
         <v>-9.6579999999999675</v>
       </c>
       <c r="I15" s="6">
-        <f>+I13+I14</f>
+        <f t="shared" si="7"/>
         <v>-4.7670000000000101</v>
       </c>
       <c r="J15" s="6">
-        <f>+J13+J14</f>
+        <f t="shared" si="7"/>
         <v>8.531999999999984</v>
       </c>
       <c r="K15" s="6">
-        <f>+K13+K14</f>
+        <f t="shared" si="7"/>
         <v>10.853999999999989</v>
       </c>
       <c r="L15" s="6">
-        <f>+L13+L14</f>
+        <f t="shared" si="7"/>
         <v>-1.1000000000010779E-2</v>
       </c>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-    </row>
-    <row r="16" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M15" s="6">
+        <f t="shared" si="7"/>
+        <v>-22.21599999999993</v>
+      </c>
+      <c r="N15" s="6">
+        <f t="shared" si="7"/>
+        <v>-25.009999999999987</v>
+      </c>
+      <c r="O15" s="6">
+        <f t="shared" si="7"/>
+        <v>-20.423999999999971</v>
+      </c>
+      <c r="P15" s="6">
+        <f t="shared" si="7"/>
+        <v>-0.72800000000002285</v>
+      </c>
+    </row>
+    <row r="16" spans="1:104" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
@@ -1303,92 +1893,130 @@
       <c r="L16" s="6">
         <v>4.8680000000000003</v>
       </c>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M16" s="6">
+        <v>2.9260000000000002</v>
+      </c>
+      <c r="N16" s="6">
+        <v>3.18</v>
+      </c>
+      <c r="O16" s="5">
+        <v>3.6619999999999999</v>
+      </c>
+      <c r="P16" s="5">
+        <v>3.0609999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6">
-        <f>+E15-E16</f>
+        <f t="shared" ref="E17:P17" si="8">+E15-E16</f>
         <v>-15.149999999999997</v>
       </c>
       <c r="F17" s="6">
-        <f>+F15-F16</f>
+        <f t="shared" si="8"/>
         <v>-16.159999999999986</v>
       </c>
       <c r="G17" s="6">
-        <f>+G15-G16</f>
+        <f t="shared" si="8"/>
         <v>-11.989999999999986</v>
       </c>
       <c r="H17" s="6">
-        <f>+H15-H16</f>
+        <f t="shared" si="8"/>
         <v>-6.6979999999999675</v>
       </c>
       <c r="I17" s="6">
-        <f>+I15-I16</f>
+        <f t="shared" si="8"/>
         <v>-4.0500000000000105</v>
       </c>
       <c r="J17" s="6">
-        <f>+J15-J16</f>
+        <f t="shared" si="8"/>
         <v>7.1689999999999845</v>
       </c>
       <c r="K17" s="6">
-        <f>+K15-K16</f>
+        <f t="shared" si="8"/>
         <v>9.7379999999999889</v>
       </c>
       <c r="L17" s="6">
-        <f>+L15-L16</f>
+        <f t="shared" si="8"/>
         <v>-4.8790000000000111</v>
       </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-    </row>
-    <row r="18" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M17" s="6">
+        <f t="shared" si="8"/>
+        <v>-25.141999999999932</v>
+      </c>
+      <c r="N17" s="6">
+        <f t="shared" si="8"/>
+        <v>-28.189999999999987</v>
+      </c>
+      <c r="O17" s="6">
+        <f t="shared" si="8"/>
+        <v>-24.08599999999997</v>
+      </c>
+      <c r="P17" s="6">
+        <f t="shared" si="8"/>
+        <v>-3.7890000000000228</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7">
-        <f>+E17/E19</f>
+        <f t="shared" ref="E18:P18" si="9">+E17/E19</f>
         <v>-5.0073705850856368E-2</v>
       </c>
       <c r="F18" s="7">
-        <f>+F17/F19</f>
+        <f t="shared" si="9"/>
         <v>-5.3147929500060795E-2</v>
       </c>
       <c r="G18" s="7">
-        <f>+G17/G19</f>
+        <f t="shared" si="9"/>
         <v>-3.9178653352241861E-2</v>
       </c>
       <c r="H18" s="7">
-        <f>+H17/H19</f>
+        <f t="shared" si="9"/>
         <v>-2.1745411809011676E-2</v>
       </c>
       <c r="I18" s="7">
-        <f>+I17/I19</f>
+        <f t="shared" si="9"/>
         <v>-1.3054114947122809E-2</v>
       </c>
       <c r="J18" s="7">
-        <f>+J17/J19</f>
+        <f t="shared" si="9"/>
         <v>2.0727021455604115E-2</v>
       </c>
       <c r="K18" s="7">
-        <f>+K17/K19</f>
+        <f t="shared" si="9"/>
         <v>2.8171540321927365E-2</v>
       </c>
       <c r="L18" s="7">
-        <f>+L17/L19</f>
+        <f t="shared" si="9"/>
         <v>-1.5498975523753589E-2</v>
       </c>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-    </row>
-    <row r="19" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M18" s="7">
+        <f t="shared" si="9"/>
+        <v>-7.9565809044589805E-2</v>
+      </c>
+      <c r="N18" s="7">
+        <f t="shared" si="9"/>
+        <v>-8.8829928028536453E-2</v>
+      </c>
+      <c r="O18" s="7">
+        <f t="shared" si="9"/>
+        <v>-7.5437068960117162E-2</v>
+      </c>
+      <c r="P18" s="7">
+        <f t="shared" si="9"/>
+        <v>-1.1759229086169245E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
         <v>1</v>
       </c>
@@ -1419,11 +2047,19 @@
         <v>314.79500000000002</v>
       </c>
       <c r="M19" s="6">
-        <v>347</v>
-      </c>
-      <c r="N19" s="6"/>
-    </row>
-    <row r="21" spans="2:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+        <v>315.99</v>
+      </c>
+      <c r="N19" s="6">
+        <v>317.34800000000001</v>
+      </c>
+      <c r="O19" s="5">
+        <v>319.286</v>
+      </c>
+      <c r="P19" s="5">
+        <v>322.21499999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>45</v>
       </c>
@@ -1434,15 +2070,15 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="10">
-        <f t="shared" ref="I21:K21" si="1">+I6/E6-1</f>
+        <f t="shared" ref="I21:K21" si="10">+I6/E6-1</f>
         <v>0.74875060610958455</v>
       </c>
       <c r="J21" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0.83741431074009598</v>
       </c>
       <c r="K21" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0.82841515192723181</v>
       </c>
       <c r="L21" s="10">
@@ -1451,61 +2087,83 @@
       </c>
       <c r="M21" s="10">
         <f>+M6/I6-1</f>
-        <v>0.53426399692407789</v>
+        <v>0.61387196474520134</v>
       </c>
       <c r="N21" s="10">
         <f>+N6/J6-1</f>
-        <v>0.37953022397439606</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="13" t="s">
+        <v>0.43900023911857233</v>
+      </c>
+      <c r="O21" s="10">
+        <f>+O6/K6-1</f>
+        <v>0.32692614935404807</v>
+      </c>
+      <c r="P21" s="10">
+        <f>+P6/L6-1</f>
+        <v>0.25484441249033574</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15">
-        <f t="shared" ref="E22:H22" si="2">+E8/E6</f>
+      <c r="E22" s="12">
+        <f t="shared" ref="E22:H22" si="11">+E8/E6</f>
         <v>0.78028770001616288</v>
       </c>
-      <c r="F22" s="15">
-        <f t="shared" si="2"/>
+      <c r="F22" s="12">
+        <f t="shared" si="11"/>
         <v>0.76986554460911061</v>
       </c>
-      <c r="G22" s="15">
-        <f t="shared" si="2"/>
+      <c r="G22" s="12">
+        <f t="shared" si="11"/>
         <v>0.7649648197674126</v>
       </c>
-      <c r="H22" s="15">
-        <f t="shared" si="2"/>
+      <c r="H22" s="12">
+        <f t="shared" si="11"/>
         <v>0.75552025485015994</v>
       </c>
-      <c r="I22" s="15">
-        <f t="shared" ref="I22:L22" si="3">+I8/I6</f>
+      <c r="I22" s="12">
+        <f t="shared" ref="I22:K22" si="12">+I8/I6</f>
         <v>0.76586022300434775</v>
       </c>
-      <c r="J22" s="15">
-        <f t="shared" si="3"/>
+      <c r="J22" s="12">
+        <f t="shared" si="12"/>
         <v>0.79414649997854059</v>
       </c>
-      <c r="K22" s="15">
-        <f t="shared" si="3"/>
+      <c r="K22" s="12">
+        <f t="shared" si="12"/>
         <v>0.79488747486433631</v>
       </c>
-      <c r="L22" s="15">
+      <c r="L22" s="12">
         <f>+L8/L6</f>
         <v>0.79828284967178642</v>
       </c>
-      <c r="M22" s="15">
-        <f t="shared" ref="M22:N22" si="4">+M8/M6</f>
-        <v>0</v>
-      </c>
-      <c r="N22" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M22" s="12">
+        <f t="shared" ref="M22:P22" si="13">+M8/M6</f>
+        <v>0.78558551129009724</v>
+      </c>
+      <c r="N22" s="12">
+        <f t="shared" si="13"/>
+        <v>0.79387045988593929</v>
+      </c>
+      <c r="O22" s="12">
+        <f t="shared" si="13"/>
+        <v>0.79258647247121738</v>
+      </c>
+      <c r="P22" s="12">
+        <f t="shared" si="13"/>
+        <v>0.8001608978887057</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R23" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="S23" s="20">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
         <v>3</v>
       </c>
@@ -1527,8 +2185,14 @@
       </c>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
-    </row>
-    <row r="25" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R24" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="S24" s="16">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
         <v>33</v>
       </c>
@@ -1548,8 +2212,14 @@
       </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
-    </row>
-    <row r="26" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R25" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="S25" s="16">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
         <v>34</v>
       </c>
@@ -1571,8 +2241,15 @@
       </c>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
-    </row>
-    <row r="27" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R26" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="S26" s="18">
+        <f>NPV(S25,S6:CZ6)</f>
+        <v>57693.064395439622</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
         <v>35</v>
       </c>
@@ -1592,8 +2269,15 @@
       </c>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
-    </row>
-    <row r="28" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R27" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="S27" s="21">
+        <f>Main!O3</f>
+        <v>296.27</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
         <v>36</v>
       </c>
@@ -1613,8 +2297,15 @@
       </c>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
-    </row>
-    <row r="29" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R28" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="S28" s="19">
+        <f>S26/S27</f>
+        <v>194.73137474411729</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
         <v>37</v>
       </c>
@@ -1634,8 +2325,15 @@
       </c>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
-    </row>
-    <row r="30" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R29" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="S29" s="20">
+        <f>(S28-Main!O2)/Main!O2</f>
+        <v>0.77237985568505763</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
         <v>38</v>
       </c>
@@ -1657,8 +2355,15 @@
       </c>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
-    </row>
-    <row r="31" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R30" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="S30" s="18">
+        <f>S27*S28</f>
+        <v>57693.064395439629</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
         <v>39</v>
       </c>
@@ -1679,7 +2384,7 @@
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
     </row>
-    <row r="32" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
         <v>32</v>
       </c>

--- a/DDOG.xlsx
+++ b/DDOG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffe\Documents\GitHub\martinshkreli-models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3B50DB-0A71-4894-B84A-351264157695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88AB9AE-FF4F-40BD-8881-5052BBAE5BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14235" yWindow="90" windowWidth="26190" windowHeight="20805" activeTab="1" xr2:uid="{3FD86B5C-07F1-42A4-9D66-8FB9C4BAF175}"/>
+    <workbookView xWindow="14235" yWindow="90" windowWidth="37440" windowHeight="20805" xr2:uid="{3FD86B5C-07F1-42A4-9D66-8FB9C4BAF175}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
     Q2: 410-414m</t>
       </text>
     </comment>
-    <comment ref="V6" authorId="2" shapeId="0" xr:uid="{95169845-1F7F-4051-990A-FE3D69449576}">
+    <comment ref="Y6" authorId="2" shapeId="0" xr:uid="{95169845-1F7F-4051-990A-FE3D69449576}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -70,7 +70,7 @@
     Q1: 1600-1620m</t>
       </text>
     </comment>
-    <comment ref="V7" authorId="3" shapeId="0" xr:uid="{939E2C75-C2A6-4046-AF27-AFF4D420F9BB}">
+    <comment ref="Y7" authorId="3" shapeId="0" xr:uid="{939E2C75-C2A6-4046-AF27-AFF4D420F9BB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="74">
   <si>
     <t>Price</t>
   </si>
@@ -289,16 +289,36 @@
   </si>
   <si>
     <t>FY</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>YOY%</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>Bottom</t>
+  </si>
+  <si>
+    <t>if growth accelerates up</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -367,7 +387,7 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -406,6 +426,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -791,16 +816,16 @@
   <threadedComment ref="M6" dT="2022-09-02T14:59:12.36" personId="{6EBEE36F-B86D-4667-B671-D0667117F4FF}" id="{15E8E758-37B6-468B-81A6-B3305FD6827A}">
     <text>Q2: 410-414m</text>
   </threadedComment>
-  <threadedComment ref="V6" dT="2022-09-02T14:59:40.61" personId="{6EBEE36F-B86D-4667-B671-D0667117F4FF}" id="{95169845-1F7F-4051-990A-FE3D69449576}">
+  <threadedComment ref="Y6" dT="2022-09-02T14:59:40.61" personId="{6EBEE36F-B86D-4667-B671-D0667117F4FF}" id="{95169845-1F7F-4051-990A-FE3D69449576}">
     <text>Q2: 1610-1630m</text>
   </threadedComment>
-  <threadedComment ref="V6" dT="2022-09-02T15:01:04.51" personId="{6EBEE36F-B86D-4667-B671-D0667117F4FF}" id="{618BFB8A-809A-468A-BF3E-6286A5CBAEB3}" parentId="{95169845-1F7F-4051-990A-FE3D69449576}">
+  <threadedComment ref="Y6" dT="2022-09-02T15:01:04.51" personId="{6EBEE36F-B86D-4667-B671-D0667117F4FF}" id="{618BFB8A-809A-468A-BF3E-6286A5CBAEB3}" parentId="{95169845-1F7F-4051-990A-FE3D69449576}">
     <text>Q1: 1600-1620m</text>
   </threadedComment>
-  <threadedComment ref="V7" dT="2022-09-02T14:59:40.61" personId="{6EBEE36F-B86D-4667-B671-D0667117F4FF}" id="{939E2C75-C2A6-4046-AF27-AFF4D420F9BB}">
+  <threadedComment ref="Y7" dT="2022-09-02T14:59:40.61" personId="{6EBEE36F-B86D-4667-B671-D0667117F4FF}" id="{939E2C75-C2A6-4046-AF27-AFF4D420F9BB}">
     <text>Q2: 1610-1630m</text>
   </threadedComment>
-  <threadedComment ref="V7" dT="2022-09-02T15:01:04.51" personId="{6EBEE36F-B86D-4667-B671-D0667117F4FF}" id="{67F1968D-792E-4F6B-B86B-D7480C200BB9}" parentId="{939E2C75-C2A6-4046-AF27-AFF4D420F9BB}">
+  <threadedComment ref="Y7" dT="2022-09-02T15:01:04.51" personId="{6EBEE36F-B86D-4667-B671-D0667117F4FF}" id="{67F1968D-792E-4F6B-B86B-D7480C200BB9}" parentId="{939E2C75-C2A6-4046-AF27-AFF4D420F9BB}">
     <text>Q1: 1600-1620m</text>
   </threadedComment>
 </ThreadedComments>
@@ -810,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3BD0B1-E685-4627-8A01-75A3D2BDF860}">
   <dimension ref="N2:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -821,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>109.87</v>
+        <v>134.91</v>
       </c>
     </row>
     <row r="3" spans="14:16" x14ac:dyDescent="0.2">
@@ -829,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="O3" s="5">
-        <v>296.27</v>
+        <v>325.55700000000002</v>
       </c>
       <c r="P3" s="2"/>
     </row>
@@ -839,7 +864,7 @@
       </c>
       <c r="O4" s="5">
         <f>+O2*O3</f>
-        <v>32551.1849</v>
+        <v>43920.894870000004</v>
       </c>
     </row>
     <row r="5" spans="14:16" x14ac:dyDescent="0.2">
@@ -847,7 +872,7 @@
         <v>3</v>
       </c>
       <c r="O5" s="5">
-        <v>2002</v>
+        <v>2080</v>
       </c>
       <c r="P5" s="2"/>
     </row>
@@ -856,7 +881,7 @@
         <v>4</v>
       </c>
       <c r="O6" s="5">
-        <v>846.33</v>
+        <v>1736.826</v>
       </c>
       <c r="P6" s="2"/>
     </row>
@@ -866,7 +891,7 @@
       </c>
       <c r="O7" s="5">
         <f>+O4-O5+O6</f>
-        <v>31395.514900000002</v>
+        <v>43577.720870000005</v>
       </c>
     </row>
   </sheetData>
@@ -876,13 +901,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB5D0F6-F818-4D6B-9D91-E5CB5E0CBE0F}">
-  <dimension ref="A1:CZ54"/>
+  <dimension ref="A1:DC54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R16" sqref="R16"/>
+      <selection pane="bottomRight" activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -891,11 +916,13 @@
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="13" width="9.140625" style="2"/>
     <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
@@ -911,11 +938,20 @@
       <c r="O1" s="14">
         <v>45016</v>
       </c>
-      <c r="S1" t="s">
+      <c r="P1" s="13">
+        <v>45107</v>
+      </c>
+      <c r="Q1" s="13">
+        <v>45199</v>
+      </c>
+      <c r="R1" s="13">
+        <v>45291</v>
+      </c>
+      <c r="V1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:107" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
@@ -958,50 +994,57 @@
       <c r="P2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2">
+      <c r="Q2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2">
         <v>2019</v>
       </c>
-      <c r="T2">
+      <c r="W2">
         <v>2020</v>
       </c>
-      <c r="U2">
-        <f>+T2+1</f>
+      <c r="X2">
+        <f>+W2+1</f>
         <v>2021</v>
       </c>
-      <c r="V2">
-        <f t="shared" ref="V2:X2" si="0">+U2+1</f>
+      <c r="Y2">
+        <f t="shared" ref="Y2:AA2" si="0">+X2+1</f>
         <v>2022</v>
       </c>
-      <c r="W2">
+      <c r="Z2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="X2">
+      <c r="AA2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="Y2">
+      <c r="AB2">
         <v>2025</v>
       </c>
-      <c r="Z2">
+      <c r="AC2">
         <v>2026</v>
       </c>
-      <c r="AA2">
+      <c r="AD2">
         <v>2027</v>
       </c>
-      <c r="AB2">
+      <c r="AE2">
         <v>2028</v>
       </c>
-      <c r="AC2">
+      <c r="AF2">
         <v>2029</v>
       </c>
-      <c r="AD2">
+      <c r="AG2">
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:107" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>47</v>
       </c>
@@ -1018,7 +1061,63 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="6" spans="1:104" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="Z4" s="25"/>
+    </row>
+    <row r="5" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="V5" t="s">
+        <v>69</v>
+      </c>
+      <c r="W5" s="22">
+        <f>(W6-V6)/V6</f>
+        <v>0.66344892221180896</v>
+      </c>
+      <c r="X5" s="22">
+        <f>(X6-W6)/W6</f>
+        <v>0.7047919849668417</v>
+      </c>
+      <c r="Y5" s="22">
+        <f>(Y6-X6)/X6</f>
+        <v>0.62823294296956378</v>
+      </c>
+      <c r="Z5" s="24">
+        <f>(Z6-Y6)/Y6</f>
+        <v>0.25783535311324701</v>
+      </c>
+      <c r="AA5" s="24">
+        <f>(AA6-Z6)/Z6</f>
+        <v>0.26000000000000006</v>
+      </c>
+      <c r="AB5" s="24">
+        <f>(AB6-AA6)/AA6</f>
+        <v>0.26</v>
+      </c>
+      <c r="AC5" s="24">
+        <f>(AC6-AB6)/AB6</f>
+        <v>0.26000000000000012</v>
+      </c>
+      <c r="AD5" s="24">
+        <f>(AD6-AC6)/AC6</f>
+        <v>0.26</v>
+      </c>
+      <c r="AE5" s="24">
+        <f>(AE6-AD6)/AD6</f>
+        <v>0.26000000000000006</v>
+      </c>
+      <c r="AF5" s="24">
+        <f>(AF6-AE6)/AE6</f>
+        <v>0.25999999999999995</v>
+      </c>
+      <c r="AG5" s="24">
+        <f>(AG6-AF6)/AF6</f>
+        <v>0.25999999999999995</v>
+      </c>
+      <c r="AH5" s="24">
+        <f>(AH6-AG6)/AG6</f>
+        <v>1.0000000000000038E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:107" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1060,349 +1159,354 @@
       <c r="P6" s="3">
         <v>509.64</v>
       </c>
-      <c r="S6" s="3">
+      <c r="Q6" s="3">
+        <v>547.53599999999994</v>
+      </c>
+      <c r="R6" s="3">
+        <v>568</v>
+      </c>
+      <c r="V6" s="3">
         <v>362.78</v>
       </c>
-      <c r="T6" s="3">
+      <c r="W6" s="3">
         <v>603.46600000000001</v>
       </c>
-      <c r="U6" s="3">
+      <c r="X6" s="3">
         <v>1028.7840000000001</v>
       </c>
-      <c r="V6" s="3">
+      <c r="Y6" s="3">
         <f>SUM($K$6:$N$6)</f>
         <v>1675.1</v>
       </c>
-      <c r="W6" s="3">
-        <f t="shared" ref="W6:AD6" si="1">V6*(1+$S$23)</f>
-        <v>2177.63</v>
-      </c>
-      <c r="X6" s="3">
-        <f t="shared" si="1"/>
-        <v>2830.9190000000003</v>
-      </c>
-      <c r="Y6" s="3">
-        <f t="shared" si="1"/>
-        <v>3680.1947000000005</v>
-      </c>
       <c r="Z6" s="3">
-        <f t="shared" si="1"/>
-        <v>4784.2531100000006</v>
+        <v>2107</v>
       </c>
       <c r="AA6" s="3">
-        <f t="shared" si="1"/>
-        <v>6219.5290430000014</v>
+        <f t="shared" ref="Z6:AG7" si="1">Z6*(1+$V$23)</f>
+        <v>2654.82</v>
       </c>
       <c r="AB6" s="3">
         <f t="shared" si="1"/>
-        <v>8085.387755900002</v>
+        <v>3345.0732000000003</v>
       </c>
       <c r="AC6" s="3">
         <f t="shared" si="1"/>
-        <v>10511.004082670002</v>
+        <v>4214.7922320000007</v>
       </c>
       <c r="AD6" s="3">
         <f t="shared" si="1"/>
-        <v>13664.305307471004</v>
+        <v>5310.638212320001</v>
       </c>
       <c r="AE6" s="3">
-        <f>AD6*(1+S24)</f>
-        <v>13800.948360545714</v>
+        <f t="shared" si="1"/>
+        <v>6691.4041475232016</v>
       </c>
       <c r="AF6" s="3">
-        <f t="shared" ref="AF6:CQ6" si="2">AE6*(1+T24)</f>
-        <v>13800.948360545714</v>
+        <f t="shared" si="1"/>
+        <v>8431.1692258792336</v>
       </c>
       <c r="AG6" s="3">
-        <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <f t="shared" si="1"/>
+        <v>10623.273224607834</v>
       </c>
       <c r="AH6" s="3">
-        <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <f>AG6*(1+$V$24)</f>
+        <v>10729.505956853913</v>
       </c>
       <c r="AI6" s="3">
-        <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <f t="shared" ref="AI6:CT6" si="2">AH6*(1+$V$24)</f>
+        <v>10836.801016422452</v>
       </c>
       <c r="AJ6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>10945.169026586676</v>
       </c>
       <c r="AK6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>11054.620716852543</v>
       </c>
       <c r="AL6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>11165.166924021069</v>
       </c>
       <c r="AM6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>11276.81859326128</v>
       </c>
       <c r="AN6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>11389.586779193893</v>
       </c>
       <c r="AO6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>11503.482646985831</v>
       </c>
       <c r="AP6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>11618.517473455689</v>
       </c>
       <c r="AQ6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>11734.702648190247</v>
       </c>
       <c r="AR6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>11852.049674672149</v>
       </c>
       <c r="AS6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>11970.570171418871</v>
       </c>
       <c r="AT6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>12090.27587313306</v>
       </c>
       <c r="AU6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>12211.17863186439</v>
       </c>
       <c r="AV6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>12333.290418183034</v>
       </c>
       <c r="AW6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>12456.623322364865</v>
       </c>
       <c r="AX6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>12581.189555588513</v>
       </c>
       <c r="AY6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>12707.001451144399</v>
       </c>
       <c r="AZ6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>12834.071465655843</v>
       </c>
       <c r="BA6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>12962.412180312402</v>
       </c>
       <c r="BB6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>13092.036302115526</v>
       </c>
       <c r="BC6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>13222.956665136682</v>
       </c>
       <c r="BD6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>13355.18623178805</v>
       </c>
       <c r="BE6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>13488.738094105931</v>
       </c>
       <c r="BF6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>13623.625475046991</v>
       </c>
       <c r="BG6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>13759.861729797462</v>
       </c>
       <c r="BH6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>13897.460347095437</v>
       </c>
       <c r="BI6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>14036.434950566392</v>
       </c>
       <c r="BJ6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>14176.799300072056</v>
       </c>
       <c r="BK6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>14318.567293072776</v>
       </c>
       <c r="BL6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>14461.752966003503</v>
       </c>
       <c r="BM6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>14606.370495663539</v>
       </c>
       <c r="BN6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>14752.434200620175</v>
       </c>
       <c r="BO6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>14899.958542626377</v>
       </c>
       <c r="BP6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>15048.95812805264</v>
       </c>
       <c r="BQ6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>15199.447709333166</v>
       </c>
       <c r="BR6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>15351.442186426499</v>
       </c>
       <c r="BS6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>15504.956608290764</v>
       </c>
       <c r="BT6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>15660.006174373671</v>
       </c>
       <c r="BU6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>15816.606236117408</v>
       </c>
       <c r="BV6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>15974.772298478581</v>
       </c>
       <c r="BW6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>16134.520021463368</v>
       </c>
       <c r="BX6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>16295.865221678001</v>
       </c>
       <c r="BY6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>16458.82387389478</v>
       </c>
       <c r="BZ6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>16623.412112633727</v>
       </c>
       <c r="CA6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>16789.646233760064</v>
       </c>
       <c r="CB6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>16957.542696097666</v>
       </c>
       <c r="CC6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>17127.118123058641</v>
       </c>
       <c r="CD6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>17298.389304289227</v>
       </c>
       <c r="CE6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>17471.373197332119</v>
       </c>
       <c r="CF6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>17646.086929305442</v>
       </c>
       <c r="CG6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>17822.547798598498</v>
       </c>
       <c r="CH6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>18000.773276584485</v>
       </c>
       <c r="CI6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>18180.781009350329</v>
       </c>
       <c r="CJ6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>18362.58881944383</v>
       </c>
       <c r="CK6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>18546.214707638268</v>
       </c>
       <c r="CL6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>18731.676854714649</v>
       </c>
       <c r="CM6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>18918.993623261795</v>
       </c>
       <c r="CN6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>19108.183559494413</v>
       </c>
       <c r="CO6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>19299.265395089358</v>
       </c>
       <c r="CP6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>19492.258049040251</v>
       </c>
       <c r="CQ6" s="3">
         <f t="shared" si="2"/>
-        <v>13800.948360545714</v>
+        <v>19687.180629530652</v>
       </c>
       <c r="CR6" s="3">
-        <f t="shared" ref="CR6:CZ6" si="3">CQ6*(1+CF24)</f>
-        <v>13800.948360545714</v>
+        <f t="shared" si="2"/>
+        <v>19884.052435825961</v>
       </c>
       <c r="CS6" s="3">
-        <f t="shared" si="3"/>
-        <v>13800.948360545714</v>
+        <f t="shared" si="2"/>
+        <v>20082.892960184221</v>
       </c>
       <c r="CT6" s="3">
-        <f t="shared" si="3"/>
-        <v>13800.948360545714</v>
+        <f t="shared" si="2"/>
+        <v>20283.721889786062</v>
       </c>
       <c r="CU6" s="3">
-        <f t="shared" si="3"/>
-        <v>13800.948360545714</v>
+        <f t="shared" ref="CU6:DC6" si="3">CT6*(1+$V$24)</f>
+        <v>20486.559108683923</v>
       </c>
       <c r="CV6" s="3">
         <f t="shared" si="3"/>
-        <v>13800.948360545714</v>
+        <v>20691.424699770763</v>
       </c>
       <c r="CW6" s="3">
         <f t="shared" si="3"/>
-        <v>13800.948360545714</v>
+        <v>20898.338946768472</v>
       </c>
       <c r="CX6" s="3">
         <f t="shared" si="3"/>
-        <v>13800.948360545714</v>
+        <v>21107.322336236157</v>
       </c>
       <c r="CY6" s="3">
         <f t="shared" si="3"/>
-        <v>13800.948360545714</v>
+        <v>21318.395559598517</v>
       </c>
       <c r="CZ6" s="3">
         <f t="shared" si="3"/>
-        <v>13800.948360545714</v>
-      </c>
-    </row>
-    <row r="7" spans="1:104" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>21531.579515194502</v>
+      </c>
+      <c r="DA6" s="3">
+        <f t="shared" si="3"/>
+        <v>21746.895310346448</v>
+      </c>
+      <c r="DB6" s="3">
+        <f t="shared" si="3"/>
+        <v>21964.364263449912</v>
+      </c>
+      <c r="DC6" s="3">
+        <f t="shared" si="3"/>
+        <v>22184.007906084411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>20</v>
       </c>
@@ -1444,80 +1548,447 @@
       <c r="P7" s="5">
         <v>101.846</v>
       </c>
-      <c r="S7" s="3">
+      <c r="Q7" s="5">
+        <v>103.319</v>
+      </c>
+      <c r="V7" s="3">
         <v>362.78</v>
       </c>
-      <c r="T7" s="3">
+      <c r="W7" s="3">
         <v>603.46600000000001</v>
       </c>
-      <c r="U7" s="3">
+      <c r="X7" s="3">
         <v>1028.7840000000001</v>
       </c>
-      <c r="V7" s="3">
+      <c r="Y7" s="3">
         <f>SUM($K$6:$N$6)</f>
         <v>1675.1</v>
       </c>
-      <c r="W7" s="5">
-        <f>SUM(O6:R6)</f>
-        <v>991.35400000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:104" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z7" s="5">
+        <f>SUM(O6:U6)</f>
+        <v>2106.89</v>
+      </c>
+      <c r="AA7" s="3">
+        <f>Z7*(1+$X$23)</f>
+        <v>2738.9569999999999</v>
+      </c>
+      <c r="AB7" s="3">
+        <f>AA7*(1+$X$23)</f>
+        <v>3560.6441</v>
+      </c>
+      <c r="AC7" s="3">
+        <f>AB7*(1+$X$23)</f>
+        <v>4628.8373300000003</v>
+      </c>
+      <c r="AD7" s="3">
+        <f>AC7*(1+$X$23)</f>
+        <v>6017.4885290000002</v>
+      </c>
+      <c r="AE7" s="3">
+        <f>AD7*(1+$X$23)</f>
+        <v>7822.7350877000008</v>
+      </c>
+      <c r="AF7" s="3">
+        <f>AE7*(1+$X$23)</f>
+        <v>10169.555614010002</v>
+      </c>
+      <c r="AG7" s="3">
+        <f>AF7*(1+$X$23)</f>
+        <v>13220.422298213003</v>
+      </c>
+      <c r="AH7" s="3">
+        <f>AG7*(1+$V$24)</f>
+        <v>13352.626521195134</v>
+      </c>
+      <c r="AI7" s="3">
+        <f>AH7*(1+$V$24)</f>
+        <v>13486.152786407085</v>
+      </c>
+      <c r="AJ7" s="3">
+        <f t="shared" ref="AJ7:CU7" si="4">AI7*(1+$V$24)</f>
+        <v>13621.014314271157</v>
+      </c>
+      <c r="AK7" s="3">
+        <f t="shared" si="4"/>
+        <v>13757.224457413868</v>
+      </c>
+      <c r="AL7" s="3">
+        <f t="shared" si="4"/>
+        <v>13894.796701988007</v>
+      </c>
+      <c r="AM7" s="3">
+        <f t="shared" si="4"/>
+        <v>14033.744669007887</v>
+      </c>
+      <c r="AN7" s="3">
+        <f t="shared" si="4"/>
+        <v>14174.082115697965</v>
+      </c>
+      <c r="AO7" s="3">
+        <f t="shared" si="4"/>
+        <v>14315.822936854946</v>
+      </c>
+      <c r="AP7" s="3">
+        <f t="shared" si="4"/>
+        <v>14458.981166223495</v>
+      </c>
+      <c r="AQ7" s="3">
+        <f t="shared" si="4"/>
+        <v>14603.570977885731</v>
+      </c>
+      <c r="AR7" s="3">
+        <f t="shared" si="4"/>
+        <v>14749.606687664589</v>
+      </c>
+      <c r="AS7" s="3">
+        <f t="shared" si="4"/>
+        <v>14897.102754541234</v>
+      </c>
+      <c r="AT7" s="3">
+        <f t="shared" si="4"/>
+        <v>15046.073782086647</v>
+      </c>
+      <c r="AU7" s="3">
+        <f t="shared" si="4"/>
+        <v>15196.534519907515</v>
+      </c>
+      <c r="AV7" s="3">
+        <f t="shared" si="4"/>
+        <v>15348.499865106591</v>
+      </c>
+      <c r="AW7" s="3">
+        <f t="shared" si="4"/>
+        <v>15501.984863757656</v>
+      </c>
+      <c r="AX7" s="3">
+        <f t="shared" si="4"/>
+        <v>15657.004712395234</v>
+      </c>
+      <c r="AY7" s="3">
+        <f t="shared" si="4"/>
+        <v>15813.574759519186</v>
+      </c>
+      <c r="AZ7" s="3">
+        <f t="shared" si="4"/>
+        <v>15971.710507114378</v>
+      </c>
+      <c r="BA7" s="3">
+        <f t="shared" si="4"/>
+        <v>16131.427612185522</v>
+      </c>
+      <c r="BB7" s="3">
+        <f t="shared" si="4"/>
+        <v>16292.741888307377</v>
+      </c>
+      <c r="BC7" s="3">
+        <f t="shared" si="4"/>
+        <v>16455.669307190452</v>
+      </c>
+      <c r="BD7" s="3">
+        <f t="shared" si="4"/>
+        <v>16620.226000262355</v>
+      </c>
+      <c r="BE7" s="3">
+        <f t="shared" si="4"/>
+        <v>16786.42826026498</v>
+      </c>
+      <c r="BF7" s="3">
+        <f t="shared" si="4"/>
+        <v>16954.292542867632</v>
+      </c>
+      <c r="BG7" s="3">
+        <f t="shared" si="4"/>
+        <v>17123.835468296307</v>
+      </c>
+      <c r="BH7" s="3">
+        <f t="shared" si="4"/>
+        <v>17295.07382297927</v>
+      </c>
+      <c r="BI7" s="3">
+        <f t="shared" si="4"/>
+        <v>17468.024561209062</v>
+      </c>
+      <c r="BJ7" s="3">
+        <f t="shared" si="4"/>
+        <v>17642.704806821152</v>
+      </c>
+      <c r="BK7" s="3">
+        <f t="shared" si="4"/>
+        <v>17819.131854889365</v>
+      </c>
+      <c r="BL7" s="3">
+        <f t="shared" si="4"/>
+        <v>17997.323173438257</v>
+      </c>
+      <c r="BM7" s="3">
+        <f t="shared" si="4"/>
+        <v>18177.296405172641</v>
+      </c>
+      <c r="BN7" s="3">
+        <f t="shared" si="4"/>
+        <v>18359.069369224369</v>
+      </c>
+      <c r="BO7" s="3">
+        <f t="shared" si="4"/>
+        <v>18542.660062916613</v>
+      </c>
+      <c r="BP7" s="3">
+        <f t="shared" si="4"/>
+        <v>18728.086663545779</v>
+      </c>
+      <c r="BQ7" s="3">
+        <f t="shared" si="4"/>
+        <v>18915.367530181236</v>
+      </c>
+      <c r="BR7" s="3">
+        <f t="shared" si="4"/>
+        <v>19104.521205483048</v>
+      </c>
+      <c r="BS7" s="3">
+        <f t="shared" si="4"/>
+        <v>19295.566417537877</v>
+      </c>
+      <c r="BT7" s="3">
+        <f t="shared" si="4"/>
+        <v>19488.522081713258</v>
+      </c>
+      <c r="BU7" s="3">
+        <f t="shared" si="4"/>
+        <v>19683.407302530391</v>
+      </c>
+      <c r="BV7" s="3">
+        <f t="shared" si="4"/>
+        <v>19880.241375555695</v>
+      </c>
+      <c r="BW7" s="3">
+        <f t="shared" si="4"/>
+        <v>20079.043789311254</v>
+      </c>
+      <c r="BX7" s="3">
+        <f t="shared" si="4"/>
+        <v>20279.834227204366</v>
+      </c>
+      <c r="BY7" s="3">
+        <f t="shared" si="4"/>
+        <v>20482.632569476409</v>
+      </c>
+      <c r="BZ7" s="3">
+        <f t="shared" si="4"/>
+        <v>20687.458895171174</v>
+      </c>
+      <c r="CA7" s="3">
+        <f t="shared" si="4"/>
+        <v>20894.333484122886</v>
+      </c>
+      <c r="CB7" s="3">
+        <f t="shared" si="4"/>
+        <v>21103.276818964114</v>
+      </c>
+      <c r="CC7" s="3">
+        <f t="shared" si="4"/>
+        <v>21314.309587153755</v>
+      </c>
+      <c r="CD7" s="3">
+        <f t="shared" si="4"/>
+        <v>21527.452683025294</v>
+      </c>
+      <c r="CE7" s="3">
+        <f t="shared" si="4"/>
+        <v>21742.727209855548</v>
+      </c>
+      <c r="CF7" s="3">
+        <f t="shared" si="4"/>
+        <v>21960.154481954105</v>
+      </c>
+      <c r="CG7" s="3">
+        <f t="shared" si="4"/>
+        <v>22179.756026773648</v>
+      </c>
+      <c r="CH7" s="3">
+        <f t="shared" si="4"/>
+        <v>22401.553587041384</v>
+      </c>
+      <c r="CI7" s="3">
+        <f t="shared" si="4"/>
+        <v>22625.569122911798</v>
+      </c>
+      <c r="CJ7" s="3">
+        <f t="shared" si="4"/>
+        <v>22851.824814140917</v>
+      </c>
+      <c r="CK7" s="3">
+        <f t="shared" si="4"/>
+        <v>23080.343062282325</v>
+      </c>
+      <c r="CL7" s="3">
+        <f t="shared" si="4"/>
+        <v>23311.146492905147</v>
+      </c>
+      <c r="CM7" s="3">
+        <f t="shared" si="4"/>
+        <v>23544.257957834197</v>
+      </c>
+      <c r="CN7" s="3">
+        <f t="shared" si="4"/>
+        <v>23779.70053741254</v>
+      </c>
+      <c r="CO7" s="3">
+        <f t="shared" si="4"/>
+        <v>24017.497542786667</v>
+      </c>
+      <c r="CP7" s="3">
+        <f t="shared" si="4"/>
+        <v>24257.672518214535</v>
+      </c>
+      <c r="CQ7" s="3">
+        <f t="shared" si="4"/>
+        <v>24500.24924339668</v>
+      </c>
+      <c r="CR7" s="3">
+        <f t="shared" si="4"/>
+        <v>24745.251735830647</v>
+      </c>
+      <c r="CS7" s="3">
+        <f t="shared" si="4"/>
+        <v>24992.704253188953</v>
+      </c>
+      <c r="CT7" s="3">
+        <f t="shared" si="4"/>
+        <v>25242.631295720843</v>
+      </c>
+      <c r="CU7" s="3">
+        <f t="shared" si="4"/>
+        <v>25495.057608678053</v>
+      </c>
+      <c r="CV7" s="3">
+        <f t="shared" ref="CV7:DC7" si="5">CU7*(1+$V$24)</f>
+        <v>25750.008184764833</v>
+      </c>
+      <c r="CW7" s="3">
+        <f t="shared" si="5"/>
+        <v>26007.50826661248</v>
+      </c>
+      <c r="CX7" s="3">
+        <f t="shared" si="5"/>
+        <v>26267.583349278604</v>
+      </c>
+      <c r="CY7" s="3">
+        <f t="shared" si="5"/>
+        <v>26530.259182771391</v>
+      </c>
+      <c r="CZ7" s="3">
+        <f t="shared" si="5"/>
+        <v>26795.561774599104</v>
+      </c>
+      <c r="DA7" s="3">
+        <f t="shared" si="5"/>
+        <v>27063.517392345097</v>
+      </c>
+      <c r="DB7" s="3">
+        <f t="shared" si="5"/>
+        <v>27334.152566268549</v>
+      </c>
+      <c r="DC7" s="3">
+        <f t="shared" si="5"/>
+        <v>27607.494091931236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6">
-        <f t="shared" ref="E8:P8" si="4">+E6-E7</f>
+        <f t="shared" ref="E8:Q8" si="6">+E6-E7</f>
         <v>120.691</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>136.67500000000001</v>
       </c>
       <c r="G8" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>151.88300000000001</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>176.45100000000002</v>
       </c>
       <c r="I8" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>207.15600000000001</v>
       </c>
       <c r="J8" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>259.04899999999998</v>
       </c>
       <c r="K8" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>288.56799999999998</v>
       </c>
       <c r="L8" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>324.21299999999997</v>
       </c>
       <c r="M8" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>342.93400000000003</v>
       </c>
       <c r="N8" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>372.642</v>
       </c>
       <c r="O8" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>381.8</v>
       </c>
       <c r="P8" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>407.79399999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:104" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q8" s="6">
+        <f t="shared" si="6"/>
+        <v>444.21699999999993</v>
+      </c>
+      <c r="Z8" s="24">
+        <f>(Z7-Y7)/Y7</f>
+        <v>0.25776968539191691</v>
+      </c>
+      <c r="AA8" s="22">
+        <f>(AA7-Z7)/Z7</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AB8" s="22">
+        <f>(AB7-AA7)/AA7</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AC8" s="22">
+        <f>(AC7-AB7)/AB7</f>
+        <v>0.3000000000000001</v>
+      </c>
+      <c r="AD8" s="22">
+        <f>(AD7-AC7)/AC7</f>
+        <v>0.29999999999999993</v>
+      </c>
+      <c r="AE8" s="22">
+        <f>(AE7-AD7)/AD7</f>
+        <v>0.3000000000000001</v>
+      </c>
+      <c r="AF8" s="22">
+        <f>(AF7-AE7)/AE7</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AG8" s="22">
+        <f>(AG7-AF7)/AF7</f>
+        <v>0.3000000000000001</v>
+      </c>
+      <c r="AH8" s="22">
+        <f>(AH7-AG7)/AG7</f>
+        <v>1.0000000000000064E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
@@ -1559,8 +2030,11 @@
       <c r="P9" s="5">
         <v>239.494</v>
       </c>
-    </row>
-    <row r="10" spans="1:104" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q9" s="5">
+        <v>240.22499999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>23</v>
       </c>
@@ -1602,8 +2076,11 @@
       <c r="P10" s="5">
         <v>147.45500000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:104" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q10" s="5">
+        <v>156.87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>24</v>
       </c>
@@ -1645,94 +2122,101 @@
       <c r="P11" s="5">
         <v>42.670999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:104" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q11" s="5">
+        <v>51.351999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6">
-        <f t="shared" ref="E12:P12" si="5">SUM(E9:E11)</f>
+        <f t="shared" ref="E12:Q12" si="7">SUM(E9:E11)</f>
         <v>129.958</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>145.613</v>
       </c>
       <c r="G12" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>164.71299999999999</v>
       </c>
       <c r="H12" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>186.33699999999999</v>
       </c>
       <c r="I12" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>212.05100000000002</v>
       </c>
       <c r="J12" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>250.59399999999999</v>
       </c>
       <c r="K12" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>278.154</v>
       </c>
       <c r="L12" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>327.35199999999998</v>
       </c>
       <c r="M12" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>374.27599999999995</v>
       </c>
       <c r="N12" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>407.27</v>
       </c>
       <c r="O12" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>416.77</v>
       </c>
       <c r="P12" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>429.62</v>
       </c>
-    </row>
-    <row r="13" spans="1:104" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q12" s="6">
+        <f t="shared" si="7"/>
+        <v>448.447</v>
+      </c>
+    </row>
+    <row r="13" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6">
-        <f t="shared" ref="E13:P13" si="6">E8-E12</f>
+        <f t="shared" ref="E13:Q13" si="8">E8-E12</f>
         <v>-9.2669999999999959</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-8.9379999999999882</v>
       </c>
       <c r="G13" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-12.829999999999984</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-9.8859999999999673</v>
       </c>
       <c r="I13" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-4.8950000000000102</v>
       </c>
       <c r="J13" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.4549999999999841</v>
       </c>
       <c r="K13" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10.413999999999987</v>
       </c>
       <c r="L13" s="6">
@@ -1740,23 +2224,27 @@
         <v>-3.13900000000001</v>
       </c>
       <c r="M13" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-31.341999999999928</v>
       </c>
       <c r="N13" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-34.627999999999986</v>
       </c>
       <c r="O13" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-34.96999999999997</v>
       </c>
       <c r="P13" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-21.826000000000022</v>
       </c>
-    </row>
-    <row r="14" spans="1:104" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q13" s="6">
+        <f t="shared" si="8"/>
+        <v>-4.230000000000075</v>
+      </c>
+    </row>
+    <row r="14" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
@@ -1807,63 +2295,71 @@
         <f>22.624-1.526</f>
         <v>21.097999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:104" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q14" s="5">
+        <f>-1.303+29.883</f>
+        <v>28.58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6">
-        <f t="shared" ref="E15:P15" si="7">+E13+E14</f>
+        <f t="shared" ref="E15:Q15" si="9">+E13+E14</f>
         <v>-14.554999999999996</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-15.166999999999987</v>
       </c>
       <c r="G15" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-12.528999999999986</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-9.6579999999999675</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-4.7670000000000101</v>
       </c>
       <c r="J15" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8.531999999999984</v>
       </c>
       <c r="K15" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10.853999999999989</v>
       </c>
       <c r="L15" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.1000000000010779E-2</v>
       </c>
       <c r="M15" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-22.21599999999993</v>
       </c>
       <c r="N15" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-25.009999999999987</v>
       </c>
       <c r="O15" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-20.423999999999971</v>
       </c>
       <c r="P15" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.72800000000002285</v>
       </c>
-    </row>
-    <row r="16" spans="1:104" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q15" s="6">
+        <f t="shared" si="9"/>
+        <v>24.349999999999923</v>
+      </c>
+    </row>
+    <row r="16" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
@@ -1905,118 +2401,129 @@
       <c r="P16" s="5">
         <v>3.0609999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="2:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q16" s="5">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6">
-        <f t="shared" ref="E17:P17" si="8">+E15-E16</f>
+        <f t="shared" ref="E17:Q17" si="10">+E15-E16</f>
         <v>-15.149999999999997</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-16.159999999999986</v>
       </c>
       <c r="G17" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-11.989999999999986</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-6.6979999999999675</v>
       </c>
       <c r="I17" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-4.0500000000000105</v>
       </c>
       <c r="J17" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7.1689999999999845</v>
       </c>
       <c r="K17" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.7379999999999889</v>
       </c>
       <c r="L17" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-4.8790000000000111</v>
       </c>
       <c r="M17" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-25.141999999999932</v>
       </c>
       <c r="N17" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-28.189999999999987</v>
       </c>
       <c r="O17" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-24.08599999999997</v>
       </c>
       <c r="P17" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-3.7890000000000228</v>
       </c>
-    </row>
-    <row r="18" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q17" s="6">
+        <f t="shared" si="10"/>
+        <v>22.679999999999922</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7">
-        <f t="shared" ref="E18:P18" si="9">+E17/E19</f>
+        <f t="shared" ref="E18:Q18" si="11">+E17/E19</f>
         <v>-5.0073705850856368E-2</v>
       </c>
       <c r="F18" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-5.3147929500060795E-2</v>
       </c>
       <c r="G18" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-3.9178653352241861E-2</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.1745411809011676E-2</v>
       </c>
       <c r="I18" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.3054114947122809E-2</v>
       </c>
       <c r="J18" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.0727021455604115E-2</v>
       </c>
       <c r="K18" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.8171540321927365E-2</v>
       </c>
       <c r="L18" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.5498975523753589E-2</v>
       </c>
       <c r="M18" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-7.9565809044589805E-2</v>
       </c>
       <c r="N18" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-8.8829928028536453E-2</v>
       </c>
       <c r="O18" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-7.5437068960117162E-2</v>
       </c>
       <c r="P18" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.1759229086169245E-2</v>
       </c>
-    </row>
-    <row r="19" spans="2:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q18" s="7">
+        <f t="shared" si="11"/>
+        <v>6.9665219915406279E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
         <v>1</v>
       </c>
@@ -2058,8 +2565,11 @@
       <c r="P19" s="5">
         <v>322.21499999999997</v>
       </c>
-    </row>
-    <row r="21" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q19" s="5">
+        <v>325.55700000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>45</v>
       </c>
@@ -2070,15 +2580,15 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="10">
-        <f t="shared" ref="I21:K21" si="10">+I6/E6-1</f>
+        <f t="shared" ref="I21:K21" si="12">+I6/E6-1</f>
         <v>0.74875060610958455</v>
       </c>
       <c r="J21" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.83741431074009598</v>
       </c>
       <c r="K21" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.82841515192723181</v>
       </c>
       <c r="L21" s="10">
@@ -2101,37 +2611,45 @@
         <f>+P6/L6-1</f>
         <v>0.25484441249033574</v>
       </c>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q21" s="10">
+        <f>+Q6/M6-1</f>
+        <v>0.25428318134024219</v>
+      </c>
+      <c r="R21" s="10">
+        <f>+R6/N6-1</f>
+        <v>0.21005796774172936</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B22" s="5" t="s">
         <v>46</v>
       </c>
       <c r="E22" s="12">
-        <f t="shared" ref="E22:H22" si="11">+E8/E6</f>
+        <f t="shared" ref="E22:H22" si="13">+E8/E6</f>
         <v>0.78028770001616288</v>
       </c>
       <c r="F22" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.76986554460911061</v>
       </c>
       <c r="G22" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.7649648197674126</v>
       </c>
       <c r="H22" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.75552025485015994</v>
       </c>
       <c r="I22" s="12">
-        <f t="shared" ref="I22:K22" si="12">+I8/I6</f>
+        <f t="shared" ref="I22:K22" si="14">+I8/I6</f>
         <v>0.76586022300434775</v>
       </c>
       <c r="J22" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.79414649997854059</v>
       </c>
       <c r="K22" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.79488747486433631</v>
       </c>
       <c r="L22" s="12">
@@ -2139,31 +2657,50 @@
         <v>0.79828284967178642</v>
       </c>
       <c r="M22" s="12">
-        <f t="shared" ref="M22:P22" si="13">+M8/M6</f>
+        <f t="shared" ref="M22:Q22" si="15">+M8/M6</f>
         <v>0.78558551129009724</v>
       </c>
       <c r="N22" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.79387045988593929</v>
       </c>
       <c r="O22" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.79258647247121738</v>
       </c>
       <c r="P22" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.8001608978887057</v>
       </c>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="R23" s="15" t="s">
+      <c r="Q22" s="12">
+        <f t="shared" si="15"/>
+        <v>0.81130190526285029</v>
+      </c>
+      <c r="U22" t="s">
+        <v>71</v>
+      </c>
+      <c r="W22" t="s">
+        <v>72</v>
+      </c>
+      <c r="X22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="U23" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="S23" s="20">
+      <c r="V23" s="23">
+        <v>0.26</v>
+      </c>
+      <c r="W23" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="X23" s="23">
         <v>0.3</v>
       </c>
     </row>
-    <row r="24" spans="2:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
         <v>3</v>
       </c>
@@ -2185,14 +2722,14 @@
       </c>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
-      <c r="R24" s="17" t="s">
+      <c r="U24" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="S24" s="16">
+      <c r="V24" s="16">
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="2:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
         <v>33</v>
       </c>
@@ -2212,14 +2749,14 @@
       </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
-      <c r="R25" s="17" t="s">
+      <c r="U25" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="S25" s="16">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="26" spans="2:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V25" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
         <v>34</v>
       </c>
@@ -2241,15 +2778,22 @@
       </c>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
-      <c r="R26" s="17" t="s">
+      <c r="U26" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="S26" s="18">
-        <f>NPV(S25,S6:CZ6)</f>
-        <v>57693.064395439622</v>
-      </c>
-    </row>
-    <row r="27" spans="2:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V26" s="18">
+        <f>NPV(V25,V6:DC6)</f>
+        <v>58324.781680299697</v>
+      </c>
+      <c r="W26" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="X26" s="26">
+        <f>NPV($V$25,V7:DC7)</f>
+        <v>70118.732659662914</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
         <v>35</v>
       </c>
@@ -2269,15 +2813,22 @@
       </c>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
-      <c r="R27" s="17" t="s">
+      <c r="U27" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="S27" s="21">
-        <f>Main!O3</f>
-        <v>296.27</v>
-      </c>
-    </row>
-    <row r="28" spans="2:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V27" s="21">
+        <f>Main!$O$3</f>
+        <v>325.55700000000002</v>
+      </c>
+      <c r="W27" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="X27" s="21">
+        <f>Main!$O$3</f>
+        <v>325.55700000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
         <v>36</v>
       </c>
@@ -2297,15 +2848,22 @@
       </c>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
-      <c r="R28" s="17" t="s">
+      <c r="U28" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="S28" s="19">
-        <f>S26/S27</f>
-        <v>194.73137474411729</v>
-      </c>
-    </row>
-    <row r="29" spans="2:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V28" s="19">
+        <f>V26/V27</f>
+        <v>179.1538246153506</v>
+      </c>
+      <c r="W28" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="X28" s="19">
+        <f>X26/X27</f>
+        <v>215.38081706018579</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
         <v>37</v>
       </c>
@@ -2325,15 +2883,22 @@
       </c>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
-      <c r="R29" s="17" t="s">
+      <c r="U29" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="S29" s="20">
-        <f>(S28-Main!O2)/Main!O2</f>
-        <v>0.77237985568505763</v>
-      </c>
-    </row>
-    <row r="30" spans="2:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V29" s="20">
+        <f>(V28-Main!$O$2)/Main!$O$2</f>
+        <v>0.32795066796642652</v>
+      </c>
+      <c r="W29" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="X29" s="20">
+        <f>(X28-Main!$O$2)/Main!$O$2</f>
+        <v>0.59647777822389592</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
         <v>38</v>
       </c>
@@ -2355,15 +2920,22 @@
       </c>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
-      <c r="R30" s="17" t="s">
+      <c r="U30" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="S30" s="18">
-        <f>S27*S28</f>
-        <v>57693.064395439629</v>
-      </c>
-    </row>
-    <row r="31" spans="2:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V30" s="18">
+        <f>V27*V28</f>
+        <v>58324.781680299697</v>
+      </c>
+      <c r="W30" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="X30" s="18">
+        <f>X27*X28</f>
+        <v>70118.732659662914</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
         <v>39</v>
       </c>
@@ -2384,7 +2956,7 @@
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
     </row>
-    <row r="32" spans="2:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
         <v>32</v>
       </c>

--- a/DDOG.xlsx
+++ b/DDOG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffe\Documents\GitHub\martinshkreli-models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88AB9AE-FF4F-40BD-8881-5052BBAE5BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A787C9-DEDB-49DF-98D5-D831FFAE8E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14235" yWindow="90" windowWidth="37440" windowHeight="20805" xr2:uid="{3FD86B5C-07F1-42A4-9D66-8FB9C4BAF175}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{3FD86B5C-07F1-42A4-9D66-8FB9C4BAF175}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="75">
   <si>
     <t>Price</t>
   </si>
@@ -307,6 +307,9 @@
   </si>
   <si>
     <t>if growth accelerates up</t>
+  </si>
+  <si>
+    <t>Q124</t>
   </si>
 </sst>
 </file>
@@ -835,39 +838,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3BD0B1-E685-4627-8A01-75A3D2BDF860}">
   <dimension ref="N2:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N2" t="s">
         <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>134.91</v>
-      </c>
-    </row>
-    <row r="3" spans="14:16" x14ac:dyDescent="0.2">
+        <v>129.74</v>
+      </c>
+    </row>
+    <row r="3" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N3" t="s">
         <v>1</v>
       </c>
       <c r="O3" s="5">
-        <v>325.55700000000002</v>
+        <v>328</v>
       </c>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N4" t="s">
         <v>2</v>
       </c>
       <c r="O4" s="5">
         <f>+O2*O3</f>
-        <v>43920.894870000004</v>
-      </c>
-    </row>
-    <row r="5" spans="14:16" x14ac:dyDescent="0.2">
+        <v>42554.720000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N5" t="s">
         <v>3</v>
       </c>
@@ -876,7 +879,7 @@
       </c>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N6" t="s">
         <v>4</v>
       </c>
@@ -885,13 +888,13 @@
       </c>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N7" t="s">
         <v>5</v>
       </c>
       <c r="O7" s="5">
         <f>+O4-O5+O6</f>
-        <v>43577.720870000005</v>
+        <v>42211.546000000002</v>
       </c>
     </row>
   </sheetData>
@@ -903,26 +906,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB5D0F6-F818-4D6B-9D91-E5CB5E0CBE0F}">
   <dimension ref="A1:DC54"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="O6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X23" sqref="X23"/>
+      <selection pane="bottomRight" activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="13" width="9.140625" style="2"/>
-    <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="13" width="9.109375" style="2"/>
+    <col min="14" max="14" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
@@ -947,11 +951,14 @@
       <c r="R1" s="13">
         <v>45291</v>
       </c>
+      <c r="S1" s="14">
+        <v>45382</v>
+      </c>
       <c r="V1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:107" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1000,7 +1007,9 @@
       <c r="R2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="S2" s="2"/>
+      <c r="S2" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2">
@@ -1044,7 +1053,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:107" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>47</v>
       </c>
@@ -1061,63 +1070,63 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="4" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:107" x14ac:dyDescent="0.25">
       <c r="Z4" s="25"/>
     </row>
-    <row r="5" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:107" x14ac:dyDescent="0.25">
       <c r="V5" t="s">
         <v>69</v>
       </c>
       <c r="W5" s="22">
-        <f>(W6-V6)/V6</f>
+        <f t="shared" ref="W5:AH5" si="1">(W6-V6)/V6</f>
         <v>0.66344892221180896</v>
       </c>
       <c r="X5" s="22">
-        <f>(X6-W6)/W6</f>
+        <f t="shared" si="1"/>
         <v>0.7047919849668417</v>
       </c>
       <c r="Y5" s="22">
-        <f>(Y6-X6)/X6</f>
+        <f t="shared" si="1"/>
         <v>0.62823294296956378</v>
       </c>
       <c r="Z5" s="24">
-        <f>(Z6-Y6)/Y6</f>
+        <f t="shared" si="1"/>
         <v>0.25783535311324701</v>
       </c>
       <c r="AA5" s="24">
         <f>(AA6-Z6)/Z6</f>
-        <v>0.26000000000000006</v>
+        <v>0.23999999999999994</v>
       </c>
       <c r="AB5" s="24">
-        <f>(AB6-AA6)/AA6</f>
-        <v>0.26</v>
+        <f t="shared" si="1"/>
+        <v>0.24000000000000005</v>
       </c>
       <c r="AC5" s="24">
-        <f>(AC6-AB6)/AB6</f>
-        <v>0.26000000000000012</v>
+        <f t="shared" si="1"/>
+        <v>0.23999999999999996</v>
       </c>
       <c r="AD5" s="24">
-        <f>(AD6-AC6)/AC6</f>
-        <v>0.26</v>
+        <f t="shared" si="1"/>
+        <v>0.23999999999999994</v>
       </c>
       <c r="AE5" s="24">
-        <f>(AE6-AD6)/AD6</f>
-        <v>0.26000000000000006</v>
+        <f t="shared" si="1"/>
+        <v>0.24000000000000002</v>
       </c>
       <c r="AF5" s="24">
-        <f>(AF6-AE6)/AE6</f>
-        <v>0.25999999999999995</v>
+        <f t="shared" si="1"/>
+        <v>0.23999999999999994</v>
       </c>
       <c r="AG5" s="24">
-        <f>(AG6-AF6)/AF6</f>
-        <v>0.25999999999999995</v>
+        <f t="shared" si="1"/>
+        <v>0.23999999999999994</v>
       </c>
       <c r="AH5" s="24">
-        <f>(AH6-AG6)/AG6</f>
-        <v>1.0000000000000038E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:107" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000097E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:107" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1163,7 +1172,11 @@
         <v>547.53599999999994</v>
       </c>
       <c r="R6" s="3">
-        <v>568</v>
+        <v>589.649</v>
+      </c>
+      <c r="S6" s="3">
+        <f>(587+591)/2</f>
+        <v>589</v>
       </c>
       <c r="V6" s="3">
         <v>362.78</v>
@@ -1182,331 +1195,331 @@
         <v>2107</v>
       </c>
       <c r="AA6" s="3">
-        <f t="shared" ref="Z6:AG7" si="1">Z6*(1+$V$23)</f>
-        <v>2654.82</v>
+        <f t="shared" ref="AA6:AG6" si="2">Z6*(1+$V$23)</f>
+        <v>2612.6799999999998</v>
       </c>
       <c r="AB6" s="3">
-        <f t="shared" si="1"/>
-        <v>3345.0732000000003</v>
+        <f t="shared" si="2"/>
+        <v>3239.7231999999999</v>
       </c>
       <c r="AC6" s="3">
-        <f t="shared" si="1"/>
-        <v>4214.7922320000007</v>
+        <f t="shared" si="2"/>
+        <v>4017.2567679999997</v>
       </c>
       <c r="AD6" s="3">
-        <f t="shared" si="1"/>
-        <v>5310.638212320001</v>
+        <f t="shared" si="2"/>
+        <v>4981.3983923199994</v>
       </c>
       <c r="AE6" s="3">
-        <f t="shared" si="1"/>
-        <v>6691.4041475232016</v>
+        <f t="shared" si="2"/>
+        <v>6176.9340064767994</v>
       </c>
       <c r="AF6" s="3">
-        <f t="shared" si="1"/>
-        <v>8431.1692258792336</v>
+        <f t="shared" si="2"/>
+        <v>7659.3981680312309</v>
       </c>
       <c r="AG6" s="3">
-        <f t="shared" si="1"/>
-        <v>10623.273224607834</v>
+        <f t="shared" si="2"/>
+        <v>9497.6537283587259</v>
       </c>
       <c r="AH6" s="3">
         <f>AG6*(1+$V$24)</f>
-        <v>10729.505956853913</v>
+        <v>9592.630265642314</v>
       </c>
       <c r="AI6" s="3">
-        <f t="shared" ref="AI6:CT6" si="2">AH6*(1+$V$24)</f>
-        <v>10836.801016422452</v>
+        <f t="shared" ref="AI6:CT6" si="3">AH6*(1+$V$24)</f>
+        <v>9688.5565682987381</v>
       </c>
       <c r="AJ6" s="3">
-        <f t="shared" si="2"/>
-        <v>10945.169026586676</v>
+        <f t="shared" si="3"/>
+        <v>9785.4421339817254</v>
       </c>
       <c r="AK6" s="3">
-        <f t="shared" si="2"/>
-        <v>11054.620716852543</v>
+        <f t="shared" si="3"/>
+        <v>9883.2965553215436</v>
       </c>
       <c r="AL6" s="3">
-        <f t="shared" si="2"/>
-        <v>11165.166924021069</v>
+        <f t="shared" si="3"/>
+        <v>9982.1295208747597</v>
       </c>
       <c r="AM6" s="3">
-        <f t="shared" si="2"/>
-        <v>11276.81859326128</v>
+        <f t="shared" si="3"/>
+        <v>10081.950816083507</v>
       </c>
       <c r="AN6" s="3">
-        <f t="shared" si="2"/>
-        <v>11389.586779193893</v>
+        <f t="shared" si="3"/>
+        <v>10182.770324244342</v>
       </c>
       <c r="AO6" s="3">
-        <f t="shared" si="2"/>
-        <v>11503.482646985831</v>
+        <f t="shared" si="3"/>
+        <v>10284.598027486785</v>
       </c>
       <c r="AP6" s="3">
-        <f t="shared" si="2"/>
-        <v>11618.517473455689</v>
+        <f t="shared" si="3"/>
+        <v>10387.444007761653</v>
       </c>
       <c r="AQ6" s="3">
-        <f t="shared" si="2"/>
-        <v>11734.702648190247</v>
+        <f t="shared" si="3"/>
+        <v>10491.318447839269</v>
       </c>
       <c r="AR6" s="3">
-        <f t="shared" si="2"/>
-        <v>11852.049674672149</v>
+        <f t="shared" si="3"/>
+        <v>10596.231632317662</v>
       </c>
       <c r="AS6" s="3">
-        <f t="shared" si="2"/>
-        <v>11970.570171418871</v>
+        <f t="shared" si="3"/>
+        <v>10702.193948640839</v>
       </c>
       <c r="AT6" s="3">
-        <f t="shared" si="2"/>
-        <v>12090.27587313306</v>
+        <f t="shared" si="3"/>
+        <v>10809.215888127248</v>
       </c>
       <c r="AU6" s="3">
-        <f t="shared" si="2"/>
-        <v>12211.17863186439</v>
+        <f t="shared" si="3"/>
+        <v>10917.308047008521</v>
       </c>
       <c r="AV6" s="3">
-        <f t="shared" si="2"/>
-        <v>12333.290418183034</v>
+        <f t="shared" si="3"/>
+        <v>11026.481127478606</v>
       </c>
       <c r="AW6" s="3">
-        <f t="shared" si="2"/>
-        <v>12456.623322364865</v>
+        <f t="shared" si="3"/>
+        <v>11136.745938753393</v>
       </c>
       <c r="AX6" s="3">
-        <f t="shared" si="2"/>
-        <v>12581.189555588513</v>
+        <f t="shared" si="3"/>
+        <v>11248.113398140928</v>
       </c>
       <c r="AY6" s="3">
-        <f t="shared" si="2"/>
-        <v>12707.001451144399</v>
+        <f t="shared" si="3"/>
+        <v>11360.594532122337</v>
       </c>
       <c r="AZ6" s="3">
-        <f t="shared" si="2"/>
-        <v>12834.071465655843</v>
+        <f t="shared" si="3"/>
+        <v>11474.200477443561</v>
       </c>
       <c r="BA6" s="3">
-        <f t="shared" si="2"/>
-        <v>12962.412180312402</v>
+        <f t="shared" si="3"/>
+        <v>11588.942482217997</v>
       </c>
       <c r="BB6" s="3">
-        <f t="shared" si="2"/>
-        <v>13092.036302115526</v>
+        <f t="shared" si="3"/>
+        <v>11704.831907040178</v>
       </c>
       <c r="BC6" s="3">
-        <f t="shared" si="2"/>
-        <v>13222.956665136682</v>
+        <f t="shared" si="3"/>
+        <v>11821.880226110579</v>
       </c>
       <c r="BD6" s="3">
-        <f t="shared" si="2"/>
-        <v>13355.18623178805</v>
+        <f t="shared" si="3"/>
+        <v>11940.099028371686</v>
       </c>
       <c r="BE6" s="3">
-        <f t="shared" si="2"/>
-        <v>13488.738094105931</v>
+        <f t="shared" si="3"/>
+        <v>12059.500018655403</v>
       </c>
       <c r="BF6" s="3">
-        <f t="shared" si="2"/>
-        <v>13623.625475046991</v>
+        <f t="shared" si="3"/>
+        <v>12180.095018841957</v>
       </c>
       <c r="BG6" s="3">
-        <f t="shared" si="2"/>
-        <v>13759.861729797462</v>
+        <f t="shared" si="3"/>
+        <v>12301.895969030376</v>
       </c>
       <c r="BH6" s="3">
-        <f t="shared" si="2"/>
-        <v>13897.460347095437</v>
+        <f t="shared" si="3"/>
+        <v>12424.91492872068</v>
       </c>
       <c r="BI6" s="3">
-        <f t="shared" si="2"/>
-        <v>14036.434950566392</v>
+        <f t="shared" si="3"/>
+        <v>12549.164078007887</v>
       </c>
       <c r="BJ6" s="3">
-        <f t="shared" si="2"/>
-        <v>14176.799300072056</v>
+        <f t="shared" si="3"/>
+        <v>12674.655718787966</v>
       </c>
       <c r="BK6" s="3">
-        <f t="shared" si="2"/>
-        <v>14318.567293072776</v>
+        <f t="shared" si="3"/>
+        <v>12801.402275975846</v>
       </c>
       <c r="BL6" s="3">
-        <f t="shared" si="2"/>
-        <v>14461.752966003503</v>
+        <f t="shared" si="3"/>
+        <v>12929.416298735605</v>
       </c>
       <c r="BM6" s="3">
-        <f t="shared" si="2"/>
-        <v>14606.370495663539</v>
+        <f t="shared" si="3"/>
+        <v>13058.710461722962</v>
       </c>
       <c r="BN6" s="3">
-        <f t="shared" si="2"/>
-        <v>14752.434200620175</v>
+        <f t="shared" si="3"/>
+        <v>13189.297566340192</v>
       </c>
       <c r="BO6" s="3">
-        <f t="shared" si="2"/>
-        <v>14899.958542626377</v>
+        <f t="shared" si="3"/>
+        <v>13321.190542003595</v>
       </c>
       <c r="BP6" s="3">
-        <f t="shared" si="2"/>
-        <v>15048.95812805264</v>
+        <f t="shared" si="3"/>
+        <v>13454.40244742363</v>
       </c>
       <c r="BQ6" s="3">
-        <f t="shared" si="2"/>
-        <v>15199.447709333166</v>
+        <f t="shared" si="3"/>
+        <v>13588.946471897867</v>
       </c>
       <c r="BR6" s="3">
-        <f t="shared" si="2"/>
-        <v>15351.442186426499</v>
+        <f t="shared" si="3"/>
+        <v>13724.835936616846</v>
       </c>
       <c r="BS6" s="3">
-        <f t="shared" si="2"/>
-        <v>15504.956608290764</v>
+        <f t="shared" si="3"/>
+        <v>13862.084295983015</v>
       </c>
       <c r="BT6" s="3">
-        <f t="shared" si="2"/>
-        <v>15660.006174373671</v>
+        <f t="shared" si="3"/>
+        <v>14000.705138942845</v>
       </c>
       <c r="BU6" s="3">
-        <f t="shared" si="2"/>
-        <v>15816.606236117408</v>
+        <f t="shared" si="3"/>
+        <v>14140.712190332273</v>
       </c>
       <c r="BV6" s="3">
-        <f t="shared" si="2"/>
-        <v>15974.772298478581</v>
+        <f t="shared" si="3"/>
+        <v>14282.119312235596</v>
       </c>
       <c r="BW6" s="3">
-        <f t="shared" si="2"/>
-        <v>16134.520021463368</v>
+        <f t="shared" si="3"/>
+        <v>14424.940505357952</v>
       </c>
       <c r="BX6" s="3">
-        <f t="shared" si="2"/>
-        <v>16295.865221678001</v>
+        <f t="shared" si="3"/>
+        <v>14569.189910411531</v>
       </c>
       <c r="BY6" s="3">
-        <f t="shared" si="2"/>
-        <v>16458.82387389478</v>
+        <f t="shared" si="3"/>
+        <v>14714.881809515646</v>
       </c>
       <c r="BZ6" s="3">
-        <f t="shared" si="2"/>
-        <v>16623.412112633727</v>
+        <f t="shared" si="3"/>
+        <v>14862.030627610802</v>
       </c>
       <c r="CA6" s="3">
-        <f t="shared" si="2"/>
-        <v>16789.646233760064</v>
+        <f t="shared" si="3"/>
+        <v>15010.650933886911</v>
       </c>
       <c r="CB6" s="3">
-        <f t="shared" si="2"/>
-        <v>16957.542696097666</v>
+        <f t="shared" si="3"/>
+        <v>15160.757443225781</v>
       </c>
       <c r="CC6" s="3">
-        <f t="shared" si="2"/>
-        <v>17127.118123058641</v>
+        <f t="shared" si="3"/>
+        <v>15312.36501765804</v>
       </c>
       <c r="CD6" s="3">
-        <f t="shared" si="2"/>
-        <v>17298.389304289227</v>
+        <f t="shared" si="3"/>
+        <v>15465.488667834619</v>
       </c>
       <c r="CE6" s="3">
-        <f t="shared" si="2"/>
-        <v>17471.373197332119</v>
+        <f t="shared" si="3"/>
+        <v>15620.143554512966</v>
       </c>
       <c r="CF6" s="3">
-        <f t="shared" si="2"/>
-        <v>17646.086929305442</v>
+        <f t="shared" si="3"/>
+        <v>15776.344990058096</v>
       </c>
       <c r="CG6" s="3">
-        <f t="shared" si="2"/>
-        <v>17822.547798598498</v>
+        <f t="shared" si="3"/>
+        <v>15934.108439958678</v>
       </c>
       <c r="CH6" s="3">
-        <f t="shared" si="2"/>
-        <v>18000.773276584485</v>
+        <f t="shared" si="3"/>
+        <v>16093.449524358264</v>
       </c>
       <c r="CI6" s="3">
-        <f t="shared" si="2"/>
-        <v>18180.781009350329</v>
+        <f t="shared" si="3"/>
+        <v>16254.384019601846</v>
       </c>
       <c r="CJ6" s="3">
-        <f t="shared" si="2"/>
-        <v>18362.58881944383</v>
+        <f t="shared" si="3"/>
+        <v>16416.927859797866</v>
       </c>
       <c r="CK6" s="3">
-        <f t="shared" si="2"/>
-        <v>18546.214707638268</v>
+        <f t="shared" si="3"/>
+        <v>16581.097138395846</v>
       </c>
       <c r="CL6" s="3">
-        <f t="shared" si="2"/>
-        <v>18731.676854714649</v>
+        <f t="shared" si="3"/>
+        <v>16746.908109779804</v>
       </c>
       <c r="CM6" s="3">
-        <f t="shared" si="2"/>
-        <v>18918.993623261795</v>
+        <f t="shared" si="3"/>
+        <v>16914.377190877603</v>
       </c>
       <c r="CN6" s="3">
-        <f t="shared" si="2"/>
-        <v>19108.183559494413</v>
+        <f t="shared" si="3"/>
+        <v>17083.520962786381</v>
       </c>
       <c r="CO6" s="3">
-        <f t="shared" si="2"/>
-        <v>19299.265395089358</v>
+        <f t="shared" si="3"/>
+        <v>17254.356172414246</v>
       </c>
       <c r="CP6" s="3">
-        <f t="shared" si="2"/>
-        <v>19492.258049040251</v>
+        <f t="shared" si="3"/>
+        <v>17426.899734138387</v>
       </c>
       <c r="CQ6" s="3">
-        <f t="shared" si="2"/>
-        <v>19687.180629530652</v>
+        <f t="shared" si="3"/>
+        <v>17601.168731479771</v>
       </c>
       <c r="CR6" s="3">
-        <f t="shared" si="2"/>
-        <v>19884.052435825961</v>
+        <f t="shared" si="3"/>
+        <v>17777.180418794567</v>
       </c>
       <c r="CS6" s="3">
-        <f t="shared" si="2"/>
-        <v>20082.892960184221</v>
+        <f t="shared" si="3"/>
+        <v>17954.952222982512</v>
       </c>
       <c r="CT6" s="3">
-        <f t="shared" si="2"/>
-        <v>20283.721889786062</v>
+        <f t="shared" si="3"/>
+        <v>18134.501745212339</v>
       </c>
       <c r="CU6" s="3">
-        <f t="shared" ref="CU6:DC6" si="3">CT6*(1+$V$24)</f>
-        <v>20486.559108683923</v>
+        <f t="shared" ref="CU6:DC6" si="4">CT6*(1+$V$24)</f>
+        <v>18315.846762664463</v>
       </c>
       <c r="CV6" s="3">
-        <f t="shared" si="3"/>
-        <v>20691.424699770763</v>
+        <f t="shared" si="4"/>
+        <v>18499.00523029111</v>
       </c>
       <c r="CW6" s="3">
-        <f t="shared" si="3"/>
-        <v>20898.338946768472</v>
+        <f t="shared" si="4"/>
+        <v>18683.99528259402</v>
       </c>
       <c r="CX6" s="3">
-        <f t="shared" si="3"/>
-        <v>21107.322336236157</v>
+        <f t="shared" si="4"/>
+        <v>18870.83523541996</v>
       </c>
       <c r="CY6" s="3">
-        <f t="shared" si="3"/>
-        <v>21318.395559598517</v>
+        <f t="shared" si="4"/>
+        <v>19059.543587774158</v>
       </c>
       <c r="CZ6" s="3">
-        <f t="shared" si="3"/>
-        <v>21531.579515194502</v>
+        <f t="shared" si="4"/>
+        <v>19250.1390236519</v>
       </c>
       <c r="DA6" s="3">
-        <f t="shared" si="3"/>
-        <v>21746.895310346448</v>
+        <f t="shared" si="4"/>
+        <v>19442.640413888421</v>
       </c>
       <c r="DB6" s="3">
-        <f t="shared" si="3"/>
-        <v>21964.364263449912</v>
+        <f t="shared" si="4"/>
+        <v>19637.066818027306</v>
       </c>
       <c r="DC6" s="3">
-        <f t="shared" si="3"/>
-        <v>22184.007906084411</v>
-      </c>
-    </row>
-    <row r="7" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>19833.437486207578</v>
+      </c>
+    </row>
+    <row r="7" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>20</v>
       </c>
@@ -1551,6 +1564,9 @@
       <c r="Q7" s="5">
         <v>103.319</v>
       </c>
+      <c r="R7" s="5">
+        <v>104.82899999999999</v>
+      </c>
       <c r="V7" s="3">
         <v>362.78</v>
       </c>
@@ -1565,430 +1581,434 @@
         <v>1675.1</v>
       </c>
       <c r="Z7" s="5">
-        <f>SUM(O6:U6)</f>
-        <v>2106.89</v>
+        <f>SUM(O6:R6)</f>
+        <v>2128.5389999999998</v>
       </c>
       <c r="AA7" s="3">
-        <f>Z7*(1+$X$23)</f>
-        <v>2738.9569999999999</v>
+        <f>(2555+2575)/2</f>
+        <v>2565</v>
       </c>
       <c r="AB7" s="3">
-        <f>AA7*(1+$X$23)</f>
-        <v>3560.6441</v>
+        <f t="shared" ref="AA7:AG7" si="5">AA7*(1+$X$23)</f>
+        <v>3334.5</v>
       </c>
       <c r="AC7" s="3">
-        <f>AB7*(1+$X$23)</f>
-        <v>4628.8373300000003</v>
+        <f t="shared" si="5"/>
+        <v>4334.8500000000004</v>
       </c>
       <c r="AD7" s="3">
-        <f>AC7*(1+$X$23)</f>
-        <v>6017.4885290000002</v>
+        <f t="shared" si="5"/>
+        <v>5635.3050000000003</v>
       </c>
       <c r="AE7" s="3">
-        <f>AD7*(1+$X$23)</f>
-        <v>7822.7350877000008</v>
+        <f t="shared" si="5"/>
+        <v>7325.8965000000007</v>
       </c>
       <c r="AF7" s="3">
-        <f>AE7*(1+$X$23)</f>
-        <v>10169.555614010002</v>
+        <f t="shared" si="5"/>
+        <v>9523.6654500000004</v>
       </c>
       <c r="AG7" s="3">
-        <f>AF7*(1+$X$23)</f>
-        <v>13220.422298213003</v>
+        <f t="shared" si="5"/>
+        <v>12380.765085000001</v>
       </c>
       <c r="AH7" s="3">
         <f>AG7*(1+$V$24)</f>
-        <v>13352.626521195134</v>
+        <v>12504.572735850001</v>
       </c>
       <c r="AI7" s="3">
         <f>AH7*(1+$V$24)</f>
-        <v>13486.152786407085</v>
+        <v>12629.618463208501</v>
       </c>
       <c r="AJ7" s="3">
-        <f t="shared" ref="AJ7:CU7" si="4">AI7*(1+$V$24)</f>
-        <v>13621.014314271157</v>
+        <f t="shared" ref="AJ7:CU7" si="6">AI7*(1+$V$24)</f>
+        <v>12755.914647840586</v>
       </c>
       <c r="AK7" s="3">
-        <f t="shared" si="4"/>
-        <v>13757.224457413868</v>
+        <f t="shared" si="6"/>
+        <v>12883.473794318992</v>
       </c>
       <c r="AL7" s="3">
-        <f t="shared" si="4"/>
-        <v>13894.796701988007</v>
+        <f t="shared" si="6"/>
+        <v>13012.308532262183</v>
       </c>
       <c r="AM7" s="3">
-        <f t="shared" si="4"/>
-        <v>14033.744669007887</v>
+        <f t="shared" si="6"/>
+        <v>13142.431617584805</v>
       </c>
       <c r="AN7" s="3">
-        <f t="shared" si="4"/>
-        <v>14174.082115697965</v>
+        <f t="shared" si="6"/>
+        <v>13273.855933760653</v>
       </c>
       <c r="AO7" s="3">
-        <f t="shared" si="4"/>
-        <v>14315.822936854946</v>
+        <f t="shared" si="6"/>
+        <v>13406.594493098261</v>
       </c>
       <c r="AP7" s="3">
-        <f t="shared" si="4"/>
-        <v>14458.981166223495</v>
+        <f t="shared" si="6"/>
+        <v>13540.660438029243</v>
       </c>
       <c r="AQ7" s="3">
-        <f t="shared" si="4"/>
-        <v>14603.570977885731</v>
+        <f t="shared" si="6"/>
+        <v>13676.067042409535</v>
       </c>
       <c r="AR7" s="3">
-        <f t="shared" si="4"/>
-        <v>14749.606687664589</v>
+        <f t="shared" si="6"/>
+        <v>13812.82771283363</v>
       </c>
       <c r="AS7" s="3">
-        <f t="shared" si="4"/>
-        <v>14897.102754541234</v>
+        <f t="shared" si="6"/>
+        <v>13950.955989961967</v>
       </c>
       <c r="AT7" s="3">
-        <f t="shared" si="4"/>
-        <v>15046.073782086647</v>
+        <f t="shared" si="6"/>
+        <v>14090.465549861587</v>
       </c>
       <c r="AU7" s="3">
-        <f t="shared" si="4"/>
-        <v>15196.534519907515</v>
+        <f t="shared" si="6"/>
+        <v>14231.370205360203</v>
       </c>
       <c r="AV7" s="3">
-        <f t="shared" si="4"/>
-        <v>15348.499865106591</v>
+        <f t="shared" si="6"/>
+        <v>14373.683907413804</v>
       </c>
       <c r="AW7" s="3">
-        <f t="shared" si="4"/>
-        <v>15501.984863757656</v>
+        <f t="shared" si="6"/>
+        <v>14517.420746487942</v>
       </c>
       <c r="AX7" s="3">
-        <f t="shared" si="4"/>
-        <v>15657.004712395234</v>
+        <f t="shared" si="6"/>
+        <v>14662.594953952821</v>
       </c>
       <c r="AY7" s="3">
-        <f t="shared" si="4"/>
-        <v>15813.574759519186</v>
+        <f t="shared" si="6"/>
+        <v>14809.220903492349</v>
       </c>
       <c r="AZ7" s="3">
-        <f t="shared" si="4"/>
-        <v>15971.710507114378</v>
+        <f t="shared" si="6"/>
+        <v>14957.313112527272</v>
       </c>
       <c r="BA7" s="3">
-        <f t="shared" si="4"/>
-        <v>16131.427612185522</v>
+        <f t="shared" si="6"/>
+        <v>15106.886243652545</v>
       </c>
       <c r="BB7" s="3">
-        <f t="shared" si="4"/>
-        <v>16292.741888307377</v>
+        <f t="shared" si="6"/>
+        <v>15257.95510608907</v>
       </c>
       <c r="BC7" s="3">
-        <f t="shared" si="4"/>
-        <v>16455.669307190452</v>
+        <f t="shared" si="6"/>
+        <v>15410.534657149961</v>
       </c>
       <c r="BD7" s="3">
-        <f t="shared" si="4"/>
-        <v>16620.226000262355</v>
+        <f t="shared" si="6"/>
+        <v>15564.640003721461</v>
       </c>
       <c r="BE7" s="3">
-        <f t="shared" si="4"/>
-        <v>16786.42826026498</v>
+        <f t="shared" si="6"/>
+        <v>15720.286403758675</v>
       </c>
       <c r="BF7" s="3">
-        <f t="shared" si="4"/>
-        <v>16954.292542867632</v>
+        <f t="shared" si="6"/>
+        <v>15877.489267796262</v>
       </c>
       <c r="BG7" s="3">
-        <f t="shared" si="4"/>
-        <v>17123.835468296307</v>
+        <f t="shared" si="6"/>
+        <v>16036.264160474224</v>
       </c>
       <c r="BH7" s="3">
-        <f t="shared" si="4"/>
-        <v>17295.07382297927</v>
+        <f t="shared" si="6"/>
+        <v>16196.626802078967</v>
       </c>
       <c r="BI7" s="3">
-        <f t="shared" si="4"/>
-        <v>17468.024561209062</v>
+        <f t="shared" si="6"/>
+        <v>16358.593070099756</v>
       </c>
       <c r="BJ7" s="3">
-        <f t="shared" si="4"/>
-        <v>17642.704806821152</v>
+        <f t="shared" si="6"/>
+        <v>16522.179000800752</v>
       </c>
       <c r="BK7" s="3">
-        <f t="shared" si="4"/>
-        <v>17819.131854889365</v>
+        <f t="shared" si="6"/>
+        <v>16687.400790808759</v>
       </c>
       <c r="BL7" s="3">
-        <f t="shared" si="4"/>
-        <v>17997.323173438257</v>
+        <f t="shared" si="6"/>
+        <v>16854.274798716848</v>
       </c>
       <c r="BM7" s="3">
-        <f t="shared" si="4"/>
-        <v>18177.296405172641</v>
+        <f t="shared" si="6"/>
+        <v>17022.817546704016</v>
       </c>
       <c r="BN7" s="3">
-        <f t="shared" si="4"/>
-        <v>18359.069369224369</v>
+        <f t="shared" si="6"/>
+        <v>17193.045722171057</v>
       </c>
       <c r="BO7" s="3">
-        <f t="shared" si="4"/>
-        <v>18542.660062916613</v>
+        <f t="shared" si="6"/>
+        <v>17364.976179392768</v>
       </c>
       <c r="BP7" s="3">
-        <f t="shared" si="4"/>
-        <v>18728.086663545779</v>
+        <f t="shared" si="6"/>
+        <v>17538.625941186696</v>
       </c>
       <c r="BQ7" s="3">
-        <f t="shared" si="4"/>
-        <v>18915.367530181236</v>
+        <f t="shared" si="6"/>
+        <v>17714.012200598561</v>
       </c>
       <c r="BR7" s="3">
-        <f t="shared" si="4"/>
-        <v>19104.521205483048</v>
+        <f t="shared" si="6"/>
+        <v>17891.152322604546</v>
       </c>
       <c r="BS7" s="3">
-        <f t="shared" si="4"/>
-        <v>19295.566417537877</v>
+        <f t="shared" si="6"/>
+        <v>18070.063845830591</v>
       </c>
       <c r="BT7" s="3">
-        <f t="shared" si="4"/>
-        <v>19488.522081713258</v>
+        <f t="shared" si="6"/>
+        <v>18250.764484288899</v>
       </c>
       <c r="BU7" s="3">
-        <f t="shared" si="4"/>
-        <v>19683.407302530391</v>
+        <f t="shared" si="6"/>
+        <v>18433.272129131787</v>
       </c>
       <c r="BV7" s="3">
-        <f t="shared" si="4"/>
-        <v>19880.241375555695</v>
+        <f t="shared" si="6"/>
+        <v>18617.604850423104</v>
       </c>
       <c r="BW7" s="3">
-        <f t="shared" si="4"/>
-        <v>20079.043789311254</v>
+        <f t="shared" si="6"/>
+        <v>18803.780898927336</v>
       </c>
       <c r="BX7" s="3">
-        <f t="shared" si="4"/>
-        <v>20279.834227204366</v>
+        <f t="shared" si="6"/>
+        <v>18991.818707916609</v>
       </c>
       <c r="BY7" s="3">
-        <f t="shared" si="4"/>
-        <v>20482.632569476409</v>
+        <f t="shared" si="6"/>
+        <v>19181.736894995774</v>
       </c>
       <c r="BZ7" s="3">
-        <f t="shared" si="4"/>
-        <v>20687.458895171174</v>
+        <f t="shared" si="6"/>
+        <v>19373.554263945731</v>
       </c>
       <c r="CA7" s="3">
-        <f t="shared" si="4"/>
-        <v>20894.333484122886</v>
+        <f t="shared" si="6"/>
+        <v>19567.289806585188</v>
       </c>
       <c r="CB7" s="3">
-        <f t="shared" si="4"/>
-        <v>21103.276818964114</v>
+        <f t="shared" si="6"/>
+        <v>19762.96270465104</v>
       </c>
       <c r="CC7" s="3">
-        <f t="shared" si="4"/>
-        <v>21314.309587153755</v>
+        <f t="shared" si="6"/>
+        <v>19960.59233169755</v>
       </c>
       <c r="CD7" s="3">
-        <f t="shared" si="4"/>
-        <v>21527.452683025294</v>
+        <f t="shared" si="6"/>
+        <v>20160.198255014526</v>
       </c>
       <c r="CE7" s="3">
-        <f t="shared" si="4"/>
-        <v>21742.727209855548</v>
+        <f t="shared" si="6"/>
+        <v>20361.800237564672</v>
       </c>
       <c r="CF7" s="3">
-        <f t="shared" si="4"/>
-        <v>21960.154481954105</v>
+        <f t="shared" si="6"/>
+        <v>20565.418239940318</v>
       </c>
       <c r="CG7" s="3">
-        <f t="shared" si="4"/>
-        <v>22179.756026773648</v>
+        <f t="shared" si="6"/>
+        <v>20771.072422339723</v>
       </c>
       <c r="CH7" s="3">
-        <f t="shared" si="4"/>
-        <v>22401.553587041384</v>
+        <f t="shared" si="6"/>
+        <v>20978.783146563121</v>
       </c>
       <c r="CI7" s="3">
-        <f t="shared" si="4"/>
-        <v>22625.569122911798</v>
+        <f t="shared" si="6"/>
+        <v>21188.570978028751</v>
       </c>
       <c r="CJ7" s="3">
-        <f t="shared" si="4"/>
-        <v>22851.824814140917</v>
+        <f t="shared" si="6"/>
+        <v>21400.456687809037</v>
       </c>
       <c r="CK7" s="3">
-        <f t="shared" si="4"/>
-        <v>23080.343062282325</v>
+        <f t="shared" si="6"/>
+        <v>21614.461254687129</v>
       </c>
       <c r="CL7" s="3">
-        <f t="shared" si="4"/>
-        <v>23311.146492905147</v>
+        <f t="shared" si="6"/>
+        <v>21830.605867234</v>
       </c>
       <c r="CM7" s="3">
-        <f t="shared" si="4"/>
-        <v>23544.257957834197</v>
+        <f t="shared" si="6"/>
+        <v>22048.911925906341</v>
       </c>
       <c r="CN7" s="3">
-        <f t="shared" si="4"/>
-        <v>23779.70053741254</v>
+        <f t="shared" si="6"/>
+        <v>22269.401045165403</v>
       </c>
       <c r="CO7" s="3">
-        <f t="shared" si="4"/>
-        <v>24017.497542786667</v>
+        <f t="shared" si="6"/>
+        <v>22492.095055617057</v>
       </c>
       <c r="CP7" s="3">
-        <f t="shared" si="4"/>
-        <v>24257.672518214535</v>
+        <f t="shared" si="6"/>
+        <v>22717.016006173228</v>
       </c>
       <c r="CQ7" s="3">
-        <f t="shared" si="4"/>
-        <v>24500.24924339668</v>
+        <f t="shared" si="6"/>
+        <v>22944.186166234958</v>
       </c>
       <c r="CR7" s="3">
-        <f t="shared" si="4"/>
-        <v>24745.251735830647</v>
+        <f t="shared" si="6"/>
+        <v>23173.62802789731</v>
       </c>
       <c r="CS7" s="3">
-        <f t="shared" si="4"/>
-        <v>24992.704253188953</v>
+        <f t="shared" si="6"/>
+        <v>23405.364308176282</v>
       </c>
       <c r="CT7" s="3">
-        <f t="shared" si="4"/>
-        <v>25242.631295720843</v>
+        <f t="shared" si="6"/>
+        <v>23639.417951258045</v>
       </c>
       <c r="CU7" s="3">
-        <f t="shared" si="4"/>
-        <v>25495.057608678053</v>
+        <f t="shared" si="6"/>
+        <v>23875.812130770624</v>
       </c>
       <c r="CV7" s="3">
-        <f t="shared" ref="CV7:DC7" si="5">CU7*(1+$V$24)</f>
-        <v>25750.008184764833</v>
+        <f t="shared" ref="CV7:DC7" si="7">CU7*(1+$V$24)</f>
+        <v>24114.570252078331</v>
       </c>
       <c r="CW7" s="3">
-        <f t="shared" si="5"/>
-        <v>26007.50826661248</v>
+        <f t="shared" si="7"/>
+        <v>24355.715954599113</v>
       </c>
       <c r="CX7" s="3">
-        <f t="shared" si="5"/>
-        <v>26267.583349278604</v>
+        <f t="shared" si="7"/>
+        <v>24599.273114145104</v>
       </c>
       <c r="CY7" s="3">
-        <f t="shared" si="5"/>
-        <v>26530.259182771391</v>
+        <f t="shared" si="7"/>
+        <v>24845.265845286554</v>
       </c>
       <c r="CZ7" s="3">
-        <f t="shared" si="5"/>
-        <v>26795.561774599104</v>
+        <f t="shared" si="7"/>
+        <v>25093.718503739419</v>
       </c>
       <c r="DA7" s="3">
-        <f t="shared" si="5"/>
-        <v>27063.517392345097</v>
+        <f t="shared" si="7"/>
+        <v>25344.655688776813</v>
       </c>
       <c r="DB7" s="3">
-        <f t="shared" si="5"/>
-        <v>27334.152566268549</v>
+        <f t="shared" si="7"/>
+        <v>25598.102245664581</v>
       </c>
       <c r="DC7" s="3">
-        <f t="shared" si="5"/>
-        <v>27607.494091931236</v>
-      </c>
-    </row>
-    <row r="8" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>25854.083268121227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6">
-        <f t="shared" ref="E8:Q8" si="6">+E6-E7</f>
+        <f t="shared" ref="E8:R8" si="8">+E6-E7</f>
         <v>120.691</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>136.67500000000001</v>
       </c>
       <c r="G8" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>151.88300000000001</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>176.45100000000002</v>
       </c>
       <c r="I8" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>207.15600000000001</v>
       </c>
       <c r="J8" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>259.04899999999998</v>
       </c>
       <c r="K8" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>288.56799999999998</v>
       </c>
       <c r="L8" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>324.21299999999997</v>
       </c>
       <c r="M8" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>342.93400000000003</v>
       </c>
       <c r="N8" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>372.642</v>
       </c>
       <c r="O8" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>381.8</v>
       </c>
       <c r="P8" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>407.79399999999998</v>
       </c>
       <c r="Q8" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>444.21699999999993</v>
       </c>
+      <c r="R8" s="6">
+        <f t="shared" si="8"/>
+        <v>484.82</v>
+      </c>
       <c r="Z8" s="24">
-        <f>(Z7-Y7)/Y7</f>
-        <v>0.25776968539191691</v>
+        <f t="shared" ref="Z8:AH8" si="9">(Z7-Y7)/Y7</f>
+        <v>0.27069368992895937</v>
       </c>
       <c r="AA8" s="22">
-        <f>(AA7-Z7)/Z7</f>
+        <f t="shared" si="9"/>
+        <v>0.20505191589160465</v>
+      </c>
+      <c r="AB8" s="22">
+        <f t="shared" si="9"/>
+        <v>0.3</v>
+      </c>
+      <c r="AC8" s="22">
+        <f t="shared" si="9"/>
+        <v>0.3000000000000001</v>
+      </c>
+      <c r="AD8" s="22">
+        <f t="shared" si="9"/>
+        <v>0.29999999999999993</v>
+      </c>
+      <c r="AE8" s="22">
+        <f t="shared" si="9"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AB8" s="22">
-        <f>(AB7-AA7)/AA7</f>
+      <c r="AF8" s="22">
+        <f t="shared" si="9"/>
+        <v>0.29999999999999993</v>
+      </c>
+      <c r="AG8" s="22">
+        <f t="shared" si="9"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AC8" s="22">
-        <f>(AC7-AB7)/AB7</f>
-        <v>0.3000000000000001</v>
-      </c>
-      <c r="AD8" s="22">
-        <f>(AD7-AC7)/AC7</f>
-        <v>0.29999999999999993</v>
-      </c>
-      <c r="AE8" s="22">
-        <f>(AE7-AD7)/AD7</f>
-        <v>0.3000000000000001</v>
-      </c>
-      <c r="AF8" s="22">
-        <f>(AF7-AE7)/AE7</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="AG8" s="22">
-        <f>(AG7-AF7)/AF7</f>
-        <v>0.3000000000000001</v>
-      </c>
       <c r="AH8" s="22">
-        <f>(AH7-AG7)/AG7</f>
-        <v>1.0000000000000064E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>9.9999999999999863E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
@@ -2033,8 +2053,11 @@
       <c r="Q9" s="5">
         <v>240.22499999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R9" s="5">
+        <v>253.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>23</v>
       </c>
@@ -2079,8 +2102,11 @@
       <c r="Q10" s="5">
         <v>156.87</v>
       </c>
-    </row>
-    <row r="11" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R10" s="5">
+        <v>159.97999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>24</v>
       </c>
@@ -2125,98 +2151,105 @@
       <c r="Q11" s="5">
         <v>51.351999999999997</v>
       </c>
-    </row>
-    <row r="12" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R11" s="5">
+        <v>43.847999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6">
-        <f t="shared" ref="E12:Q12" si="7">SUM(E9:E11)</f>
+        <f t="shared" ref="E12:R12" si="10">SUM(E9:E11)</f>
         <v>129.958</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>145.613</v>
       </c>
       <c r="G12" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>164.71299999999999</v>
       </c>
       <c r="H12" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>186.33699999999999</v>
       </c>
       <c r="I12" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>212.05100000000002</v>
       </c>
       <c r="J12" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>250.59399999999999</v>
       </c>
       <c r="K12" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>278.154</v>
       </c>
       <c r="L12" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>327.35199999999998</v>
       </c>
       <c r="M12" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>374.27599999999995</v>
       </c>
       <c r="N12" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>407.27</v>
       </c>
       <c r="O12" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>416.77</v>
       </c>
       <c r="P12" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>429.62</v>
       </c>
       <c r="Q12" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>448.447</v>
       </c>
-    </row>
-    <row r="13" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R12" s="6">
+        <f t="shared" si="10"/>
+        <v>457.07800000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6">
-        <f t="shared" ref="E13:Q13" si="8">E8-E12</f>
+        <f t="shared" ref="E13:R13" si="11">E8-E12</f>
         <v>-9.2669999999999959</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-8.9379999999999882</v>
       </c>
       <c r="G13" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-12.829999999999984</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-9.8859999999999673</v>
       </c>
       <c r="I13" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-4.8950000000000102</v>
       </c>
       <c r="J13" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>8.4549999999999841</v>
       </c>
       <c r="K13" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>10.413999999999987</v>
       </c>
       <c r="L13" s="6">
@@ -2224,27 +2257,31 @@
         <v>-3.13900000000001</v>
       </c>
       <c r="M13" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-31.341999999999928</v>
       </c>
       <c r="N13" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-34.627999999999986</v>
       </c>
       <c r="O13" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-34.96999999999997</v>
       </c>
       <c r="P13" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-21.826000000000022</v>
       </c>
       <c r="Q13" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-4.230000000000075</v>
       </c>
-    </row>
-    <row r="14" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R13" s="6">
+        <f t="shared" si="11"/>
+        <v>27.741999999999962</v>
+      </c>
+    </row>
+    <row r="14" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
@@ -2299,67 +2336,75 @@
         <f>-1.303+29.883</f>
         <v>28.58</v>
       </c>
-    </row>
-    <row r="15" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R14" s="5">
+        <f>-1.292+30.817</f>
+        <v>29.524999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6">
-        <f t="shared" ref="E15:Q15" si="9">+E13+E14</f>
+        <f t="shared" ref="E15:R15" si="12">+E13+E14</f>
         <v>-14.554999999999996</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-15.166999999999987</v>
       </c>
       <c r="G15" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-12.528999999999986</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-9.6579999999999675</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-4.7670000000000101</v>
       </c>
       <c r="J15" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>8.531999999999984</v>
       </c>
       <c r="K15" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>10.853999999999989</v>
       </c>
       <c r="L15" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-1.1000000000010779E-2</v>
       </c>
       <c r="M15" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-22.21599999999993</v>
       </c>
       <c r="N15" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-25.009999999999987</v>
       </c>
       <c r="O15" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-20.423999999999971</v>
       </c>
       <c r="P15" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-0.72800000000002285</v>
       </c>
       <c r="Q15" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>24.349999999999923</v>
       </c>
-    </row>
-    <row r="16" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R15" s="6">
+        <f t="shared" si="12"/>
+        <v>57.26699999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
@@ -2404,126 +2449,137 @@
       <c r="Q16" s="5">
         <v>1.67</v>
       </c>
-    </row>
-    <row r="17" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R16" s="5">
+        <v>3.274</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6">
-        <f t="shared" ref="E17:Q17" si="10">+E15-E16</f>
+        <f t="shared" ref="E17:R17" si="13">+E15-E16</f>
         <v>-15.149999999999997</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-16.159999999999986</v>
       </c>
       <c r="G17" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-11.989999999999986</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-6.6979999999999675</v>
       </c>
       <c r="I17" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-4.0500000000000105</v>
       </c>
       <c r="J17" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7.1689999999999845</v>
       </c>
       <c r="K17" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9.7379999999999889</v>
       </c>
       <c r="L17" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-4.8790000000000111</v>
       </c>
       <c r="M17" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-25.141999999999932</v>
       </c>
       <c r="N17" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-28.189999999999987</v>
       </c>
       <c r="O17" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-24.08599999999997</v>
       </c>
       <c r="P17" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-3.7890000000000228</v>
       </c>
       <c r="Q17" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>22.679999999999922</v>
       </c>
-    </row>
-    <row r="18" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R17" s="6">
+        <f t="shared" si="13"/>
+        <v>53.992999999999959</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7">
-        <f t="shared" ref="E18:Q18" si="11">+E17/E19</f>
+        <f t="shared" ref="E18:R18" si="14">+E17/E19</f>
         <v>-5.0073705850856368E-2</v>
       </c>
       <c r="F18" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-5.3147929500060795E-2</v>
       </c>
       <c r="G18" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-3.9178653352241861E-2</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-2.1745411809011676E-2</v>
       </c>
       <c r="I18" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-1.3054114947122809E-2</v>
       </c>
       <c r="J18" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2.0727021455604115E-2</v>
       </c>
       <c r="K18" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2.8171540321927365E-2</v>
       </c>
       <c r="L18" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-1.5498975523753589E-2</v>
       </c>
       <c r="M18" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-7.9565809044589805E-2</v>
       </c>
       <c r="N18" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-8.8829928028536453E-2</v>
       </c>
       <c r="O18" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-7.5437068960117162E-2</v>
       </c>
       <c r="P18" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-1.1759229086169245E-2</v>
       </c>
       <c r="Q18" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.9665219915406279E-2</v>
       </c>
-    </row>
-    <row r="19" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R18" s="7">
+        <f t="shared" si="14"/>
+        <v>0.16416485504492304</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>1</v>
       </c>
@@ -2568,8 +2624,11 @@
       <c r="Q19" s="5">
         <v>325.55700000000002</v>
       </c>
-    </row>
-    <row r="21" spans="2:24" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R19" s="5">
+        <v>328.89499999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>45</v>
       </c>
@@ -2580,76 +2639,80 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="10">
-        <f t="shared" ref="I21:K21" si="12">+I6/E6-1</f>
+        <f t="shared" ref="I21:K21" si="15">+I6/E6-1</f>
         <v>0.74875060610958455</v>
       </c>
       <c r="J21" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.83741431074009598</v>
       </c>
       <c r="K21" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.82841515192723181</v>
       </c>
       <c r="L21" s="10">
-        <f>+L6/H6-1</f>
+        <f t="shared" ref="L21:S21" si="16">+L6/H6-1</f>
         <v>0.73898411040081502</v>
       </c>
       <c r="M21" s="10">
-        <f>+M6/I6-1</f>
+        <f t="shared" si="16"/>
         <v>0.61387196474520134</v>
       </c>
       <c r="N21" s="10">
-        <f>+N6/J6-1</f>
+        <f t="shared" si="16"/>
         <v>0.43900023911857233</v>
       </c>
       <c r="O21" s="10">
-        <f>+O6/K6-1</f>
+        <f t="shared" si="16"/>
         <v>0.32692614935404807</v>
       </c>
       <c r="P21" s="10">
-        <f>+P6/L6-1</f>
+        <f t="shared" si="16"/>
         <v>0.25484441249033574</v>
       </c>
       <c r="Q21" s="10">
-        <f>+Q6/M6-1</f>
+        <f t="shared" si="16"/>
         <v>0.25428318134024219</v>
       </c>
       <c r="R21" s="10">
-        <f>+R6/N6-1</f>
-        <v>0.21005796774172936</v>
-      </c>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>0.25617864545940661</v>
+      </c>
+      <c r="S21" s="10">
+        <f t="shared" si="16"/>
+        <v>0.22271721394852539</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>46</v>
       </c>
       <c r="E22" s="12">
-        <f t="shared" ref="E22:H22" si="13">+E8/E6</f>
+        <f t="shared" ref="E22:H22" si="17">+E8/E6</f>
         <v>0.78028770001616288</v>
       </c>
       <c r="F22" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.76986554460911061</v>
       </c>
       <c r="G22" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.7649648197674126</v>
       </c>
       <c r="H22" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.75552025485015994</v>
       </c>
       <c r="I22" s="12">
-        <f t="shared" ref="I22:K22" si="14">+I8/I6</f>
+        <f t="shared" ref="I22:K22" si="18">+I8/I6</f>
         <v>0.76586022300434775</v>
       </c>
       <c r="J22" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.79414649997854059</v>
       </c>
       <c r="K22" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.79488747486433631</v>
       </c>
       <c r="L22" s="12">
@@ -2657,24 +2720,28 @@
         <v>0.79828284967178642</v>
       </c>
       <c r="M22" s="12">
-        <f t="shared" ref="M22:Q22" si="15">+M8/M6</f>
+        <f t="shared" ref="M22:R22" si="19">+M8/M6</f>
         <v>0.78558551129009724</v>
       </c>
       <c r="N22" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.79387045988593929</v>
       </c>
       <c r="O22" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.79258647247121738</v>
       </c>
       <c r="P22" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.8001608978887057</v>
       </c>
       <c r="Q22" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.81130190526285029</v>
+      </c>
+      <c r="R22" s="12">
+        <f t="shared" si="19"/>
+        <v>0.82221796356815668</v>
       </c>
       <c r="U22" t="s">
         <v>71</v>
@@ -2686,12 +2753,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="U23" s="15" t="s">
         <v>62</v>
       </c>
       <c r="V23" s="23">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="W23" s="15" t="s">
         <v>62</v>
@@ -2700,7 +2767,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="24" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>3</v>
       </c>
@@ -2729,7 +2796,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>33</v>
       </c>
@@ -2756,7 +2823,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>34</v>
       </c>
@@ -2783,17 +2850,17 @@
       </c>
       <c r="V26" s="18">
         <f>NPV(V25,V6:DC6)</f>
-        <v>58324.781680299697</v>
+        <v>53169.98322190965</v>
       </c>
       <c r="W26" s="17" t="s">
         <v>63</v>
       </c>
       <c r="X26" s="26">
         <f>NPV($V$25,V7:DC7)</f>
-        <v>70118.732659662914</v>
-      </c>
-    </row>
-    <row r="27" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>65936.250330536161</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>35</v>
       </c>
@@ -2818,17 +2885,17 @@
       </c>
       <c r="V27" s="21">
         <f>Main!$O$3</f>
-        <v>325.55700000000002</v>
+        <v>328</v>
       </c>
       <c r="W27" s="17" t="s">
         <v>1</v>
       </c>
       <c r="X27" s="21">
         <f>Main!$O$3</f>
-        <v>325.55700000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>36</v>
       </c>
@@ -2853,17 +2920,17 @@
       </c>
       <c r="V28" s="19">
         <f>V26/V27</f>
-        <v>179.1538246153506</v>
+        <v>162.10360738387089</v>
       </c>
       <c r="W28" s="17" t="s">
         <v>64</v>
       </c>
       <c r="X28" s="19">
         <f>X26/X27</f>
-        <v>215.38081706018579</v>
-      </c>
-    </row>
-    <row r="29" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>201.02515344675658</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>37</v>
       </c>
@@ -2888,17 +2955,17 @@
       </c>
       <c r="V29" s="20">
         <f>(V28-Main!$O$2)/Main!$O$2</f>
-        <v>0.32795066796642652</v>
+        <v>0.24944972548073749</v>
       </c>
       <c r="W29" s="17" t="s">
         <v>65</v>
       </c>
       <c r="X29" s="20">
         <f>(X28-Main!$O$2)/Main!$O$2</f>
-        <v>0.59647777822389592</v>
-      </c>
-    </row>
-    <row r="30" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0.549446226659138</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>38</v>
       </c>
@@ -2925,17 +2992,17 @@
       </c>
       <c r="V30" s="18">
         <f>V27*V28</f>
-        <v>58324.781680299697</v>
+        <v>53169.983221909657</v>
       </c>
       <c r="W30" s="17" t="s">
         <v>66</v>
       </c>
       <c r="X30" s="18">
         <f>X27*X28</f>
-        <v>70118.732659662914</v>
-      </c>
-    </row>
-    <row r="31" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>65936.250330536161</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>39</v>
       </c>
@@ -2956,7 +3023,7 @@
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
     </row>
-    <row r="32" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>32</v>
       </c>
@@ -2979,7 +3046,7 @@
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
     </row>
-    <row r="34" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>40</v>
       </c>
@@ -3000,7 +3067,7 @@
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
     </row>
-    <row r="35" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>41</v>
       </c>
@@ -3021,7 +3088,7 @@
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
     </row>
-    <row r="36" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>37</v>
       </c>
@@ -3044,7 +3111,7 @@
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
     </row>
-    <row r="37" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>42</v>
       </c>
@@ -3067,7 +3134,7 @@
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
     </row>
-    <row r="38" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
         <v>4</v>
       </c>
@@ -3088,7 +3155,7 @@
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
     </row>
-    <row r="39" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
         <v>39</v>
       </c>
@@ -3109,7 +3176,7 @@
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
     </row>
-    <row r="40" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
         <v>43</v>
       </c>
@@ -3130,7 +3197,7 @@
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
     </row>
-    <row r="41" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>44</v>
       </c>
@@ -3153,7 +3220,7 @@
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
     </row>
-    <row r="43" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>48</v>
       </c>
@@ -3173,7 +3240,7 @@
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
     </row>
-    <row r="44" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
         <v>49</v>
       </c>
@@ -3192,7 +3259,7 @@
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
     </row>
-    <row r="45" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>50</v>
       </c>
@@ -3211,7 +3278,7 @@
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
     </row>
-    <row r="46" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>51</v>
       </c>
@@ -3230,7 +3297,7 @@
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
     </row>
-    <row r="47" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
         <v>52</v>
       </c>
@@ -3249,7 +3316,7 @@
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
     </row>
-    <row r="48" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
         <v>53</v>
       </c>
@@ -3268,7 +3335,7 @@
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
     </row>
-    <row r="49" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
         <v>54</v>
       </c>
@@ -3287,7 +3354,7 @@
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
     </row>
-    <row r="50" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
         <v>37</v>
       </c>
@@ -3306,7 +3373,7 @@
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
     </row>
-    <row r="51" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
         <v>33</v>
       </c>
@@ -3325,7 +3392,7 @@
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
     </row>
-    <row r="52" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
         <v>55</v>
       </c>
@@ -3344,7 +3411,7 @@
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
     </row>
-    <row r="53" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
         <v>56</v>
       </c>
@@ -3364,7 +3431,7 @@
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
     </row>
-    <row r="54" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
         <v>57</v>
       </c>

--- a/DDOG.xlsx
+++ b/DDOG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffe\Documents\GitHub\martinshkreli-models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A787C9-DEDB-49DF-98D5-D831FFAE8E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0D9861-D47E-4B59-865B-7D39ECFF3979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{3FD86B5C-07F1-42A4-9D66-8FB9C4BAF175}"/>
+    <workbookView xWindow="40305" yWindow="90" windowWidth="11310" windowHeight="20805" activeTab="1" xr2:uid="{3FD86B5C-07F1-42A4-9D66-8FB9C4BAF175}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -839,12 +839,12 @@
   <dimension ref="N2:P7"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="O8" sqref="N2:O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="14:16" x14ac:dyDescent="0.2">
       <c r="N2" t="s">
         <v>0</v>
       </c>
@@ -852,7 +852,7 @@
         <v>129.74</v>
       </c>
     </row>
-    <row r="3" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="14:16" x14ac:dyDescent="0.2">
       <c r="N3" t="s">
         <v>1</v>
       </c>
@@ -861,7 +861,7 @@
       </c>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="14:16" x14ac:dyDescent="0.2">
       <c r="N4" t="s">
         <v>2</v>
       </c>
@@ -870,7 +870,7 @@
         <v>42554.720000000001</v>
       </c>
     </row>
-    <row r="5" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="14:16" x14ac:dyDescent="0.2">
       <c r="N5" t="s">
         <v>3</v>
       </c>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="14:16" x14ac:dyDescent="0.2">
       <c r="N6" t="s">
         <v>4</v>
       </c>
@@ -888,7 +888,7 @@
       </c>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="14:16" x14ac:dyDescent="0.2">
       <c r="N7" t="s">
         <v>5</v>
       </c>
@@ -907,26 +907,26 @@
   <dimension ref="A1:DC54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X12" sqref="X12"/>
+      <selection pane="bottomRight" activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="13" width="9.109375" style="2"/>
-    <col min="14" max="14" width="10.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="13" width="9.140625" style="2"/>
+    <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
@@ -958,7 +958,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:107" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:107" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>47</v>
       </c>
@@ -1070,10 +1070,10 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="4" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:107" x14ac:dyDescent="0.2">
       <c r="Z4" s="25"/>
     </row>
-    <row r="5" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:107" x14ac:dyDescent="0.2">
       <c r="V5" t="s">
         <v>69</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>1.0000000000000097E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:107" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:107" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>19833.437486207578</v>
       </c>
     </row>
-    <row r="7" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>20</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>2565</v>
       </c>
       <c r="AB7" s="3">
-        <f t="shared" ref="AA7:AG7" si="5">AA7*(1+$X$23)</f>
+        <f t="shared" ref="AB7:AG7" si="5">AA7*(1+$X$23)</f>
         <v>3334.5</v>
       </c>
       <c r="AC7" s="3">
@@ -1909,7 +1909,7 @@
         <v>25854.083268121227</v>
       </c>
     </row>
-    <row r="8" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>9.9999999999999863E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>253.25</v>
       </c>
     </row>
-    <row r="10" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>23</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>159.97999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>24</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>43.847999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>457.07800000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>27.741999999999962</v>
       </c>
     </row>
-    <row r="14" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>29.524999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
         <v>28</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>57.26699999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>3.274</v>
       </c>
     </row>
-    <row r="17" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>29</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>53.992999999999959</v>
       </c>
     </row>
-    <row r="18" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>0.16416485504492304</v>
       </c>
     </row>
-    <row r="19" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
         <v>1</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>328.89499999999998</v>
       </c>
     </row>
-    <row r="21" spans="2:24" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:24" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>45</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>0.22271721394852539</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B22" s="5" t="s">
         <v>46</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
       <c r="U23" s="15" t="s">
         <v>62</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="24" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
         <v>3</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
         <v>33</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
         <v>34</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>65936.250330536161</v>
       </c>
     </row>
-    <row r="27" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
         <v>35</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="28" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
         <v>36</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>201.02515344675658</v>
       </c>
     </row>
-    <row r="29" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
         <v>37</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>0.549446226659138</v>
       </c>
     </row>
-    <row r="30" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
         <v>38</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>65936.250330536161</v>
       </c>
     </row>
-    <row r="31" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
         <v>39</v>
       </c>
@@ -3023,7 +3023,7 @@
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
     </row>
-    <row r="32" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
         <v>32</v>
       </c>
@@ -3046,7 +3046,7 @@
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
     </row>
-    <row r="34" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
         <v>40</v>
       </c>
@@ -3067,7 +3067,7 @@
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
     </row>
-    <row r="35" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
         <v>41</v>
       </c>
@@ -3088,7 +3088,7 @@
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
     </row>
-    <row r="36" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="5" t="s">
         <v>37</v>
       </c>
@@ -3111,7 +3111,7 @@
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
     </row>
-    <row r="37" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="5" t="s">
         <v>42</v>
       </c>
@@ -3134,7 +3134,7 @@
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
     </row>
-    <row r="38" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="5" t="s">
         <v>4</v>
       </c>
@@ -3155,7 +3155,7 @@
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
     </row>
-    <row r="39" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="5" t="s">
         <v>39</v>
       </c>
@@ -3176,7 +3176,7 @@
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
     </row>
-    <row r="40" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="5" t="s">
         <v>43</v>
       </c>
@@ -3197,7 +3197,7 @@
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
     </row>
-    <row r="41" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="5" t="s">
         <v>44</v>
       </c>
@@ -3220,7 +3220,7 @@
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
     </row>
-    <row r="43" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="5" t="s">
         <v>48</v>
       </c>
@@ -3240,7 +3240,7 @@
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
     </row>
-    <row r="44" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="5" t="s">
         <v>49</v>
       </c>
@@ -3259,7 +3259,7 @@
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
     </row>
-    <row r="45" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="5" t="s">
         <v>50</v>
       </c>
@@ -3278,7 +3278,7 @@
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
     </row>
-    <row r="46" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="5" t="s">
         <v>51</v>
       </c>
@@ -3297,7 +3297,7 @@
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
     </row>
-    <row r="47" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="5" t="s">
         <v>52</v>
       </c>
@@ -3316,7 +3316,7 @@
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
     </row>
-    <row r="48" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="5" t="s">
         <v>53</v>
       </c>
@@ -3335,7 +3335,7 @@
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
     </row>
-    <row r="49" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="5" t="s">
         <v>54</v>
       </c>
@@ -3354,7 +3354,7 @@
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
     </row>
-    <row r="50" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="5" t="s">
         <v>37</v>
       </c>
@@ -3373,7 +3373,7 @@
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
     </row>
-    <row r="51" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="5" t="s">
         <v>33</v>
       </c>
@@ -3392,7 +3392,7 @@
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
     </row>
-    <row r="52" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="5" t="s">
         <v>55</v>
       </c>
@@ -3411,7 +3411,7 @@
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
     </row>
-    <row r="53" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="5" t="s">
         <v>56</v>
       </c>
@@ -3431,7 +3431,7 @@
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
     </row>
-    <row r="54" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="5" t="s">
         <v>57</v>
       </c>

--- a/DDOG.xlsx
+++ b/DDOG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffe\Documents\GitHub\martinshkreli-models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0D9861-D47E-4B59-865B-7D39ECFF3979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F860361-B1DC-497F-A4DE-DF1DD41DEC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40305" yWindow="90" windowWidth="11310" windowHeight="20805" activeTab="1" xr2:uid="{3FD86B5C-07F1-42A4-9D66-8FB9C4BAF175}"/>
+    <workbookView xWindow="14235" yWindow="90" windowWidth="30270" windowHeight="20805" activeTab="1" xr2:uid="{3FD86B5C-07F1-42A4-9D66-8FB9C4BAF175}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="76">
   <si>
     <t>Price</t>
   </si>
@@ -310,6 +310,9 @@
   </si>
   <si>
     <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
   </si>
 </sst>
 </file>
@@ -839,7 +842,7 @@
   <dimension ref="N2:P7"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O8" sqref="N2:O8"/>
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -849,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>129.74</v>
+        <v>117.28</v>
       </c>
     </row>
     <row r="3" spans="14:16" x14ac:dyDescent="0.2">
@@ -857,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="O3" s="5">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="P3" s="2"/>
     </row>
@@ -867,7 +870,7 @@
       </c>
       <c r="O4" s="5">
         <f>+O2*O3</f>
-        <v>42554.720000000001</v>
+        <v>38936.959999999999</v>
       </c>
     </row>
     <row r="5" spans="14:16" x14ac:dyDescent="0.2">
@@ -875,7 +878,7 @@
         <v>3</v>
       </c>
       <c r="O5" s="5">
-        <v>2080</v>
+        <v>2800</v>
       </c>
       <c r="P5" s="2"/>
     </row>
@@ -894,7 +897,7 @@
       </c>
       <c r="O7" s="5">
         <f>+O4-O5+O6</f>
-        <v>42211.546000000002</v>
+        <v>37873.786</v>
       </c>
     </row>
   </sheetData>
@@ -907,10 +910,10 @@
   <dimension ref="A1:DC54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S10" sqref="S10"/>
+      <selection pane="bottomRight" activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1010,7 +1013,9 @@
       <c r="S2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="T2" s="2"/>
+      <c r="T2" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2">
         <v>2019</v>
@@ -1069,6 +1074,12 @@
       <c r="L3" s="2">
         <v>2420</v>
       </c>
+      <c r="O3">
+        <v>2910</v>
+      </c>
+      <c r="S3">
+        <v>3340</v>
+      </c>
     </row>
     <row r="4" spans="1:107" x14ac:dyDescent="0.2">
       <c r="Z4" s="25"/>
@@ -1095,35 +1106,35 @@
       </c>
       <c r="AA5" s="24">
         <f>(AA6-Z6)/Z6</f>
-        <v>0.23999999999999994</v>
+        <v>0.21999999999999997</v>
       </c>
       <c r="AB5" s="24">
         <f t="shared" si="1"/>
-        <v>0.24000000000000005</v>
+        <v>0.21999999999999995</v>
       </c>
       <c r="AC5" s="24">
         <f t="shared" si="1"/>
-        <v>0.23999999999999996</v>
+        <v>0.21999999999999992</v>
       </c>
       <c r="AD5" s="24">
         <f t="shared" si="1"/>
-        <v>0.23999999999999994</v>
+        <v>0.22000000000000003</v>
       </c>
       <c r="AE5" s="24">
         <f t="shared" si="1"/>
-        <v>0.24000000000000002</v>
+        <v>0.21999999999999989</v>
       </c>
       <c r="AF5" s="24">
         <f t="shared" si="1"/>
-        <v>0.23999999999999994</v>
+        <v>0.22000000000000003</v>
       </c>
       <c r="AG5" s="24">
         <f t="shared" si="1"/>
-        <v>0.23999999999999994</v>
+        <v>0.21999999999999992</v>
       </c>
       <c r="AH5" s="24">
         <f t="shared" si="1"/>
-        <v>1.0000000000000097E-2</v>
+        <v>1.0000000000000007E-2</v>
       </c>
     </row>
     <row r="6" spans="1:107" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1175,8 +1186,11 @@
         <v>589.649</v>
       </c>
       <c r="S6" s="3">
-        <f>(587+591)/2</f>
-        <v>589</v>
+        <v>611</v>
+      </c>
+      <c r="T6" s="3">
+        <f>(620+624)/2</f>
+        <v>622</v>
       </c>
       <c r="V6" s="3">
         <v>362.78</v>
@@ -1196,327 +1210,327 @@
       </c>
       <c r="AA6" s="3">
         <f t="shared" ref="AA6:AG6" si="2">Z6*(1+$V$23)</f>
-        <v>2612.6799999999998</v>
+        <v>2570.54</v>
       </c>
       <c r="AB6" s="3">
         <f t="shared" si="2"/>
-        <v>3239.7231999999999</v>
+        <v>3136.0587999999998</v>
       </c>
       <c r="AC6" s="3">
         <f t="shared" si="2"/>
-        <v>4017.2567679999997</v>
+        <v>3825.9917359999995</v>
       </c>
       <c r="AD6" s="3">
         <f t="shared" si="2"/>
-        <v>4981.3983923199994</v>
+        <v>4667.7099179199995</v>
       </c>
       <c r="AE6" s="3">
         <f t="shared" si="2"/>
-        <v>6176.9340064767994</v>
+        <v>5694.6060998623989</v>
       </c>
       <c r="AF6" s="3">
         <f t="shared" si="2"/>
-        <v>7659.3981680312309</v>
+        <v>6947.4194418321267</v>
       </c>
       <c r="AG6" s="3">
         <f t="shared" si="2"/>
-        <v>9497.6537283587259</v>
+        <v>8475.851719035194</v>
       </c>
       <c r="AH6" s="3">
         <f>AG6*(1+$V$24)</f>
-        <v>9592.630265642314</v>
+        <v>8560.610236225546</v>
       </c>
       <c r="AI6" s="3">
         <f t="shared" ref="AI6:CT6" si="3">AH6*(1+$V$24)</f>
-        <v>9688.5565682987381</v>
+        <v>8646.2163385878011</v>
       </c>
       <c r="AJ6" s="3">
         <f t="shared" si="3"/>
-        <v>9785.4421339817254</v>
+        <v>8732.6785019736799</v>
       </c>
       <c r="AK6" s="3">
         <f t="shared" si="3"/>
-        <v>9883.2965553215436</v>
+        <v>8820.005286993417</v>
       </c>
       <c r="AL6" s="3">
         <f t="shared" si="3"/>
-        <v>9982.1295208747597</v>
+        <v>8908.2053398633507</v>
       </c>
       <c r="AM6" s="3">
         <f t="shared" si="3"/>
-        <v>10081.950816083507</v>
+        <v>8997.2873932619841</v>
       </c>
       <c r="AN6" s="3">
         <f t="shared" si="3"/>
-        <v>10182.770324244342</v>
+        <v>9087.2602671946042</v>
       </c>
       <c r="AO6" s="3">
         <f t="shared" si="3"/>
-        <v>10284.598027486785</v>
+        <v>9178.1328698665511</v>
       </c>
       <c r="AP6" s="3">
         <f t="shared" si="3"/>
-        <v>10387.444007761653</v>
+        <v>9269.9141985652168</v>
       </c>
       <c r="AQ6" s="3">
         <f t="shared" si="3"/>
-        <v>10491.318447839269</v>
+        <v>9362.6133405508699</v>
       </c>
       <c r="AR6" s="3">
         <f t="shared" si="3"/>
-        <v>10596.231632317662</v>
+        <v>9456.2394739563788</v>
       </c>
       <c r="AS6" s="3">
         <f t="shared" si="3"/>
-        <v>10702.193948640839</v>
+        <v>9550.8018686959422</v>
       </c>
       <c r="AT6" s="3">
         <f t="shared" si="3"/>
-        <v>10809.215888127248</v>
+        <v>9646.3098873829022</v>
       </c>
       <c r="AU6" s="3">
         <f t="shared" si="3"/>
-        <v>10917.308047008521</v>
+        <v>9742.7729862567321</v>
       </c>
       <c r="AV6" s="3">
         <f t="shared" si="3"/>
-        <v>11026.481127478606</v>
+        <v>9840.2007161192996</v>
       </c>
       <c r="AW6" s="3">
         <f t="shared" si="3"/>
-        <v>11136.745938753393</v>
+        <v>9938.6027232804936</v>
       </c>
       <c r="AX6" s="3">
         <f t="shared" si="3"/>
-        <v>11248.113398140928</v>
+        <v>10037.988750513299</v>
       </c>
       <c r="AY6" s="3">
         <f t="shared" si="3"/>
-        <v>11360.594532122337</v>
+        <v>10138.368638018432</v>
       </c>
       <c r="AZ6" s="3">
         <f t="shared" si="3"/>
-        <v>11474.200477443561</v>
+        <v>10239.752324398616</v>
       </c>
       <c r="BA6" s="3">
         <f t="shared" si="3"/>
-        <v>11588.942482217997</v>
+        <v>10342.149847642602</v>
       </c>
       <c r="BB6" s="3">
         <f t="shared" si="3"/>
-        <v>11704.831907040178</v>
+        <v>10445.571346119028</v>
       </c>
       <c r="BC6" s="3">
         <f t="shared" si="3"/>
-        <v>11821.880226110579</v>
+        <v>10550.027059580218</v>
       </c>
       <c r="BD6" s="3">
         <f t="shared" si="3"/>
-        <v>11940.099028371686</v>
+        <v>10655.527330176021</v>
       </c>
       <c r="BE6" s="3">
         <f t="shared" si="3"/>
-        <v>12059.500018655403</v>
+        <v>10762.082603477782</v>
       </c>
       <c r="BF6" s="3">
         <f t="shared" si="3"/>
-        <v>12180.095018841957</v>
+        <v>10869.70342951256</v>
       </c>
       <c r="BG6" s="3">
         <f t="shared" si="3"/>
-        <v>12301.895969030376</v>
+        <v>10978.400463807686</v>
       </c>
       <c r="BH6" s="3">
         <f t="shared" si="3"/>
-        <v>12424.91492872068</v>
+        <v>11088.184468445763</v>
       </c>
       <c r="BI6" s="3">
         <f t="shared" si="3"/>
-        <v>12549.164078007887</v>
+        <v>11199.066313130221</v>
       </c>
       <c r="BJ6" s="3">
         <f t="shared" si="3"/>
-        <v>12674.655718787966</v>
+        <v>11311.056976261523</v>
       </c>
       <c r="BK6" s="3">
         <f t="shared" si="3"/>
-        <v>12801.402275975846</v>
+        <v>11424.167546024139</v>
       </c>
       <c r="BL6" s="3">
         <f t="shared" si="3"/>
-        <v>12929.416298735605</v>
+        <v>11538.40922148438</v>
       </c>
       <c r="BM6" s="3">
         <f t="shared" si="3"/>
-        <v>13058.710461722962</v>
+        <v>11653.793313699225</v>
       </c>
       <c r="BN6" s="3">
         <f t="shared" si="3"/>
-        <v>13189.297566340192</v>
+        <v>11770.331246836218</v>
       </c>
       <c r="BO6" s="3">
         <f t="shared" si="3"/>
-        <v>13321.190542003595</v>
+        <v>11888.03455930458</v>
       </c>
       <c r="BP6" s="3">
         <f t="shared" si="3"/>
-        <v>13454.40244742363</v>
+        <v>12006.914904897627</v>
       </c>
       <c r="BQ6" s="3">
         <f t="shared" si="3"/>
-        <v>13588.946471897867</v>
+        <v>12126.984053946604</v>
       </c>
       <c r="BR6" s="3">
         <f t="shared" si="3"/>
-        <v>13724.835936616846</v>
+        <v>12248.25389448607</v>
       </c>
       <c r="BS6" s="3">
         <f t="shared" si="3"/>
-        <v>13862.084295983015</v>
+        <v>12370.736433430931</v>
       </c>
       <c r="BT6" s="3">
         <f t="shared" si="3"/>
-        <v>14000.705138942845</v>
+        <v>12494.443797765241</v>
       </c>
       <c r="BU6" s="3">
         <f t="shared" si="3"/>
-        <v>14140.712190332273</v>
+        <v>12619.388235742894</v>
       </c>
       <c r="BV6" s="3">
         <f t="shared" si="3"/>
-        <v>14282.119312235596</v>
+        <v>12745.582118100323</v>
       </c>
       <c r="BW6" s="3">
         <f t="shared" si="3"/>
-        <v>14424.940505357952</v>
+        <v>12873.037939281327</v>
       </c>
       <c r="BX6" s="3">
         <f t="shared" si="3"/>
-        <v>14569.189910411531</v>
+        <v>13001.76831867414</v>
       </c>
       <c r="BY6" s="3">
         <f t="shared" si="3"/>
-        <v>14714.881809515646</v>
+        <v>13131.786001860881</v>
       </c>
       <c r="BZ6" s="3">
         <f t="shared" si="3"/>
-        <v>14862.030627610802</v>
+        <v>13263.10386187949</v>
       </c>
       <c r="CA6" s="3">
         <f t="shared" si="3"/>
-        <v>15010.650933886911</v>
+        <v>13395.734900498284</v>
       </c>
       <c r="CB6" s="3">
         <f t="shared" si="3"/>
-        <v>15160.757443225781</v>
+        <v>13529.692249503267</v>
       </c>
       <c r="CC6" s="3">
         <f t="shared" si="3"/>
-        <v>15312.36501765804</v>
+        <v>13664.989171998299</v>
       </c>
       <c r="CD6" s="3">
         <f t="shared" si="3"/>
-        <v>15465.488667834619</v>
+        <v>13801.639063718281</v>
       </c>
       <c r="CE6" s="3">
         <f t="shared" si="3"/>
-        <v>15620.143554512966</v>
+        <v>13939.655454355465</v>
       </c>
       <c r="CF6" s="3">
         <f t="shared" si="3"/>
-        <v>15776.344990058096</v>
+        <v>14079.05200889902</v>
       </c>
       <c r="CG6" s="3">
         <f t="shared" si="3"/>
-        <v>15934.108439958678</v>
+        <v>14219.842528988011</v>
       </c>
       <c r="CH6" s="3">
         <f t="shared" si="3"/>
-        <v>16093.449524358264</v>
+        <v>14362.040954277891</v>
       </c>
       <c r="CI6" s="3">
         <f t="shared" si="3"/>
-        <v>16254.384019601846</v>
+        <v>14505.661363820669</v>
       </c>
       <c r="CJ6" s="3">
         <f t="shared" si="3"/>
-        <v>16416.927859797866</v>
+        <v>14650.717977458877</v>
       </c>
       <c r="CK6" s="3">
         <f t="shared" si="3"/>
-        <v>16581.097138395846</v>
+        <v>14797.225157233466</v>
       </c>
       <c r="CL6" s="3">
         <f t="shared" si="3"/>
-        <v>16746.908109779804</v>
+        <v>14945.197408805801</v>
       </c>
       <c r="CM6" s="3">
         <f t="shared" si="3"/>
-        <v>16914.377190877603</v>
+        <v>15094.64938289386</v>
       </c>
       <c r="CN6" s="3">
         <f t="shared" si="3"/>
-        <v>17083.520962786381</v>
+        <v>15245.595876722798</v>
       </c>
       <c r="CO6" s="3">
         <f t="shared" si="3"/>
-        <v>17254.356172414246</v>
+        <v>15398.051835490027</v>
       </c>
       <c r="CP6" s="3">
         <f t="shared" si="3"/>
-        <v>17426.899734138387</v>
+        <v>15552.032353844927</v>
       </c>
       <c r="CQ6" s="3">
         <f t="shared" si="3"/>
-        <v>17601.168731479771</v>
+        <v>15707.552677383375</v>
       </c>
       <c r="CR6" s="3">
         <f t="shared" si="3"/>
-        <v>17777.180418794567</v>
+        <v>15864.628204157209</v>
       </c>
       <c r="CS6" s="3">
         <f t="shared" si="3"/>
-        <v>17954.952222982512</v>
+        <v>16023.274486198781</v>
       </c>
       <c r="CT6" s="3">
         <f t="shared" si="3"/>
-        <v>18134.501745212339</v>
+        <v>16183.507231060768</v>
       </c>
       <c r="CU6" s="3">
         <f t="shared" ref="CU6:DC6" si="4">CT6*(1+$V$24)</f>
-        <v>18315.846762664463</v>
+        <v>16345.342303371377</v>
       </c>
       <c r="CV6" s="3">
         <f t="shared" si="4"/>
-        <v>18499.00523029111</v>
+        <v>16508.795726405089</v>
       </c>
       <c r="CW6" s="3">
         <f t="shared" si="4"/>
-        <v>18683.99528259402</v>
+        <v>16673.883683669141</v>
       </c>
       <c r="CX6" s="3">
         <f t="shared" si="4"/>
-        <v>18870.83523541996</v>
+        <v>16840.622520505833</v>
       </c>
       <c r="CY6" s="3">
         <f t="shared" si="4"/>
-        <v>19059.543587774158</v>
+        <v>17009.02874571089</v>
       </c>
       <c r="CZ6" s="3">
         <f t="shared" si="4"/>
-        <v>19250.1390236519</v>
+        <v>17179.119033167997</v>
       </c>
       <c r="DA6" s="3">
         <f t="shared" si="4"/>
-        <v>19442.640413888421</v>
+        <v>17350.910223499679</v>
       </c>
       <c r="DB6" s="3">
         <f t="shared" si="4"/>
-        <v>19637.066818027306</v>
+        <v>17524.419325734674</v>
       </c>
       <c r="DC6" s="3">
         <f t="shared" si="4"/>
-        <v>19833.437486207578</v>
+        <v>17699.66351899202</v>
       </c>
     </row>
     <row r="7" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1567,6 +1581,9 @@
       <c r="R7" s="5">
         <v>104.82899999999999</v>
       </c>
+      <c r="S7" s="5">
+        <v>110.098</v>
+      </c>
       <c r="V7" s="3">
         <v>362.78</v>
       </c>
@@ -1585,328 +1602,328 @@
         <v>2128.5389999999998</v>
       </c>
       <c r="AA7" s="3">
-        <f>(2555+2575)/2</f>
-        <v>2565</v>
+        <f>(2590+2610)/2</f>
+        <v>2600</v>
       </c>
       <c r="AB7" s="3">
         <f t="shared" ref="AB7:AG7" si="5">AA7*(1+$X$23)</f>
-        <v>3334.5</v>
+        <v>3380</v>
       </c>
       <c r="AC7" s="3">
         <f t="shared" si="5"/>
-        <v>4334.8500000000004</v>
+        <v>4394</v>
       </c>
       <c r="AD7" s="3">
         <f t="shared" si="5"/>
-        <v>5635.3050000000003</v>
+        <v>5712.2</v>
       </c>
       <c r="AE7" s="3">
         <f t="shared" si="5"/>
-        <v>7325.8965000000007</v>
+        <v>7425.86</v>
       </c>
       <c r="AF7" s="3">
         <f t="shared" si="5"/>
-        <v>9523.6654500000004</v>
+        <v>9653.6180000000004</v>
       </c>
       <c r="AG7" s="3">
         <f t="shared" si="5"/>
-        <v>12380.765085000001</v>
+        <v>12549.7034</v>
       </c>
       <c r="AH7" s="3">
         <f>AG7*(1+$V$24)</f>
-        <v>12504.572735850001</v>
+        <v>12675.200434</v>
       </c>
       <c r="AI7" s="3">
         <f>AH7*(1+$V$24)</f>
-        <v>12629.618463208501</v>
+        <v>12801.95243834</v>
       </c>
       <c r="AJ7" s="3">
         <f t="shared" ref="AJ7:CU7" si="6">AI7*(1+$V$24)</f>
-        <v>12755.914647840586</v>
+        <v>12929.971962723401</v>
       </c>
       <c r="AK7" s="3">
         <f t="shared" si="6"/>
-        <v>12883.473794318992</v>
+        <v>13059.271682350634</v>
       </c>
       <c r="AL7" s="3">
         <f t="shared" si="6"/>
-        <v>13012.308532262183</v>
+        <v>13189.864399174141</v>
       </c>
       <c r="AM7" s="3">
         <f t="shared" si="6"/>
-        <v>13142.431617584805</v>
+        <v>13321.763043165882</v>
       </c>
       <c r="AN7" s="3">
         <f t="shared" si="6"/>
-        <v>13273.855933760653</v>
+        <v>13454.98067359754</v>
       </c>
       <c r="AO7" s="3">
         <f t="shared" si="6"/>
-        <v>13406.594493098261</v>
+        <v>13589.530480333515</v>
       </c>
       <c r="AP7" s="3">
         <f t="shared" si="6"/>
-        <v>13540.660438029243</v>
+        <v>13725.425785136849</v>
       </c>
       <c r="AQ7" s="3">
         <f t="shared" si="6"/>
-        <v>13676.067042409535</v>
+        <v>13862.680042988219</v>
       </c>
       <c r="AR7" s="3">
         <f t="shared" si="6"/>
-        <v>13812.82771283363</v>
+        <v>14001.3068434181</v>
       </c>
       <c r="AS7" s="3">
         <f t="shared" si="6"/>
-        <v>13950.955989961967</v>
+        <v>14141.319911852281</v>
       </c>
       <c r="AT7" s="3">
         <f t="shared" si="6"/>
-        <v>14090.465549861587</v>
+        <v>14282.733110970803</v>
       </c>
       <c r="AU7" s="3">
         <f t="shared" si="6"/>
-        <v>14231.370205360203</v>
+        <v>14425.56044208051</v>
       </c>
       <c r="AV7" s="3">
         <f t="shared" si="6"/>
-        <v>14373.683907413804</v>
+        <v>14569.816046501315</v>
       </c>
       <c r="AW7" s="3">
         <f t="shared" si="6"/>
-        <v>14517.420746487942</v>
+        <v>14715.514206966329</v>
       </c>
       <c r="AX7" s="3">
         <f t="shared" si="6"/>
-        <v>14662.594953952821</v>
+        <v>14862.669349035992</v>
       </c>
       <c r="AY7" s="3">
         <f t="shared" si="6"/>
-        <v>14809.220903492349</v>
+        <v>15011.296042526352</v>
       </c>
       <c r="AZ7" s="3">
         <f t="shared" si="6"/>
-        <v>14957.313112527272</v>
+        <v>15161.409002951616</v>
       </c>
       <c r="BA7" s="3">
         <f t="shared" si="6"/>
-        <v>15106.886243652545</v>
+        <v>15313.023092981131</v>
       </c>
       <c r="BB7" s="3">
         <f t="shared" si="6"/>
-        <v>15257.95510608907</v>
+        <v>15466.153323910943</v>
       </c>
       <c r="BC7" s="3">
         <f t="shared" si="6"/>
-        <v>15410.534657149961</v>
+        <v>15620.814857150053</v>
       </c>
       <c r="BD7" s="3">
         <f t="shared" si="6"/>
-        <v>15564.640003721461</v>
+        <v>15777.023005721554</v>
       </c>
       <c r="BE7" s="3">
         <f t="shared" si="6"/>
-        <v>15720.286403758675</v>
+        <v>15934.79323577877</v>
       </c>
       <c r="BF7" s="3">
         <f t="shared" si="6"/>
-        <v>15877.489267796262</v>
+        <v>16094.141168136559</v>
       </c>
       <c r="BG7" s="3">
         <f t="shared" si="6"/>
-        <v>16036.264160474224</v>
+        <v>16255.082579817925</v>
       </c>
       <c r="BH7" s="3">
         <f t="shared" si="6"/>
-        <v>16196.626802078967</v>
+        <v>16417.633405616103</v>
       </c>
       <c r="BI7" s="3">
         <f t="shared" si="6"/>
-        <v>16358.593070099756</v>
+        <v>16581.809739672266</v>
       </c>
       <c r="BJ7" s="3">
         <f t="shared" si="6"/>
-        <v>16522.179000800752</v>
+        <v>16747.627837068991</v>
       </c>
       <c r="BK7" s="3">
         <f t="shared" si="6"/>
-        <v>16687.400790808759</v>
+        <v>16915.104115439681</v>
       </c>
       <c r="BL7" s="3">
         <f t="shared" si="6"/>
-        <v>16854.274798716848</v>
+        <v>17084.255156594078</v>
       </c>
       <c r="BM7" s="3">
         <f t="shared" si="6"/>
-        <v>17022.817546704016</v>
+        <v>17255.097708160018</v>
       </c>
       <c r="BN7" s="3">
         <f t="shared" si="6"/>
-        <v>17193.045722171057</v>
+        <v>17427.648685241616</v>
       </c>
       <c r="BO7" s="3">
         <f t="shared" si="6"/>
-        <v>17364.976179392768</v>
+        <v>17601.925172094034</v>
       </c>
       <c r="BP7" s="3">
         <f t="shared" si="6"/>
-        <v>17538.625941186696</v>
+        <v>17777.944423814974</v>
       </c>
       <c r="BQ7" s="3">
         <f t="shared" si="6"/>
-        <v>17714.012200598561</v>
+        <v>17955.723868053123</v>
       </c>
       <c r="BR7" s="3">
         <f t="shared" si="6"/>
-        <v>17891.152322604546</v>
+        <v>18135.281106733655</v>
       </c>
       <c r="BS7" s="3">
         <f t="shared" si="6"/>
-        <v>18070.063845830591</v>
+        <v>18316.633917800991</v>
       </c>
       <c r="BT7" s="3">
         <f t="shared" si="6"/>
-        <v>18250.764484288899</v>
+        <v>18499.800256979001</v>
       </c>
       <c r="BU7" s="3">
         <f t="shared" si="6"/>
-        <v>18433.272129131787</v>
+        <v>18684.798259548792</v>
       </c>
       <c r="BV7" s="3">
         <f t="shared" si="6"/>
-        <v>18617.604850423104</v>
+        <v>18871.646242144281</v>
       </c>
       <c r="BW7" s="3">
         <f t="shared" si="6"/>
-        <v>18803.780898927336</v>
+        <v>19060.362704565723</v>
       </c>
       <c r="BX7" s="3">
         <f t="shared" si="6"/>
-        <v>18991.818707916609</v>
+        <v>19250.96633161138</v>
       </c>
       <c r="BY7" s="3">
         <f t="shared" si="6"/>
-        <v>19181.736894995774</v>
+        <v>19443.475994927496</v>
       </c>
       <c r="BZ7" s="3">
         <f t="shared" si="6"/>
-        <v>19373.554263945731</v>
+        <v>19637.910754876772</v>
       </c>
       <c r="CA7" s="3">
         <f t="shared" si="6"/>
-        <v>19567.289806585188</v>
+        <v>19834.289862425539</v>
       </c>
       <c r="CB7" s="3">
         <f t="shared" si="6"/>
-        <v>19762.96270465104</v>
+        <v>20032.632761049794</v>
       </c>
       <c r="CC7" s="3">
         <f t="shared" si="6"/>
-        <v>19960.59233169755</v>
+        <v>20232.959088660293</v>
       </c>
       <c r="CD7" s="3">
         <f t="shared" si="6"/>
-        <v>20160.198255014526</v>
+        <v>20435.288679546895</v>
       </c>
       <c r="CE7" s="3">
         <f t="shared" si="6"/>
-        <v>20361.800237564672</v>
+        <v>20639.641566342365</v>
       </c>
       <c r="CF7" s="3">
         <f t="shared" si="6"/>
-        <v>20565.418239940318</v>
+        <v>20846.03798200579</v>
       </c>
       <c r="CG7" s="3">
         <f t="shared" si="6"/>
-        <v>20771.072422339723</v>
+        <v>21054.498361825848</v>
       </c>
       <c r="CH7" s="3">
         <f t="shared" si="6"/>
-        <v>20978.783146563121</v>
+        <v>21265.043345444108</v>
       </c>
       <c r="CI7" s="3">
         <f t="shared" si="6"/>
-        <v>21188.570978028751</v>
+        <v>21477.693778898549</v>
       </c>
       <c r="CJ7" s="3">
         <f t="shared" si="6"/>
-        <v>21400.456687809037</v>
+        <v>21692.470716687534</v>
       </c>
       <c r="CK7" s="3">
         <f t="shared" si="6"/>
-        <v>21614.461254687129</v>
+        <v>21909.39542385441</v>
       </c>
       <c r="CL7" s="3">
         <f t="shared" si="6"/>
-        <v>21830.605867234</v>
+        <v>22128.489378092956</v>
       </c>
       <c r="CM7" s="3">
         <f t="shared" si="6"/>
-        <v>22048.911925906341</v>
+        <v>22349.774271873885</v>
       </c>
       <c r="CN7" s="3">
         <f t="shared" si="6"/>
-        <v>22269.401045165403</v>
+        <v>22573.272014592625</v>
       </c>
       <c r="CO7" s="3">
         <f t="shared" si="6"/>
-        <v>22492.095055617057</v>
+        <v>22799.004734738552</v>
       </c>
       <c r="CP7" s="3">
         <f t="shared" si="6"/>
-        <v>22717.016006173228</v>
+        <v>23026.994782085938</v>
       </c>
       <c r="CQ7" s="3">
         <f t="shared" si="6"/>
-        <v>22944.186166234958</v>
+        <v>23257.264729906798</v>
       </c>
       <c r="CR7" s="3">
         <f t="shared" si="6"/>
-        <v>23173.62802789731</v>
+        <v>23489.837377205866</v>
       </c>
       <c r="CS7" s="3">
         <f t="shared" si="6"/>
-        <v>23405.364308176282</v>
+        <v>23724.735750977925</v>
       </c>
       <c r="CT7" s="3">
         <f t="shared" si="6"/>
-        <v>23639.417951258045</v>
+        <v>23961.983108487704</v>
       </c>
       <c r="CU7" s="3">
         <f t="shared" si="6"/>
-        <v>23875.812130770624</v>
+        <v>24201.602939572582</v>
       </c>
       <c r="CV7" s="3">
         <f t="shared" ref="CV7:DC7" si="7">CU7*(1+$V$24)</f>
-        <v>24114.570252078331</v>
+        <v>24443.618968968309</v>
       </c>
       <c r="CW7" s="3">
         <f t="shared" si="7"/>
-        <v>24355.715954599113</v>
+        <v>24688.055158657993</v>
       </c>
       <c r="CX7" s="3">
         <f t="shared" si="7"/>
-        <v>24599.273114145104</v>
+        <v>24934.935710244572</v>
       </c>
       <c r="CY7" s="3">
         <f t="shared" si="7"/>
-        <v>24845.265845286554</v>
+        <v>25184.285067347017</v>
       </c>
       <c r="CZ7" s="3">
         <f t="shared" si="7"/>
-        <v>25093.718503739419</v>
+        <v>25436.127918020487</v>
       </c>
       <c r="DA7" s="3">
         <f t="shared" si="7"/>
-        <v>25344.655688776813</v>
+        <v>25690.489197200692</v>
       </c>
       <c r="DB7" s="3">
         <f t="shared" si="7"/>
-        <v>25598.102245664581</v>
+        <v>25947.3940891727</v>
       </c>
       <c r="DC7" s="3">
         <f t="shared" si="7"/>
-        <v>25854.083268121227</v>
+        <v>26206.868030064426</v>
       </c>
     </row>
     <row r="8" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1916,7 +1933,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6">
-        <f t="shared" ref="E8:R8" si="8">+E6-E7</f>
+        <f t="shared" ref="E8:S8" si="8">+E6-E7</f>
         <v>120.691</v>
       </c>
       <c r="F8" s="6">
@@ -1971,13 +1988,17 @@
         <f t="shared" si="8"/>
         <v>484.82</v>
       </c>
+      <c r="S8" s="6">
+        <f t="shared" si="8"/>
+        <v>500.90199999999999</v>
+      </c>
       <c r="Z8" s="24">
         <f t="shared" ref="Z8:AH8" si="9">(Z7-Y7)/Y7</f>
         <v>0.27069368992895937</v>
       </c>
       <c r="AA8" s="22">
         <f t="shared" si="9"/>
-        <v>0.20505191589160465</v>
+        <v>0.22149511942228933</v>
       </c>
       <c r="AB8" s="22">
         <f t="shared" si="9"/>
@@ -1985,7 +2006,7 @@
       </c>
       <c r="AC8" s="22">
         <f t="shared" si="9"/>
-        <v>0.3000000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="AD8" s="22">
         <f t="shared" si="9"/>
@@ -1993,19 +2014,19 @@
       </c>
       <c r="AE8" s="22">
         <f t="shared" si="9"/>
-        <v>0.30000000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="AF8" s="22">
         <f t="shared" si="9"/>
-        <v>0.29999999999999993</v>
+        <v>0.3000000000000001</v>
       </c>
       <c r="AG8" s="22">
         <f t="shared" si="9"/>
-        <v>0.30000000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="AH8" s="22">
         <f t="shared" si="9"/>
-        <v>9.9999999999999863E-3</v>
+        <v>9.9999999999999985E-3</v>
       </c>
     </row>
     <row r="9" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2056,6 +2077,9 @@
       <c r="R9" s="5">
         <v>253.25</v>
       </c>
+      <c r="S9" s="5">
+        <v>269.988</v>
+      </c>
     </row>
     <row r="10" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
@@ -2105,6 +2129,9 @@
       <c r="R10" s="5">
         <v>159.97999999999999</v>
       </c>
+      <c r="S10" s="5">
+        <v>173.881</v>
+      </c>
     </row>
     <row r="11" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
@@ -2154,6 +2181,9 @@
       <c r="R11" s="5">
         <v>43.847999999999999</v>
       </c>
+      <c r="S11" s="5">
+        <v>45.29</v>
+      </c>
     </row>
     <row r="12" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
@@ -2162,7 +2192,7 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6">
-        <f t="shared" ref="E12:R12" si="10">SUM(E9:E11)</f>
+        <f t="shared" ref="E12:S12" si="10">SUM(E9:E11)</f>
         <v>129.958</v>
       </c>
       <c r="F12" s="6">
@@ -2217,6 +2247,10 @@
         <f t="shared" si="10"/>
         <v>457.07800000000003</v>
       </c>
+      <c r="S12" s="6">
+        <f t="shared" si="10"/>
+        <v>489.15900000000005</v>
+      </c>
     </row>
     <row r="13" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
@@ -2225,7 +2259,7 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6">
-        <f t="shared" ref="E13:R13" si="11">E8-E12</f>
+        <f t="shared" ref="E13:S13" si="11">E8-E12</f>
         <v>-9.2669999999999959</v>
       </c>
       <c r="F13" s="6">
@@ -2279,6 +2313,10 @@
       <c r="R13" s="6">
         <f t="shared" si="11"/>
         <v>27.741999999999962</v>
+      </c>
+      <c r="S13" s="6">
+        <f t="shared" si="11"/>
+        <v>11.742999999999938</v>
       </c>
     </row>
     <row r="14" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2340,6 +2378,10 @@
         <f>-1.292+30.817</f>
         <v>29.524999999999999</v>
       </c>
+      <c r="S14" s="5">
+        <f>-1.374+35.563</f>
+        <v>34.189</v>
+      </c>
     </row>
     <row r="15" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
@@ -2348,7 +2390,7 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6">
-        <f t="shared" ref="E15:R15" si="12">+E13+E14</f>
+        <f t="shared" ref="E15:S15" si="12">+E13+E14</f>
         <v>-14.554999999999996</v>
       </c>
       <c r="F15" s="6">
@@ -2402,6 +2444,10 @@
       <c r="R15" s="6">
         <f t="shared" si="12"/>
         <v>57.26699999999996</v>
+      </c>
+      <c r="S15" s="6">
+        <f t="shared" si="12"/>
+        <v>45.931999999999938</v>
       </c>
     </row>
     <row r="16" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2452,6 +2498,10 @@
       <c r="R16" s="5">
         <v>3.274</v>
       </c>
+      <c r="S16" s="5">
+        <f>3.554</f>
+        <v>3.5539999999999998</v>
+      </c>
     </row>
     <row r="17" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
@@ -2460,7 +2510,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6">
-        <f t="shared" ref="E17:R17" si="13">+E15-E16</f>
+        <f t="shared" ref="E17:S17" si="13">+E15-E16</f>
         <v>-15.149999999999997</v>
       </c>
       <c r="F17" s="6">
@@ -2515,6 +2565,10 @@
         <f t="shared" si="13"/>
         <v>53.992999999999959</v>
       </c>
+      <c r="S17" s="6">
+        <f t="shared" si="13"/>
+        <v>42.377999999999936</v>
+      </c>
     </row>
     <row r="18" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
@@ -2523,7 +2577,7 @@
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7">
-        <f t="shared" ref="E18:R18" si="14">+E17/E19</f>
+        <f t="shared" ref="E18:S18" si="14">+E17/E19</f>
         <v>-5.0073705850856368E-2</v>
       </c>
       <c r="F18" s="7">
@@ -2577,6 +2631,10 @@
       <c r="R18" s="7">
         <f t="shared" si="14"/>
         <v>0.16416485504492304</v>
+      </c>
+      <c r="S18" s="7">
+        <f t="shared" si="14"/>
+        <v>0.12771920941755102</v>
       </c>
     </row>
     <row r="19" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2626,6 +2684,9 @@
       </c>
       <c r="R19" s="5">
         <v>328.89499999999998</v>
+      </c>
+      <c r="S19" s="5">
+        <v>331.80599999999998</v>
       </c>
     </row>
     <row r="21" spans="2:24" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -2680,7 +2741,7 @@
       </c>
       <c r="S21" s="10">
         <f t="shared" si="16"/>
-        <v>0.22271721394852539</v>
+        <v>0.26838746642198474</v>
       </c>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.2">
@@ -2720,7 +2781,7 @@
         <v>0.79828284967178642</v>
       </c>
       <c r="M22" s="12">
-        <f t="shared" ref="M22:R22" si="19">+M8/M6</f>
+        <f t="shared" ref="M22:S22" si="19">+M8/M6</f>
         <v>0.78558551129009724</v>
       </c>
       <c r="N22" s="12">
@@ -2743,6 +2804,10 @@
         <f t="shared" si="19"/>
         <v>0.82221796356815668</v>
       </c>
+      <c r="S22" s="12">
+        <f t="shared" si="19"/>
+        <v>0.81980687397708674</v>
+      </c>
       <c r="U22" t="s">
         <v>71</v>
       </c>
@@ -2758,7 +2823,7 @@
         <v>62</v>
       </c>
       <c r="V23" s="23">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="W23" s="15" t="s">
         <v>62</v>
@@ -2850,14 +2915,14 @@
       </c>
       <c r="V26" s="18">
         <f>NPV(V25,V6:DC6)</f>
-        <v>53169.98322190965</v>
+        <v>48462.55326232707</v>
       </c>
       <c r="W26" s="17" t="s">
         <v>63</v>
       </c>
       <c r="X26" s="26">
         <f>NPV($V$25,V7:DC7)</f>
-        <v>65936.250330536161</v>
+        <v>66780.466791614104</v>
       </c>
     </row>
     <row r="27" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2885,14 +2950,14 @@
       </c>
       <c r="V27" s="21">
         <f>Main!$O$3</f>
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="W27" s="17" t="s">
         <v>1</v>
       </c>
       <c r="X27" s="21">
         <f>Main!$O$3</f>
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2920,14 +2985,14 @@
       </c>
       <c r="V28" s="19">
         <f>V26/V27</f>
-        <v>162.10360738387089</v>
+        <v>145.97154597086467</v>
       </c>
       <c r="W28" s="17" t="s">
         <v>64</v>
       </c>
       <c r="X28" s="19">
         <f>X26/X27</f>
-        <v>201.02515344675658</v>
+        <v>201.14598431209069</v>
       </c>
     </row>
     <row r="29" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2955,14 +3020,14 @@
       </c>
       <c r="V29" s="20">
         <f>(V28-Main!$O$2)/Main!$O$2</f>
-        <v>0.24944972548073749</v>
+        <v>0.24464142198895519</v>
       </c>
       <c r="W29" s="17" t="s">
         <v>65</v>
       </c>
       <c r="X29" s="20">
         <f>(X28-Main!$O$2)/Main!$O$2</f>
-        <v>0.549446226659138</v>
+        <v>0.71509195354784005</v>
       </c>
     </row>
     <row r="30" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2992,14 +3057,14 @@
       </c>
       <c r="V30" s="18">
         <f>V27*V28</f>
-        <v>53169.983221909657</v>
+        <v>48462.55326232707</v>
       </c>
       <c r="W30" s="17" t="s">
         <v>66</v>
       </c>
       <c r="X30" s="18">
         <f>X27*X28</f>
-        <v>65936.250330536161</v>
+        <v>66780.466791614104</v>
       </c>
     </row>
     <row r="31" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">

--- a/DDOG.xlsx
+++ b/DDOG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffe\Documents\GitHub\martinshkreli-models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F860361-B1DC-497F-A4DE-DF1DD41DEC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA17175E-8E1A-4802-AC47-9E0E133AF964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14235" yWindow="90" windowWidth="30270" windowHeight="20805" activeTab="1" xr2:uid="{3FD86B5C-07F1-42A4-9D66-8FB9C4BAF175}"/>
+    <workbookView xWindow="18825" yWindow="0" windowWidth="21570" windowHeight="20880" activeTab="1" xr2:uid="{3FD86B5C-07F1-42A4-9D66-8FB9C4BAF175}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
     Q2: 410-414m</t>
       </text>
     </comment>
-    <comment ref="Y6" authorId="2" shapeId="0" xr:uid="{95169845-1F7F-4051-990A-FE3D69449576}">
+    <comment ref="AC6" authorId="2" shapeId="0" xr:uid="{95169845-1F7F-4051-990A-FE3D69449576}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -70,7 +70,7 @@
     Q1: 1600-1620m</t>
       </text>
     </comment>
-    <comment ref="Y7" authorId="3" shapeId="0" xr:uid="{939E2C75-C2A6-4046-AF27-AFF4D420F9BB}">
+    <comment ref="AC7" authorId="3" shapeId="0" xr:uid="{939E2C75-C2A6-4046-AF27-AFF4D420F9BB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
   <si>
     <t>Price</t>
   </si>
@@ -313,6 +313,21 @@
   </si>
   <si>
     <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Revenue q/q</t>
+  </si>
+  <si>
+    <t>minor upside</t>
   </si>
 </sst>
 </file>
@@ -354,12 +369,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -393,7 +414,7 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -437,6 +458,32 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -470,7 +517,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -822,16 +869,16 @@
   <threadedComment ref="M6" dT="2022-09-02T14:59:12.36" personId="{6EBEE36F-B86D-4667-B671-D0667117F4FF}" id="{15E8E758-37B6-468B-81A6-B3305FD6827A}">
     <text>Q2: 410-414m</text>
   </threadedComment>
-  <threadedComment ref="Y6" dT="2022-09-02T14:59:40.61" personId="{6EBEE36F-B86D-4667-B671-D0667117F4FF}" id="{95169845-1F7F-4051-990A-FE3D69449576}">
+  <threadedComment ref="AC6" dT="2022-09-02T14:59:40.61" personId="{6EBEE36F-B86D-4667-B671-D0667117F4FF}" id="{95169845-1F7F-4051-990A-FE3D69449576}">
     <text>Q2: 1610-1630m</text>
   </threadedComment>
-  <threadedComment ref="Y6" dT="2022-09-02T15:01:04.51" personId="{6EBEE36F-B86D-4667-B671-D0667117F4FF}" id="{618BFB8A-809A-468A-BF3E-6286A5CBAEB3}" parentId="{95169845-1F7F-4051-990A-FE3D69449576}">
+  <threadedComment ref="AC6" dT="2022-09-02T15:01:04.51" personId="{6EBEE36F-B86D-4667-B671-D0667117F4FF}" id="{618BFB8A-809A-468A-BF3E-6286A5CBAEB3}" parentId="{95169845-1F7F-4051-990A-FE3D69449576}">
     <text>Q1: 1600-1620m</text>
   </threadedComment>
-  <threadedComment ref="Y7" dT="2022-09-02T14:59:40.61" personId="{6EBEE36F-B86D-4667-B671-D0667117F4FF}" id="{939E2C75-C2A6-4046-AF27-AFF4D420F9BB}">
+  <threadedComment ref="AC7" dT="2022-09-02T14:59:40.61" personId="{6EBEE36F-B86D-4667-B671-D0667117F4FF}" id="{939E2C75-C2A6-4046-AF27-AFF4D420F9BB}">
     <text>Q2: 1610-1630m</text>
   </threadedComment>
-  <threadedComment ref="Y7" dT="2022-09-02T15:01:04.51" personId="{6EBEE36F-B86D-4667-B671-D0667117F4FF}" id="{67F1968D-792E-4F6B-B86B-D7480C200BB9}" parentId="{939E2C75-C2A6-4046-AF27-AFF4D420F9BB}">
+  <threadedComment ref="AC7" dT="2022-09-02T15:01:04.51" personId="{6EBEE36F-B86D-4667-B671-D0667117F4FF}" id="{67F1968D-792E-4F6B-B86B-D7480C200BB9}" parentId="{939E2C75-C2A6-4046-AF27-AFF4D420F9BB}">
     <text>Q1: 1600-1620m</text>
   </threadedComment>
 </ThreadedComments>
@@ -842,7 +889,7 @@
   <dimension ref="N2:P7"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -852,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>117.28</v>
+        <v>142.65</v>
       </c>
     </row>
     <row r="3" spans="14:16" x14ac:dyDescent="0.2">
@@ -860,7 +907,8 @@
         <v>1</v>
       </c>
       <c r="O3" s="5">
-        <v>332</v>
+        <f>357.635</f>
+        <v>357.63499999999999</v>
       </c>
       <c r="P3" s="2"/>
     </row>
@@ -870,7 +918,7 @@
       </c>
       <c r="O4" s="5">
         <f>+O2*O3</f>
-        <v>38936.959999999999</v>
+        <v>51016.632750000004</v>
       </c>
     </row>
     <row r="5" spans="14:16" x14ac:dyDescent="0.2">
@@ -897,7 +945,7 @@
       </c>
       <c r="O7" s="5">
         <f>+O4-O5+O6</f>
-        <v>37873.786</v>
+        <v>49953.458750000005</v>
       </c>
     </row>
   </sheetData>
@@ -907,13 +955,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB5D0F6-F818-4D6B-9D91-E5CB5E0CBE0F}">
-  <dimension ref="A1:DC54"/>
+  <dimension ref="A1:DG55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X12" sqref="X12"/>
+      <selection pane="bottomRight" activeCell="AE26" sqref="AE26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -924,12 +972,15 @@
     <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" customWidth="1"/>
+    <col min="20" max="21" width="9.140625" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
@@ -957,11 +1008,21 @@
       <c r="S1" s="14">
         <v>45382</v>
       </c>
-      <c r="V1" t="s">
+      <c r="T1" s="14">
+        <v>45473</v>
+      </c>
+      <c r="U1" s="14">
+        <v>45565</v>
+      </c>
+      <c r="V1" s="27">
+        <v>45657</v>
+      </c>
+      <c r="W1" s="14"/>
+      <c r="Z1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:111" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1016,49 +1077,58 @@
       <c r="T2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2">
+      <c r="U2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="V2" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2">
         <v>2019</v>
       </c>
-      <c r="W2">
+      <c r="AA2">
         <v>2020</v>
       </c>
-      <c r="X2">
-        <f>+W2+1</f>
+      <c r="AB2">
+        <f>+AA2+1</f>
         <v>2021</v>
       </c>
-      <c r="Y2">
-        <f t="shared" ref="Y2:AA2" si="0">+X2+1</f>
+      <c r="AC2">
+        <f t="shared" ref="AC2:AE2" si="0">+AB2+1</f>
         <v>2022</v>
       </c>
-      <c r="Z2">
+      <c r="AD2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="AA2">
+      <c r="AE2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AB2">
+      <c r="AF2">
         <v>2025</v>
       </c>
-      <c r="AC2">
+      <c r="AG2">
         <v>2026</v>
       </c>
-      <c r="AD2">
+      <c r="AH2">
         <v>2027</v>
       </c>
-      <c r="AE2">
+      <c r="AI2">
         <v>2028</v>
       </c>
-      <c r="AF2">
+      <c r="AJ2">
         <v>2029</v>
       </c>
-      <c r="AG2">
+      <c r="AK2">
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:111" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>47</v>
       </c>
@@ -1081,52 +1151,36 @@
         <v>3340</v>
       </c>
     </row>
-    <row r="4" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="Z4" s="25"/>
-    </row>
-    <row r="5" spans="1:107" x14ac:dyDescent="0.2">
-      <c r="V5" t="s">
+    <row r="4" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="AD4" s="25"/>
+    </row>
+    <row r="5" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="Z5" t="s">
         <v>69</v>
       </c>
-      <c r="W5" s="22">
-        <f t="shared" ref="W5:AH5" si="1">(W6-V6)/V6</f>
+      <c r="AA5" s="22">
+        <f t="shared" ref="AA5:AL5" si="1">(AA6-Z6)/Z6</f>
         <v>0.66344892221180896</v>
       </c>
-      <c r="X5" s="22">
+      <c r="AB5" s="22">
         <f t="shared" si="1"/>
         <v>0.7047919849668417</v>
       </c>
-      <c r="Y5" s="22">
+      <c r="AC5" s="22">
         <f t="shared" si="1"/>
         <v>0.62823294296956378</v>
       </c>
-      <c r="Z5" s="24">
+      <c r="AD5" s="24">
         <f t="shared" si="1"/>
         <v>0.25783535311324701</v>
       </c>
-      <c r="AA5" s="24">
-        <f>(AA6-Z6)/Z6</f>
+      <c r="AE5" s="24">
+        <f>(AE6-AD6)/AD6</f>
         <v>0.21999999999999997</v>
       </c>
-      <c r="AB5" s="24">
+      <c r="AF5" s="24">
         <f t="shared" si="1"/>
         <v>0.21999999999999995</v>
-      </c>
-      <c r="AC5" s="24">
-        <f t="shared" si="1"/>
-        <v>0.21999999999999992</v>
-      </c>
-      <c r="AD5" s="24">
-        <f t="shared" si="1"/>
-        <v>0.22000000000000003</v>
-      </c>
-      <c r="AE5" s="24">
-        <f t="shared" si="1"/>
-        <v>0.21999999999999989</v>
-      </c>
-      <c r="AF5" s="24">
-        <f t="shared" si="1"/>
-        <v>0.22000000000000003</v>
       </c>
       <c r="AG5" s="24">
         <f t="shared" si="1"/>
@@ -1134,10 +1188,26 @@
       </c>
       <c r="AH5" s="24">
         <f t="shared" si="1"/>
+        <v>0.22000000000000003</v>
+      </c>
+      <c r="AI5" s="24">
+        <f t="shared" si="1"/>
+        <v>0.21999999999999989</v>
+      </c>
+      <c r="AJ5" s="24">
+        <f t="shared" si="1"/>
+        <v>0.22000000000000003</v>
+      </c>
+      <c r="AK5" s="24">
+        <f t="shared" si="1"/>
+        <v>0.21999999999999992</v>
+      </c>
+      <c r="AL5" s="24">
+        <f t="shared" si="1"/>
         <v>1.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:107" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:111" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1189,351 +1259,358 @@
         <v>611</v>
       </c>
       <c r="T6" s="3">
-        <f>(620+624)/2</f>
-        <v>622</v>
-      </c>
-      <c r="V6" s="3">
+        <v>645.279</v>
+      </c>
+      <c r="U6" s="3">
+        <f>690.016</f>
+        <v>690.01599999999996</v>
+      </c>
+      <c r="V6" s="36">
+        <f>(709+713)/2</f>
+        <v>711</v>
+      </c>
+      <c r="Z6" s="3">
         <v>362.78</v>
       </c>
-      <c r="W6" s="3">
+      <c r="AA6" s="3">
         <v>603.46600000000001</v>
       </c>
-      <c r="X6" s="3">
+      <c r="AB6" s="3">
         <v>1028.7840000000001</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="AC6" s="3">
         <f>SUM($K$6:$N$6)</f>
         <v>1675.1</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="AD6" s="3">
         <v>2107</v>
       </c>
-      <c r="AA6" s="3">
-        <f t="shared" ref="AA6:AG6" si="2">Z6*(1+$V$23)</f>
+      <c r="AE6" s="3">
+        <f t="shared" ref="AE6:AK6" si="2">AD6*(1+$Z$24)</f>
         <v>2570.54</v>
       </c>
-      <c r="AB6" s="3">
+      <c r="AF6" s="3">
         <f t="shared" si="2"/>
         <v>3136.0587999999998</v>
       </c>
-      <c r="AC6" s="3">
+      <c r="AG6" s="3">
         <f t="shared" si="2"/>
         <v>3825.9917359999995</v>
       </c>
-      <c r="AD6" s="3">
+      <c r="AH6" s="3">
         <f t="shared" si="2"/>
         <v>4667.7099179199995</v>
       </c>
-      <c r="AE6" s="3">
+      <c r="AI6" s="3">
         <f t="shared" si="2"/>
         <v>5694.6060998623989</v>
       </c>
-      <c r="AF6" s="3">
+      <c r="AJ6" s="3">
         <f t="shared" si="2"/>
         <v>6947.4194418321267</v>
       </c>
-      <c r="AG6" s="3">
+      <c r="AK6" s="3">
         <f t="shared" si="2"/>
         <v>8475.851719035194</v>
       </c>
-      <c r="AH6" s="3">
-        <f>AG6*(1+$V$24)</f>
+      <c r="AL6" s="3">
+        <f>AK6*(1+$Z$25)</f>
         <v>8560.610236225546</v>
       </c>
-      <c r="AI6" s="3">
-        <f t="shared" ref="AI6:CT6" si="3">AH6*(1+$V$24)</f>
+      <c r="AM6" s="3">
+        <f t="shared" ref="AM6:CX6" si="3">AL6*(1+$Z$25)</f>
         <v>8646.2163385878011</v>
       </c>
-      <c r="AJ6" s="3">
+      <c r="AN6" s="3">
         <f t="shared" si="3"/>
         <v>8732.6785019736799</v>
       </c>
-      <c r="AK6" s="3">
+      <c r="AO6" s="3">
         <f t="shared" si="3"/>
         <v>8820.005286993417</v>
       </c>
-      <c r="AL6" s="3">
+      <c r="AP6" s="3">
         <f t="shared" si="3"/>
         <v>8908.2053398633507</v>
       </c>
-      <c r="AM6" s="3">
+      <c r="AQ6" s="3">
         <f t="shared" si="3"/>
         <v>8997.2873932619841</v>
       </c>
-      <c r="AN6" s="3">
+      <c r="AR6" s="3">
         <f t="shared" si="3"/>
         <v>9087.2602671946042</v>
       </c>
-      <c r="AO6" s="3">
+      <c r="AS6" s="3">
         <f t="shared" si="3"/>
         <v>9178.1328698665511</v>
       </c>
-      <c r="AP6" s="3">
+      <c r="AT6" s="3">
         <f t="shared" si="3"/>
         <v>9269.9141985652168</v>
       </c>
-      <c r="AQ6" s="3">
+      <c r="AU6" s="3">
         <f t="shared" si="3"/>
         <v>9362.6133405508699</v>
       </c>
-      <c r="AR6" s="3">
+      <c r="AV6" s="3">
         <f t="shared" si="3"/>
         <v>9456.2394739563788</v>
       </c>
-      <c r="AS6" s="3">
+      <c r="AW6" s="3">
         <f t="shared" si="3"/>
         <v>9550.8018686959422</v>
       </c>
-      <c r="AT6" s="3">
+      <c r="AX6" s="3">
         <f t="shared" si="3"/>
         <v>9646.3098873829022</v>
       </c>
-      <c r="AU6" s="3">
+      <c r="AY6" s="3">
         <f t="shared" si="3"/>
         <v>9742.7729862567321</v>
       </c>
-      <c r="AV6" s="3">
+      <c r="AZ6" s="3">
         <f t="shared" si="3"/>
         <v>9840.2007161192996</v>
       </c>
-      <c r="AW6" s="3">
+      <c r="BA6" s="3">
         <f t="shared" si="3"/>
         <v>9938.6027232804936</v>
       </c>
-      <c r="AX6" s="3">
+      <c r="BB6" s="3">
         <f t="shared" si="3"/>
         <v>10037.988750513299</v>
       </c>
-      <c r="AY6" s="3">
+      <c r="BC6" s="3">
         <f t="shared" si="3"/>
         <v>10138.368638018432</v>
       </c>
-      <c r="AZ6" s="3">
+      <c r="BD6" s="3">
         <f t="shared" si="3"/>
         <v>10239.752324398616</v>
       </c>
-      <c r="BA6" s="3">
+      <c r="BE6" s="3">
         <f t="shared" si="3"/>
         <v>10342.149847642602</v>
       </c>
-      <c r="BB6" s="3">
+      <c r="BF6" s="3">
         <f t="shared" si="3"/>
         <v>10445.571346119028</v>
       </c>
-      <c r="BC6" s="3">
+      <c r="BG6" s="3">
         <f t="shared" si="3"/>
         <v>10550.027059580218</v>
       </c>
-      <c r="BD6" s="3">
+      <c r="BH6" s="3">
         <f t="shared" si="3"/>
         <v>10655.527330176021</v>
       </c>
-      <c r="BE6" s="3">
+      <c r="BI6" s="3">
         <f t="shared" si="3"/>
         <v>10762.082603477782</v>
       </c>
-      <c r="BF6" s="3">
+      <c r="BJ6" s="3">
         <f t="shared" si="3"/>
         <v>10869.70342951256</v>
       </c>
-      <c r="BG6" s="3">
+      <c r="BK6" s="3">
         <f t="shared" si="3"/>
         <v>10978.400463807686</v>
       </c>
-      <c r="BH6" s="3">
+      <c r="BL6" s="3">
         <f t="shared" si="3"/>
         <v>11088.184468445763</v>
       </c>
-      <c r="BI6" s="3">
+      <c r="BM6" s="3">
         <f t="shared" si="3"/>
         <v>11199.066313130221</v>
       </c>
-      <c r="BJ6" s="3">
+      <c r="BN6" s="3">
         <f t="shared" si="3"/>
         <v>11311.056976261523</v>
       </c>
-      <c r="BK6" s="3">
+      <c r="BO6" s="3">
         <f t="shared" si="3"/>
         <v>11424.167546024139</v>
       </c>
-      <c r="BL6" s="3">
+      <c r="BP6" s="3">
         <f t="shared" si="3"/>
         <v>11538.40922148438</v>
       </c>
-      <c r="BM6" s="3">
+      <c r="BQ6" s="3">
         <f t="shared" si="3"/>
         <v>11653.793313699225</v>
       </c>
-      <c r="BN6" s="3">
+      <c r="BR6" s="3">
         <f t="shared" si="3"/>
         <v>11770.331246836218</v>
       </c>
-      <c r="BO6" s="3">
+      <c r="BS6" s="3">
         <f t="shared" si="3"/>
         <v>11888.03455930458</v>
       </c>
-      <c r="BP6" s="3">
+      <c r="BT6" s="3">
         <f t="shared" si="3"/>
         <v>12006.914904897627</v>
       </c>
-      <c r="BQ6" s="3">
+      <c r="BU6" s="3">
         <f t="shared" si="3"/>
         <v>12126.984053946604</v>
       </c>
-      <c r="BR6" s="3">
+      <c r="BV6" s="3">
         <f t="shared" si="3"/>
         <v>12248.25389448607</v>
       </c>
-      <c r="BS6" s="3">
+      <c r="BW6" s="3">
         <f t="shared" si="3"/>
         <v>12370.736433430931</v>
       </c>
-      <c r="BT6" s="3">
+      <c r="BX6" s="3">
         <f t="shared" si="3"/>
         <v>12494.443797765241</v>
       </c>
-      <c r="BU6" s="3">
+      <c r="BY6" s="3">
         <f t="shared" si="3"/>
         <v>12619.388235742894</v>
       </c>
-      <c r="BV6" s="3">
+      <c r="BZ6" s="3">
         <f t="shared" si="3"/>
         <v>12745.582118100323</v>
       </c>
-      <c r="BW6" s="3">
+      <c r="CA6" s="3">
         <f t="shared" si="3"/>
         <v>12873.037939281327</v>
       </c>
-      <c r="BX6" s="3">
+      <c r="CB6" s="3">
         <f t="shared" si="3"/>
         <v>13001.76831867414</v>
       </c>
-      <c r="BY6" s="3">
+      <c r="CC6" s="3">
         <f t="shared" si="3"/>
         <v>13131.786001860881</v>
       </c>
-      <c r="BZ6" s="3">
+      <c r="CD6" s="3">
         <f t="shared" si="3"/>
         <v>13263.10386187949</v>
       </c>
-      <c r="CA6" s="3">
+      <c r="CE6" s="3">
         <f t="shared" si="3"/>
         <v>13395.734900498284</v>
       </c>
-      <c r="CB6" s="3">
+      <c r="CF6" s="3">
         <f t="shared" si="3"/>
         <v>13529.692249503267</v>
       </c>
-      <c r="CC6" s="3">
+      <c r="CG6" s="3">
         <f t="shared" si="3"/>
         <v>13664.989171998299</v>
       </c>
-      <c r="CD6" s="3">
+      <c r="CH6" s="3">
         <f t="shared" si="3"/>
         <v>13801.639063718281</v>
       </c>
-      <c r="CE6" s="3">
+      <c r="CI6" s="3">
         <f t="shared" si="3"/>
         <v>13939.655454355465</v>
       </c>
-      <c r="CF6" s="3">
+      <c r="CJ6" s="3">
         <f t="shared" si="3"/>
         <v>14079.05200889902</v>
       </c>
-      <c r="CG6" s="3">
+      <c r="CK6" s="3">
         <f t="shared" si="3"/>
         <v>14219.842528988011</v>
       </c>
-      <c r="CH6" s="3">
+      <c r="CL6" s="3">
         <f t="shared" si="3"/>
         <v>14362.040954277891</v>
       </c>
-      <c r="CI6" s="3">
+      <c r="CM6" s="3">
         <f t="shared" si="3"/>
         <v>14505.661363820669</v>
       </c>
-      <c r="CJ6" s="3">
+      <c r="CN6" s="3">
         <f t="shared" si="3"/>
         <v>14650.717977458877</v>
       </c>
-      <c r="CK6" s="3">
+      <c r="CO6" s="3">
         <f t="shared" si="3"/>
         <v>14797.225157233466</v>
       </c>
-      <c r="CL6" s="3">
+      <c r="CP6" s="3">
         <f t="shared" si="3"/>
         <v>14945.197408805801</v>
       </c>
-      <c r="CM6" s="3">
+      <c r="CQ6" s="3">
         <f t="shared" si="3"/>
         <v>15094.64938289386</v>
       </c>
-      <c r="CN6" s="3">
+      <c r="CR6" s="3">
         <f t="shared" si="3"/>
         <v>15245.595876722798</v>
       </c>
-      <c r="CO6" s="3">
+      <c r="CS6" s="3">
         <f t="shared" si="3"/>
         <v>15398.051835490027</v>
       </c>
-      <c r="CP6" s="3">
+      <c r="CT6" s="3">
         <f t="shared" si="3"/>
         <v>15552.032353844927</v>
       </c>
-      <c r="CQ6" s="3">
+      <c r="CU6" s="3">
         <f t="shared" si="3"/>
         <v>15707.552677383375</v>
       </c>
-      <c r="CR6" s="3">
+      <c r="CV6" s="3">
         <f t="shared" si="3"/>
         <v>15864.628204157209</v>
       </c>
-      <c r="CS6" s="3">
+      <c r="CW6" s="3">
         <f t="shared" si="3"/>
         <v>16023.274486198781</v>
       </c>
-      <c r="CT6" s="3">
+      <c r="CX6" s="3">
         <f t="shared" si="3"/>
         <v>16183.507231060768</v>
       </c>
-      <c r="CU6" s="3">
-        <f t="shared" ref="CU6:DC6" si="4">CT6*(1+$V$24)</f>
+      <c r="CY6" s="3">
+        <f t="shared" ref="CY6:DG6" si="4">CX6*(1+$Z$25)</f>
         <v>16345.342303371377</v>
       </c>
-      <c r="CV6" s="3">
+      <c r="CZ6" s="3">
         <f t="shared" si="4"/>
         <v>16508.795726405089</v>
       </c>
-      <c r="CW6" s="3">
+      <c r="DA6" s="3">
         <f t="shared" si="4"/>
         <v>16673.883683669141</v>
       </c>
-      <c r="CX6" s="3">
+      <c r="DB6" s="3">
         <f t="shared" si="4"/>
         <v>16840.622520505833</v>
       </c>
-      <c r="CY6" s="3">
+      <c r="DC6" s="3">
         <f t="shared" si="4"/>
         <v>17009.02874571089</v>
       </c>
-      <c r="CZ6" s="3">
+      <c r="DD6" s="3">
         <f t="shared" si="4"/>
         <v>17179.119033167997</v>
       </c>
-      <c r="DA6" s="3">
+      <c r="DE6" s="3">
         <f t="shared" si="4"/>
         <v>17350.910223499679</v>
       </c>
-      <c r="DB6" s="3">
+      <c r="DF6" s="3">
         <f t="shared" si="4"/>
         <v>17524.419325734674</v>
       </c>
-      <c r="DC6" s="3">
+      <c r="DG6" s="3">
         <f t="shared" si="4"/>
         <v>17699.66351899202</v>
       </c>
     </row>
-    <row r="7" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:111" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>20</v>
       </c>
@@ -1584,356 +1661,363 @@
       <c r="S7" s="5">
         <v>110.098</v>
       </c>
-      <c r="V7" s="3">
+      <c r="T7" s="5">
+        <v>123.499</v>
+      </c>
+      <c r="U7" s="5">
+        <v>137.756</v>
+      </c>
+      <c r="V7" s="30"/>
+      <c r="Z7" s="3">
         <v>362.78</v>
       </c>
-      <c r="W7" s="3">
+      <c r="AA7" s="3">
         <v>603.46600000000001</v>
       </c>
-      <c r="X7" s="3">
+      <c r="AB7" s="3">
         <v>1028.7840000000001</v>
       </c>
-      <c r="Y7" s="3">
+      <c r="AC7" s="3">
         <f>SUM($K$6:$N$6)</f>
         <v>1675.1</v>
       </c>
-      <c r="Z7" s="5">
+      <c r="AD7" s="5">
         <f>SUM(O6:R6)</f>
         <v>2128.5389999999998</v>
       </c>
-      <c r="AA7" s="3">
-        <f>(2590+2610)/2</f>
-        <v>2600</v>
-      </c>
-      <c r="AB7" s="3">
-        <f t="shared" ref="AB7:AG7" si="5">AA7*(1+$X$23)</f>
-        <v>3380</v>
-      </c>
-      <c r="AC7" s="3">
-        <f t="shared" si="5"/>
-        <v>4394</v>
-      </c>
-      <c r="AD7" s="3">
-        <f t="shared" si="5"/>
-        <v>5712.2</v>
-      </c>
       <c r="AE7" s="3">
-        <f t="shared" si="5"/>
-        <v>7425.86</v>
+        <f>SUM(S6:V6)</f>
+        <v>2657.2950000000001</v>
       </c>
       <c r="AF7" s="3">
-        <f t="shared" si="5"/>
-        <v>9653.6180000000004</v>
+        <f t="shared" ref="AF7:AK7" si="5">AE7*(1+$AB$24)</f>
+        <v>3321.6187500000001</v>
       </c>
       <c r="AG7" s="3">
         <f t="shared" si="5"/>
-        <v>12549.7034</v>
+        <v>4152.0234375</v>
       </c>
       <c r="AH7" s="3">
-        <f>AG7*(1+$V$24)</f>
-        <v>12675.200434</v>
+        <f t="shared" si="5"/>
+        <v>5190.029296875</v>
       </c>
       <c r="AI7" s="3">
-        <f>AH7*(1+$V$24)</f>
-        <v>12801.95243834</v>
+        <f t="shared" si="5"/>
+        <v>6487.53662109375</v>
       </c>
       <c r="AJ7" s="3">
-        <f t="shared" ref="AJ7:CU7" si="6">AI7*(1+$V$24)</f>
-        <v>12929.971962723401</v>
+        <f t="shared" si="5"/>
+        <v>8109.4207763671875</v>
       </c>
       <c r="AK7" s="3">
-        <f t="shared" si="6"/>
-        <v>13059.271682350634</v>
+        <f t="shared" si="5"/>
+        <v>10136.775970458984</v>
       </c>
       <c r="AL7" s="3">
-        <f t="shared" si="6"/>
-        <v>13189.864399174141</v>
+        <f>AK7*(1+$Z$25)</f>
+        <v>10238.143730163574</v>
       </c>
       <c r="AM7" s="3">
-        <f t="shared" si="6"/>
-        <v>13321.763043165882</v>
+        <f>AL7*(1+$Z$25)</f>
+        <v>10340.52516746521</v>
       </c>
       <c r="AN7" s="3">
-        <f t="shared" si="6"/>
-        <v>13454.98067359754</v>
+        <f t="shared" ref="AN7:CY7" si="6">AM7*(1+$Z$25)</f>
+        <v>10443.930419139862</v>
       </c>
       <c r="AO7" s="3">
         <f t="shared" si="6"/>
-        <v>13589.530480333515</v>
+        <v>10548.369723331261</v>
       </c>
       <c r="AP7" s="3">
         <f t="shared" si="6"/>
-        <v>13725.425785136849</v>
+        <v>10653.853420564574</v>
       </c>
       <c r="AQ7" s="3">
         <f t="shared" si="6"/>
-        <v>13862.680042988219</v>
+        <v>10760.391954770219</v>
       </c>
       <c r="AR7" s="3">
         <f t="shared" si="6"/>
-        <v>14001.3068434181</v>
+        <v>10867.995874317921</v>
       </c>
       <c r="AS7" s="3">
         <f t="shared" si="6"/>
-        <v>14141.319911852281</v>
+        <v>10976.675833061101</v>
       </c>
       <c r="AT7" s="3">
         <f t="shared" si="6"/>
-        <v>14282.733110970803</v>
+        <v>11086.442591391713</v>
       </c>
       <c r="AU7" s="3">
         <f t="shared" si="6"/>
-        <v>14425.56044208051</v>
+        <v>11197.307017305629</v>
       </c>
       <c r="AV7" s="3">
         <f t="shared" si="6"/>
-        <v>14569.816046501315</v>
+        <v>11309.280087478686</v>
       </c>
       <c r="AW7" s="3">
         <f t="shared" si="6"/>
-        <v>14715.514206966329</v>
+        <v>11422.372888353473</v>
       </c>
       <c r="AX7" s="3">
         <f t="shared" si="6"/>
-        <v>14862.669349035992</v>
+        <v>11536.596617237008</v>
       </c>
       <c r="AY7" s="3">
         <f t="shared" si="6"/>
-        <v>15011.296042526352</v>
+        <v>11651.962583409379</v>
       </c>
       <c r="AZ7" s="3">
         <f t="shared" si="6"/>
-        <v>15161.409002951616</v>
+        <v>11768.482209243473</v>
       </c>
       <c r="BA7" s="3">
         <f t="shared" si="6"/>
-        <v>15313.023092981131</v>
+        <v>11886.167031335908</v>
       </c>
       <c r="BB7" s="3">
         <f t="shared" si="6"/>
-        <v>15466.153323910943</v>
+        <v>12005.028701649268</v>
       </c>
       <c r="BC7" s="3">
         <f t="shared" si="6"/>
-        <v>15620.814857150053</v>
+        <v>12125.07898866576</v>
       </c>
       <c r="BD7" s="3">
         <f t="shared" si="6"/>
-        <v>15777.023005721554</v>
+        <v>12246.329778552417</v>
       </c>
       <c r="BE7" s="3">
         <f t="shared" si="6"/>
-        <v>15934.79323577877</v>
+        <v>12368.793076337941</v>
       </c>
       <c r="BF7" s="3">
         <f t="shared" si="6"/>
-        <v>16094.141168136559</v>
+        <v>12492.48100710132</v>
       </c>
       <c r="BG7" s="3">
         <f t="shared" si="6"/>
-        <v>16255.082579817925</v>
+        <v>12617.405817172334</v>
       </c>
       <c r="BH7" s="3">
         <f t="shared" si="6"/>
-        <v>16417.633405616103</v>
+        <v>12743.579875344058</v>
       </c>
       <c r="BI7" s="3">
         <f t="shared" si="6"/>
-        <v>16581.809739672266</v>
+        <v>12871.015674097498</v>
       </c>
       <c r="BJ7" s="3">
         <f t="shared" si="6"/>
-        <v>16747.627837068991</v>
+        <v>12999.725830838473</v>
       </c>
       <c r="BK7" s="3">
         <f t="shared" si="6"/>
-        <v>16915.104115439681</v>
+        <v>13129.723089146859</v>
       </c>
       <c r="BL7" s="3">
         <f t="shared" si="6"/>
-        <v>17084.255156594078</v>
+        <v>13261.020320038328</v>
       </c>
       <c r="BM7" s="3">
         <f t="shared" si="6"/>
-        <v>17255.097708160018</v>
+        <v>13393.630523238711</v>
       </c>
       <c r="BN7" s="3">
         <f t="shared" si="6"/>
-        <v>17427.648685241616</v>
+        <v>13527.566828471099</v>
       </c>
       <c r="BO7" s="3">
         <f t="shared" si="6"/>
-        <v>17601.925172094034</v>
+        <v>13662.842496755809</v>
       </c>
       <c r="BP7" s="3">
         <f t="shared" si="6"/>
-        <v>17777.944423814974</v>
+        <v>13799.470921723369</v>
       </c>
       <c r="BQ7" s="3">
         <f t="shared" si="6"/>
-        <v>17955.723868053123</v>
+        <v>13937.465630940602</v>
       </c>
       <c r="BR7" s="3">
         <f t="shared" si="6"/>
-        <v>18135.281106733655</v>
+        <v>14076.840287250008</v>
       </c>
       <c r="BS7" s="3">
         <f t="shared" si="6"/>
-        <v>18316.633917800991</v>
+        <v>14217.608690122508</v>
       </c>
       <c r="BT7" s="3">
         <f t="shared" si="6"/>
-        <v>18499.800256979001</v>
+        <v>14359.784777023733</v>
       </c>
       <c r="BU7" s="3">
         <f t="shared" si="6"/>
-        <v>18684.798259548792</v>
+        <v>14503.382624793971</v>
       </c>
       <c r="BV7" s="3">
         <f t="shared" si="6"/>
-        <v>18871.646242144281</v>
+        <v>14648.41645104191</v>
       </c>
       <c r="BW7" s="3">
         <f t="shared" si="6"/>
-        <v>19060.362704565723</v>
+        <v>14794.900615552329</v>
       </c>
       <c r="BX7" s="3">
         <f t="shared" si="6"/>
-        <v>19250.96633161138</v>
+        <v>14942.849621707854</v>
       </c>
       <c r="BY7" s="3">
         <f t="shared" si="6"/>
-        <v>19443.475994927496</v>
+        <v>15092.278117924932</v>
       </c>
       <c r="BZ7" s="3">
         <f t="shared" si="6"/>
-        <v>19637.910754876772</v>
+        <v>15243.200899104182</v>
       </c>
       <c r="CA7" s="3">
         <f t="shared" si="6"/>
-        <v>19834.289862425539</v>
+        <v>15395.632908095224</v>
       </c>
       <c r="CB7" s="3">
         <f t="shared" si="6"/>
-        <v>20032.632761049794</v>
+        <v>15549.589237176177</v>
       </c>
       <c r="CC7" s="3">
         <f t="shared" si="6"/>
-        <v>20232.959088660293</v>
+        <v>15705.085129547939</v>
       </c>
       <c r="CD7" s="3">
         <f t="shared" si="6"/>
-        <v>20435.288679546895</v>
+        <v>15862.135980843419</v>
       </c>
       <c r="CE7" s="3">
         <f t="shared" si="6"/>
-        <v>20639.641566342365</v>
+        <v>16020.757340651853</v>
       </c>
       <c r="CF7" s="3">
         <f t="shared" si="6"/>
-        <v>20846.03798200579</v>
+        <v>16180.964914058372</v>
       </c>
       <c r="CG7" s="3">
         <f t="shared" si="6"/>
-        <v>21054.498361825848</v>
+        <v>16342.774563198955</v>
       </c>
       <c r="CH7" s="3">
         <f t="shared" si="6"/>
-        <v>21265.043345444108</v>
+        <v>16506.202308830943</v>
       </c>
       <c r="CI7" s="3">
         <f t="shared" si="6"/>
-        <v>21477.693778898549</v>
+        <v>16671.264331919254</v>
       </c>
       <c r="CJ7" s="3">
         <f t="shared" si="6"/>
-        <v>21692.470716687534</v>
+        <v>16837.976975238445</v>
       </c>
       <c r="CK7" s="3">
         <f t="shared" si="6"/>
-        <v>21909.39542385441</v>
+        <v>17006.35674499083</v>
       </c>
       <c r="CL7" s="3">
         <f t="shared" si="6"/>
-        <v>22128.489378092956</v>
+        <v>17176.42031244074</v>
       </c>
       <c r="CM7" s="3">
         <f t="shared" si="6"/>
-        <v>22349.774271873885</v>
+        <v>17348.184515565146</v>
       </c>
       <c r="CN7" s="3">
         <f t="shared" si="6"/>
-        <v>22573.272014592625</v>
+        <v>17521.666360720799</v>
       </c>
       <c r="CO7" s="3">
         <f t="shared" si="6"/>
-        <v>22799.004734738552</v>
+        <v>17696.883024328006</v>
       </c>
       <c r="CP7" s="3">
         <f t="shared" si="6"/>
-        <v>23026.994782085938</v>
+        <v>17873.851854571287</v>
       </c>
       <c r="CQ7" s="3">
         <f t="shared" si="6"/>
-        <v>23257.264729906798</v>
+        <v>18052.590373117</v>
       </c>
       <c r="CR7" s="3">
         <f t="shared" si="6"/>
-        <v>23489.837377205866</v>
+        <v>18233.11627684817</v>
       </c>
       <c r="CS7" s="3">
         <f t="shared" si="6"/>
-        <v>23724.735750977925</v>
+        <v>18415.447439616652</v>
       </c>
       <c r="CT7" s="3">
         <f t="shared" si="6"/>
-        <v>23961.983108487704</v>
+        <v>18599.601914012819</v>
       </c>
       <c r="CU7" s="3">
         <f t="shared" si="6"/>
-        <v>24201.602939572582</v>
+        <v>18785.597933152949</v>
       </c>
       <c r="CV7" s="3">
-        <f t="shared" ref="CV7:DC7" si="7">CU7*(1+$V$24)</f>
-        <v>24443.618968968309</v>
+        <f t="shared" si="6"/>
+        <v>18973.453912484478</v>
       </c>
       <c r="CW7" s="3">
-        <f t="shared" si="7"/>
-        <v>24688.055158657993</v>
+        <f t="shared" si="6"/>
+        <v>19163.188451609323</v>
       </c>
       <c r="CX7" s="3">
-        <f t="shared" si="7"/>
-        <v>24934.935710244572</v>
+        <f t="shared" si="6"/>
+        <v>19354.820336125416</v>
       </c>
       <c r="CY7" s="3">
-        <f t="shared" si="7"/>
-        <v>25184.285067347017</v>
+        <f t="shared" si="6"/>
+        <v>19548.36853948667</v>
       </c>
       <c r="CZ7" s="3">
-        <f t="shared" si="7"/>
-        <v>25436.127918020487</v>
+        <f t="shared" ref="CZ7:DG7" si="7">CY7*(1+$Z$25)</f>
+        <v>19743.852224881535</v>
       </c>
       <c r="DA7" s="3">
         <f t="shared" si="7"/>
-        <v>25690.489197200692</v>
+        <v>19941.290747130352</v>
       </c>
       <c r="DB7" s="3">
         <f t="shared" si="7"/>
-        <v>25947.3940891727</v>
+        <v>20140.703654601653</v>
       </c>
       <c r="DC7" s="3">
         <f t="shared" si="7"/>
-        <v>26206.868030064426</v>
-      </c>
-    </row>
-    <row r="8" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>20342.110691147671</v>
+      </c>
+      <c r="DD7" s="3">
+        <f t="shared" si="7"/>
+        <v>20545.531798059146</v>
+      </c>
+      <c r="DE7" s="3">
+        <f t="shared" si="7"/>
+        <v>20750.987116039738</v>
+      </c>
+      <c r="DF7" s="3">
+        <f t="shared" si="7"/>
+        <v>20958.496987200135</v>
+      </c>
+      <c r="DG7" s="3">
+        <f t="shared" si="7"/>
+        <v>21168.081957072136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:111" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6">
-        <f t="shared" ref="E8:S8" si="8">+E6-E7</f>
+        <f t="shared" ref="E8:U8" si="8">+E6-E7</f>
         <v>120.691</v>
       </c>
       <c r="F8" s="6">
@@ -1992,44 +2076,54 @@
         <f t="shared" si="8"/>
         <v>500.90199999999999</v>
       </c>
-      <c r="Z8" s="24">
-        <f t="shared" ref="Z8:AH8" si="9">(Z7-Y7)/Y7</f>
+      <c r="T8" s="6">
+        <f t="shared" si="8"/>
+        <v>521.78</v>
+      </c>
+      <c r="U8" s="6">
+        <f t="shared" si="8"/>
+        <v>552.26</v>
+      </c>
+      <c r="V8" s="31"/>
+      <c r="W8" s="6"/>
+      <c r="AD8" s="24">
+        <f t="shared" ref="AD8:AL8" si="9">(AD7-AC7)/AC7</f>
         <v>0.27069368992895937</v>
-      </c>
-      <c r="AA8" s="22">
-        <f t="shared" si="9"/>
-        <v>0.22149511942228933</v>
-      </c>
-      <c r="AB8" s="22">
-        <f t="shared" si="9"/>
-        <v>0.3</v>
-      </c>
-      <c r="AC8" s="22">
-        <f t="shared" si="9"/>
-        <v>0.3</v>
-      </c>
-      <c r="AD8" s="22">
-        <f t="shared" si="9"/>
-        <v>0.29999999999999993</v>
       </c>
       <c r="AE8" s="22">
         <f t="shared" si="9"/>
-        <v>0.3</v>
+        <v>0.24841264360202014</v>
       </c>
       <c r="AF8" s="22">
         <f t="shared" si="9"/>
-        <v>0.3000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="AG8" s="22">
         <f t="shared" si="9"/>
-        <v>0.3</v>
+        <v>0.24999999999999997</v>
       </c>
       <c r="AH8" s="22">
         <f t="shared" si="9"/>
-        <v>9.9999999999999985E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0.25</v>
+      </c>
+      <c r="AI8" s="22">
+        <f t="shared" si="9"/>
+        <v>0.25</v>
+      </c>
+      <c r="AJ8" s="22">
+        <f t="shared" si="9"/>
+        <v>0.25</v>
+      </c>
+      <c r="AK8" s="22">
+        <f t="shared" si="9"/>
+        <v>0.25</v>
+      </c>
+      <c r="AL8" s="22">
+        <f t="shared" si="9"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:111" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
@@ -2080,8 +2174,16 @@
       <c r="S9" s="5">
         <v>269.988</v>
       </c>
-    </row>
-    <row r="10" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T9" s="5">
+        <v>274.59899999999999</v>
+      </c>
+      <c r="U9" s="5">
+        <f>291.802</f>
+        <v>291.80200000000002</v>
+      </c>
+      <c r="V9" s="30"/>
+    </row>
+    <row r="10" spans="1:111" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>23</v>
       </c>
@@ -2132,8 +2234,16 @@
       <c r="S10" s="5">
         <v>173.881</v>
       </c>
-    </row>
-    <row r="11" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T10" s="5">
+        <v>187.005</v>
+      </c>
+      <c r="U10" s="5">
+        <f>187.772</f>
+        <v>187.77199999999999</v>
+      </c>
+      <c r="V10" s="30"/>
+    </row>
+    <row r="11" spans="1:111" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>24</v>
       </c>
@@ -2184,15 +2294,23 @@
       <c r="S11" s="5">
         <v>45.29</v>
       </c>
-    </row>
-    <row r="12" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T11" s="5">
+        <v>47.558</v>
+      </c>
+      <c r="U11" s="5">
+        <f>52.408</f>
+        <v>52.408000000000001</v>
+      </c>
+      <c r="V11" s="30"/>
+    </row>
+    <row r="12" spans="1:111" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6">
-        <f t="shared" ref="E12:S12" si="10">SUM(E9:E11)</f>
+        <f t="shared" ref="E12:U12" si="10">SUM(E9:E11)</f>
         <v>129.958</v>
       </c>
       <c r="F12" s="6">
@@ -2251,15 +2369,25 @@
         <f t="shared" si="10"/>
         <v>489.15900000000005</v>
       </c>
-    </row>
-    <row r="13" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T12" s="6">
+        <f t="shared" si="10"/>
+        <v>509.16199999999998</v>
+      </c>
+      <c r="U12" s="6">
+        <f t="shared" si="10"/>
+        <v>531.98199999999997</v>
+      </c>
+      <c r="V12" s="31"/>
+      <c r="W12" s="6"/>
+    </row>
+    <row r="13" spans="1:111" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6">
-        <f t="shared" ref="E13:S13" si="11">E8-E12</f>
+        <f t="shared" ref="E13:U13" si="11">E8-E12</f>
         <v>-9.2669999999999959</v>
       </c>
       <c r="F13" s="6">
@@ -2318,8 +2446,18 @@
         <f t="shared" si="11"/>
         <v>11.742999999999938</v>
       </c>
-    </row>
-    <row r="14" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T13" s="6">
+        <f t="shared" si="11"/>
+        <v>12.617999999999995</v>
+      </c>
+      <c r="U13" s="6">
+        <f t="shared" si="11"/>
+        <v>20.27800000000002</v>
+      </c>
+      <c r="V13" s="31"/>
+      <c r="W13" s="6"/>
+    </row>
+    <row r="14" spans="1:111" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
@@ -2382,15 +2520,24 @@
         <f>-1.374+35.563</f>
         <v>34.189</v>
       </c>
-    </row>
-    <row r="15" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T14" s="5">
+        <f>-1.477+36.652</f>
+        <v>35.175000000000004</v>
+      </c>
+      <c r="U14" s="5">
+        <f>-1.574+37.432</f>
+        <v>35.858000000000004</v>
+      </c>
+      <c r="V14" s="30"/>
+    </row>
+    <row r="15" spans="1:111" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6">
-        <f t="shared" ref="E15:S15" si="12">+E13+E14</f>
+        <f t="shared" ref="E15:U15" si="12">+E13+E14</f>
         <v>-14.554999999999996</v>
       </c>
       <c r="F15" s="6">
@@ -2449,8 +2596,18 @@
         <f t="shared" si="12"/>
         <v>45.931999999999938</v>
       </c>
-    </row>
-    <row r="16" spans="1:107" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T15" s="6">
+        <f t="shared" si="12"/>
+        <v>47.792999999999999</v>
+      </c>
+      <c r="U15" s="6">
+        <f t="shared" si="12"/>
+        <v>56.136000000000024</v>
+      </c>
+      <c r="V15" s="31"/>
+      <c r="W15" s="6"/>
+    </row>
+    <row r="16" spans="1:111" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
@@ -2502,15 +2659,24 @@
         <f>3.554</f>
         <v>3.5539999999999998</v>
       </c>
-    </row>
-    <row r="17" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T16" s="5">
+        <f>3.969</f>
+        <v>3.9689999999999999</v>
+      </c>
+      <c r="U16" s="5">
+        <f>4.439</f>
+        <v>4.4390000000000001</v>
+      </c>
+      <c r="V16" s="30"/>
+    </row>
+    <row r="17" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6">
-        <f t="shared" ref="E17:S17" si="13">+E15-E16</f>
+        <f t="shared" ref="E17:U17" si="13">+E15-E16</f>
         <v>-15.149999999999997</v>
       </c>
       <c r="F17" s="6">
@@ -2569,15 +2735,25 @@
         <f t="shared" si="13"/>
         <v>42.377999999999936</v>
       </c>
-    </row>
-    <row r="18" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T17" s="6">
+        <f t="shared" si="13"/>
+        <v>43.823999999999998</v>
+      </c>
+      <c r="U17" s="6">
+        <f t="shared" si="13"/>
+        <v>51.697000000000024</v>
+      </c>
+      <c r="V17" s="31"/>
+      <c r="W17" s="6"/>
+    </row>
+    <row r="18" spans="2:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7">
-        <f t="shared" ref="E18:S18" si="14">+E17/E19</f>
+        <f t="shared" ref="E18:U18" si="14">+E17/E19</f>
         <v>-5.0073705850856368E-2</v>
       </c>
       <c r="F18" s="7">
@@ -2636,8 +2812,19 @@
         <f t="shared" si="14"/>
         <v>0.12771920941755102</v>
       </c>
-    </row>
-    <row r="19" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T18" s="7">
+        <f t="shared" si="14"/>
+        <v>0.12284577002859225</v>
+      </c>
+      <c r="U18" s="7">
+        <f t="shared" si="14"/>
+        <v>0.14455240678345246</v>
+      </c>
+      <c r="V18" s="32"/>
+      <c r="W18" s="7"/>
+      <c r="AF18" s="35"/>
+    </row>
+    <row r="19" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
         <v>1</v>
       </c>
@@ -2688,182 +2875,270 @@
       <c r="S19" s="5">
         <v>331.80599999999998</v>
       </c>
-    </row>
-    <row r="21" spans="2:24" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="3" t="s">
+      <c r="T19" s="5">
+        <f>356.74</f>
+        <v>356.74</v>
+      </c>
+      <c r="U19" s="5">
+        <f>357.635</f>
+        <v>357.63499999999999</v>
+      </c>
+      <c r="V19" s="30"/>
+    </row>
+    <row r="20" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="V20" s="30"/>
+    </row>
+    <row r="21" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B21" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="37">
+        <f t="shared" ref="F21:M21" si="15">(F6-E6)/F6</f>
+        <v>0.12874371236572765</v>
+      </c>
+      <c r="G21" s="37">
+        <f t="shared" si="15"/>
+        <v>0.10585799978846532</v>
+      </c>
+      <c r="H21" s="37">
+        <f t="shared" si="15"/>
+        <v>0.14986148517013559</v>
+      </c>
+      <c r="I21" s="37">
+        <f t="shared" si="15"/>
+        <v>0.13656428381296026</v>
+      </c>
+      <c r="J21" s="37">
+        <f t="shared" si="15"/>
+        <v>0.17078584172803016</v>
+      </c>
+      <c r="K21" s="37">
+        <f t="shared" si="15"/>
+        <v>0.10145717984739552</v>
+      </c>
+      <c r="L21" s="37">
+        <f t="shared" si="15"/>
+        <v>0.10614126232955302</v>
+      </c>
+      <c r="M21" s="37">
+        <f t="shared" si="15"/>
+        <v>6.9628183894459378E-2</v>
+      </c>
+      <c r="N21" s="37">
+        <f t="shared" ref="N21:V21" si="16">(N6-M6)/N6</f>
+        <v>7.0017192196830377E-2</v>
+      </c>
+      <c r="O21" s="37">
+        <f t="shared" si="16"/>
+        <v>2.5564961782302359E-2</v>
+      </c>
+      <c r="P21" s="37">
+        <f t="shared" si="16"/>
+        <v>5.4795541951181206E-2</v>
+      </c>
+      <c r="Q21" s="37">
+        <f t="shared" si="16"/>
+        <v>6.9211887437538283E-2</v>
+      </c>
+      <c r="R21" s="37">
+        <f t="shared" si="16"/>
+        <v>7.1420455219969939E-2</v>
+      </c>
+      <c r="S21" s="37">
+        <f t="shared" si="16"/>
+        <v>3.4944353518821601E-2</v>
+      </c>
+      <c r="T21" s="37">
+        <f t="shared" si="16"/>
+        <v>5.3122757752847985E-2</v>
+      </c>
+      <c r="U21" s="37">
+        <f t="shared" si="16"/>
+        <v>6.4834728470064412E-2</v>
+      </c>
+      <c r="V21" s="38">
+        <f t="shared" si="16"/>
+        <v>2.9513361462728604E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:32" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="10">
-        <f t="shared" ref="I21:K21" si="15">+I6/E6-1</f>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="10">
+        <f t="shared" ref="I22:K22" si="17">+I6/E6-1</f>
         <v>0.74875060610958455</v>
       </c>
-      <c r="J21" s="10">
-        <f t="shared" si="15"/>
+      <c r="J22" s="10">
+        <f t="shared" si="17"/>
         <v>0.83741431074009598</v>
       </c>
-      <c r="K21" s="10">
-        <f t="shared" si="15"/>
+      <c r="K22" s="10">
+        <f t="shared" si="17"/>
         <v>0.82841515192723181</v>
       </c>
-      <c r="L21" s="10">
-        <f t="shared" ref="L21:S21" si="16">+L6/H6-1</f>
+      <c r="L22" s="10">
+        <f t="shared" ref="L22:U22" si="18">+L6/H6-1</f>
         <v>0.73898411040081502</v>
       </c>
-      <c r="M21" s="10">
-        <f t="shared" si="16"/>
+      <c r="M22" s="10">
+        <f t="shared" si="18"/>
         <v>0.61387196474520134</v>
       </c>
-      <c r="N21" s="10">
-        <f t="shared" si="16"/>
+      <c r="N22" s="10">
+        <f t="shared" si="18"/>
         <v>0.43900023911857233</v>
       </c>
-      <c r="O21" s="10">
-        <f t="shared" si="16"/>
+      <c r="O22" s="10">
+        <f t="shared" si="18"/>
         <v>0.32692614935404807</v>
       </c>
-      <c r="P21" s="10">
-        <f t="shared" si="16"/>
+      <c r="P22" s="10">
+        <f t="shared" si="18"/>
         <v>0.25484441249033574</v>
       </c>
-      <c r="Q21" s="10">
-        <f t="shared" si="16"/>
+      <c r="Q22" s="10">
+        <f t="shared" si="18"/>
         <v>0.25428318134024219</v>
       </c>
-      <c r="R21" s="10">
-        <f t="shared" si="16"/>
+      <c r="R22" s="10">
+        <f t="shared" si="18"/>
         <v>0.25617864545940661</v>
       </c>
-      <c r="S21" s="10">
-        <f t="shared" si="16"/>
+      <c r="S22" s="10">
+        <f t="shared" si="18"/>
         <v>0.26838746642198474</v>
       </c>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B22" s="5" t="s">
+      <c r="T22" s="10">
+        <f t="shared" si="18"/>
+        <v>0.26614669178243466</v>
+      </c>
+      <c r="U22" s="10">
+        <f t="shared" si="18"/>
+        <v>0.26022033254434418</v>
+      </c>
+      <c r="V22" s="33"/>
+      <c r="W22" s="10"/>
+    </row>
+    <row r="23" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B23" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="12">
-        <f t="shared" ref="E22:H22" si="17">+E8/E6</f>
+      <c r="E23" s="12">
+        <f t="shared" ref="E23:H23" si="19">+E8/E6</f>
         <v>0.78028770001616288</v>
       </c>
-      <c r="F22" s="12">
-        <f t="shared" si="17"/>
+      <c r="F23" s="12">
+        <f t="shared" si="19"/>
         <v>0.76986554460911061</v>
       </c>
-      <c r="G22" s="12">
-        <f t="shared" si="17"/>
+      <c r="G23" s="12">
+        <f t="shared" si="19"/>
         <v>0.7649648197674126</v>
       </c>
-      <c r="H22" s="12">
-        <f t="shared" si="17"/>
+      <c r="H23" s="12">
+        <f t="shared" si="19"/>
         <v>0.75552025485015994</v>
       </c>
-      <c r="I22" s="12">
-        <f t="shared" ref="I22:K22" si="18">+I8/I6</f>
+      <c r="I23" s="12">
+        <f t="shared" ref="I23:K23" si="20">+I8/I6</f>
         <v>0.76586022300434775</v>
       </c>
-      <c r="J22" s="12">
-        <f t="shared" si="18"/>
+      <c r="J23" s="12">
+        <f t="shared" si="20"/>
         <v>0.79414649997854059</v>
       </c>
-      <c r="K22" s="12">
-        <f t="shared" si="18"/>
+      <c r="K23" s="12">
+        <f t="shared" si="20"/>
         <v>0.79488747486433631</v>
       </c>
-      <c r="L22" s="12">
+      <c r="L23" s="12">
         <f>+L8/L6</f>
         <v>0.79828284967178642</v>
       </c>
-      <c r="M22" s="12">
-        <f t="shared" ref="M22:S22" si="19">+M8/M6</f>
+      <c r="M23" s="12">
+        <f t="shared" ref="M23:U23" si="21">+M8/M6</f>
         <v>0.78558551129009724</v>
       </c>
-      <c r="N22" s="12">
-        <f t="shared" si="19"/>
+      <c r="N23" s="12">
+        <f t="shared" si="21"/>
         <v>0.79387045988593929</v>
       </c>
-      <c r="O22" s="12">
-        <f t="shared" si="19"/>
+      <c r="O23" s="12">
+        <f t="shared" si="21"/>
         <v>0.79258647247121738</v>
       </c>
-      <c r="P22" s="12">
-        <f t="shared" si="19"/>
+      <c r="P23" s="12">
+        <f t="shared" si="21"/>
         <v>0.8001608978887057</v>
       </c>
-      <c r="Q22" s="12">
-        <f t="shared" si="19"/>
+      <c r="Q23" s="12">
+        <f t="shared" si="21"/>
         <v>0.81130190526285029</v>
       </c>
-      <c r="R22" s="12">
-        <f t="shared" si="19"/>
+      <c r="R23" s="12">
+        <f t="shared" si="21"/>
         <v>0.82221796356815668</v>
       </c>
-      <c r="S22" s="12">
-        <f t="shared" si="19"/>
+      <c r="S23" s="12">
+        <f t="shared" si="21"/>
         <v>0.81980687397708674</v>
       </c>
-      <c r="U22" t="s">
+      <c r="T23" s="12">
+        <f t="shared" si="21"/>
+        <v>0.80861146883751056</v>
+      </c>
+      <c r="U23" s="12">
+        <f t="shared" si="21"/>
+        <v>0.80035825256225945</v>
+      </c>
+      <c r="V23" s="34"/>
+      <c r="W23" s="12"/>
+      <c r="Y23" t="s">
         <v>71</v>
       </c>
-      <c r="W22" t="s">
+      <c r="AA23" t="s">
         <v>72</v>
       </c>
-      <c r="X22" t="s">
+      <c r="AB23" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="U23" s="15" t="s">
+    <row r="24" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="Y24" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="V23" s="23">
+      <c r="Z24" s="23">
         <v>0.22</v>
       </c>
-      <c r="W23" s="15" t="s">
+      <c r="AA24" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="X23" s="23">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="5" t="s">
+      <c r="AB24" s="23">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6">
-        <f>271.686+1399.323+3.424</f>
-        <v>1674.433</v>
-      </c>
-      <c r="L24" s="6">
-        <f>238.859+1464.681+3.214</f>
-        <v>1706.7539999999999</v>
-      </c>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="U24" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="V24" s="16">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="25" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -2874,23 +3149,26 @@
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6">
-        <v>275.34199999999998</v>
+        <f>271.686+1399.323+3.424</f>
+        <v>1674.433</v>
       </c>
       <c r="L25" s="6">
-        <v>305.50099999999998</v>
+        <f>238.859+1464.681+3.214</f>
+        <v>1706.7539999999999</v>
       </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
-      <c r="U25" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="V25" s="16">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V25" s="30"/>
+      <c r="Y25" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z25" s="16">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="26" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -2901,33 +3179,24 @@
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6">
-        <f>24.688+42.753</f>
-        <v>67.441000000000003</v>
+        <v>275.34199999999998</v>
       </c>
       <c r="L26" s="6">
-        <f>27.345+46.84</f>
-        <v>74.185000000000002</v>
+        <v>305.50099999999998</v>
       </c>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
-      <c r="U26" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="V26" s="18">
-        <f>NPV(V25,V6:DC6)</f>
-        <v>48462.55326232707</v>
-      </c>
-      <c r="W26" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="X26" s="26">
-        <f>NPV($V$25,V7:DC7)</f>
-        <v>66780.466791614104</v>
-      </c>
-    </row>
-    <row r="27" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V26" s="30"/>
+      <c r="Y26" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z26" s="16">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -2938,31 +3207,34 @@
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6">
-        <v>32.631999999999998</v>
+        <f>24.688+42.753</f>
+        <v>67.441000000000003</v>
       </c>
       <c r="L27" s="6">
-        <v>33.201999999999998</v>
+        <f>27.345+46.84</f>
+        <v>74.185000000000002</v>
       </c>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
-      <c r="U27" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="V27" s="21">
-        <f>Main!$O$3</f>
-        <v>332</v>
-      </c>
-      <c r="W27" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="X27" s="21">
-        <f>Main!$O$3</f>
-        <v>332</v>
-      </c>
-    </row>
-    <row r="28" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V27" s="30"/>
+      <c r="Y27" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z27" s="18">
+        <f>NPV(Z26,Z6:DG6)</f>
+        <v>52706.126898275077</v>
+      </c>
+      <c r="AA27" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB27" s="26">
+        <f>NPV($Z$26,Z7:DG7)</f>
+        <v>61189.045415620494</v>
+      </c>
+    </row>
+    <row r="28" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -2973,31 +3245,32 @@
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6">
-        <v>90.712999999999994</v>
+        <v>32.631999999999998</v>
       </c>
       <c r="L28" s="6">
-        <v>97.790999999999997</v>
+        <v>33.201999999999998</v>
       </c>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
-      <c r="U28" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="V28" s="19">
-        <f>V26/V27</f>
-        <v>145.97154597086467</v>
-      </c>
-      <c r="W28" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="X28" s="19">
-        <f>X26/X27</f>
-        <v>201.14598431209069</v>
-      </c>
-    </row>
-    <row r="29" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V28" s="30"/>
+      <c r="Y28" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="21">
+        <f>Main!$O$3</f>
+        <v>357.63499999999999</v>
+      </c>
+      <c r="AA28" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="21">
+        <f>Main!$O$3</f>
+        <v>357.63499999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -3008,31 +3281,32 @@
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6">
-        <v>61.920999999999999</v>
+        <v>90.712999999999994</v>
       </c>
       <c r="L29" s="6">
-        <v>64.016000000000005</v>
+        <v>97.790999999999997</v>
       </c>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
-      <c r="U29" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="V29" s="20">
-        <f>(V28-Main!$O$2)/Main!$O$2</f>
-        <v>0.24464142198895519</v>
-      </c>
-      <c r="W29" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="X29" s="20">
-        <f>(X28-Main!$O$2)/Main!$O$2</f>
-        <v>0.71509195354784005</v>
-      </c>
-    </row>
-    <row r="30" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V29" s="30"/>
+      <c r="Y29" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z29" s="19">
+        <f>Z27/Z28</f>
+        <v>147.37407384141676</v>
+      </c>
+      <c r="AA29" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB29" s="19">
+        <f>AB27/AB28</f>
+        <v>171.0935602377298</v>
+      </c>
+    </row>
+    <row r="30" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -3043,33 +3317,32 @@
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6">
-        <f>292.032+14.088</f>
-        <v>306.12</v>
+        <v>61.920999999999999</v>
       </c>
       <c r="L30" s="6">
-        <f>334.687+17.96</f>
-        <v>352.64699999999999</v>
+        <v>64.016000000000005</v>
       </c>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
-      <c r="U30" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="V30" s="18">
-        <f>V27*V28</f>
-        <v>48462.55326232707</v>
-      </c>
-      <c r="W30" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="X30" s="18">
-        <f>X27*X28</f>
-        <v>66780.466791614104</v>
-      </c>
-    </row>
-    <row r="31" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V30" s="30"/>
+      <c r="Y30" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z30" s="20">
+        <f>(Z29-Main!$O$2)/Main!$O$2</f>
+        <v>3.3116535866924313E-2</v>
+      </c>
+      <c r="AA30" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB30" s="20">
+        <f>(AB29-Main!$O$2)/Main!$O$2</f>
+        <v>0.19939404302649699</v>
+      </c>
+    </row>
+    <row r="31" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -3080,17 +3353,34 @@
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6">
-        <v>20.413</v>
+        <f>292.032+14.088</f>
+        <v>306.12</v>
       </c>
       <c r="L31" s="6">
-        <v>20.390999999999998</v>
+        <f>334.687+17.96</f>
+        <v>352.64699999999999</v>
       </c>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
-    </row>
-    <row r="32" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V31" s="30"/>
+      <c r="Y31" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z31" s="18">
+        <f>Z28*Z29</f>
+        <v>52706.126898275084</v>
+      </c>
+      <c r="AA31" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB31" s="18">
+        <f>AB28*AB29</f>
+        <v>61189.045415620494</v>
+      </c>
+    </row>
+    <row r="32" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -3101,40 +3391,45 @@
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6">
-        <f>SUM(K24:K31)</f>
-        <v>2529.0149999999999</v>
+        <v>20.413</v>
       </c>
       <c r="L32" s="6">
-        <f>SUM(L24:L31)</f>
-        <v>2654.4870000000001</v>
+        <v>20.390999999999998</v>
       </c>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
-    </row>
-    <row r="34" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="5" t="s">
+      <c r="V32" s="30"/>
+    </row>
+    <row r="33" spans="2:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6">
+        <f>SUM(K25:K32)</f>
+        <v>2529.0149999999999</v>
+      </c>
+      <c r="L33" s="6">
+        <f>SUM(L25:L32)</f>
+        <v>2654.4870000000001</v>
+      </c>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="V33" s="30"/>
+      <c r="AB33" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6">
-        <v>18.629000000000001</v>
-      </c>
-      <c r="L34" s="6">
-        <v>47.65</v>
-      </c>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-    </row>
-    <row r="35" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -3145,17 +3440,18 @@
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6">
-        <v>108.211</v>
+        <v>18.629000000000001</v>
       </c>
       <c r="L35" s="6">
-        <v>111.622</v>
+        <v>47.65</v>
       </c>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
-    </row>
-    <row r="36" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V35" s="30"/>
+    </row>
+    <row r="36" spans="2:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -3166,19 +3462,18 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6">
-        <f>20.32+51.817</f>
-        <v>72.137</v>
+        <v>108.211</v>
       </c>
       <c r="L36" s="6">
-        <f>22.357+51.771</f>
-        <v>74.128</v>
+        <v>111.622</v>
       </c>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
-    </row>
-    <row r="37" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V36" s="30"/>
+    </row>
+    <row r="37" spans="2:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -3189,19 +3484,20 @@
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6">
-        <f>454.812+12.798</f>
-        <v>467.61</v>
+        <f>20.32+51.817</f>
+        <v>72.137</v>
       </c>
       <c r="L37" s="6">
-        <f>444.247+14.526</f>
-        <v>458.77300000000002</v>
+        <f>22.357+51.771</f>
+        <v>74.128</v>
       </c>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
-    </row>
-    <row r="38" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V37" s="30"/>
+    </row>
+    <row r="38" spans="2:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="5" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -3212,17 +3508,20 @@
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6">
-        <v>736.31799999999998</v>
+        <f>454.812+12.798</f>
+        <v>467.61</v>
       </c>
       <c r="L38" s="6">
-        <v>737.16</v>
+        <f>444.247+14.526</f>
+        <v>458.77300000000002</v>
       </c>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
-    </row>
-    <row r="39" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V38" s="30"/>
+    </row>
+    <row r="39" spans="2:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="5" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -3233,17 +3532,18 @@
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6">
-        <v>9.2530000000000001</v>
+        <v>736.31799999999998</v>
       </c>
       <c r="L39" s="6">
-        <v>10.034000000000001</v>
+        <v>737.16</v>
       </c>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
-    </row>
-    <row r="40" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V39" s="30"/>
+    </row>
+    <row r="40" spans="2:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -3254,17 +3554,18 @@
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6">
-        <v>1116.857</v>
+        <v>9.2530000000000001</v>
       </c>
       <c r="L40" s="6">
-        <v>1215.1199999999999</v>
+        <v>10.034000000000001</v>
       </c>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
-    </row>
-    <row r="41" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V40" s="30"/>
+    </row>
+    <row r="41" spans="2:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -3275,39 +3576,42 @@
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6">
-        <f>SUM(K34:K40)</f>
-        <v>2529.0149999999999</v>
+        <v>1116.857</v>
       </c>
       <c r="L41" s="6">
-        <f>SUM(L34:L40)</f>
-        <v>2654.4870000000001</v>
+        <v>1215.1199999999999</v>
       </c>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
-    </row>
-    <row r="43" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="5" t="s">
+      <c r="V41" s="30"/>
+    </row>
+    <row r="42" spans="2:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6">
+        <f>SUM(K35:K41)</f>
+        <v>2529.0149999999999</v>
+      </c>
+      <c r="L42" s="6">
+        <f>SUM(L35:L41)</f>
+        <v>2654.4870000000001</v>
+      </c>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="V42" s="30"/>
+    </row>
+    <row r="44" spans="2:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6">
-        <f>+K17</f>
-        <v>9.7379999999999889</v>
-      </c>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-    </row>
-    <row r="44" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -3318,15 +3622,17 @@
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6">
-        <v>9.7379999999999995</v>
+        <f>+K17</f>
+        <v>9.7379999999999889</v>
       </c>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
-    </row>
-    <row r="45" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V44" s="30"/>
+    </row>
+    <row r="45" spans="2:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -3337,15 +3643,16 @@
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6">
-        <v>7.3940000000000001</v>
+        <v>9.7379999999999995</v>
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
-    </row>
-    <row r="46" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V45" s="30"/>
+    </row>
+    <row r="46" spans="2:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -3356,15 +3663,16 @@
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6">
-        <v>3.9590000000000001</v>
+        <v>7.3940000000000001</v>
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
-    </row>
-    <row r="47" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V46" s="30"/>
+    </row>
+    <row r="47" spans="2:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -3375,15 +3683,16 @@
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6">
-        <v>0.84</v>
+        <v>3.9590000000000001</v>
       </c>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
-    </row>
-    <row r="48" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V47" s="30"/>
+    </row>
+    <row r="48" spans="2:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -3394,15 +3703,16 @@
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6">
-        <v>6.0220000000000002</v>
+        <v>0.84</v>
       </c>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
-    </row>
-    <row r="49" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V48" s="30"/>
+    </row>
+    <row r="49" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -3413,15 +3723,16 @@
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6">
-        <v>66.884</v>
+        <v>6.0220000000000002</v>
       </c>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
-    </row>
-    <row r="50" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V49" s="30"/>
+    </row>
+    <row r="50" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="5" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -3432,15 +3743,16 @@
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6">
-        <v>4.4109999999999996</v>
+        <v>66.884</v>
       </c>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
-    </row>
-    <row r="51" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V50" s="30"/>
+    </row>
+    <row r="51" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -3451,15 +3763,16 @@
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6">
-        <v>0.79800000000000004</v>
+        <v>4.4109999999999996</v>
       </c>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
-    </row>
-    <row r="52" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V51" s="30"/>
+    </row>
+    <row r="52" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="5" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -3470,15 +3783,16 @@
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="6">
-        <v>0.82299999999999995</v>
+        <v>0.79800000000000004</v>
       </c>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
-    </row>
-    <row r="53" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V52" s="30"/>
+    </row>
+    <row r="53" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -3489,16 +3803,16 @@
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6">
-        <f>-7.319-8.166-8.391-0.805-7.624-2.911+81.735</f>
-        <v>46.518999999999998</v>
+        <v>0.82299999999999995</v>
       </c>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
-    </row>
-    <row r="54" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V53" s="30"/>
+    </row>
+    <row r="54" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -3509,12 +3823,34 @@
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6">
-        <f>SUM(K44:K53)</f>
-        <v>147.38799999999998</v>
+        <f>-7.319-8.166-8.391-0.805-7.624-2.911+81.735</f>
+        <v>46.518999999999998</v>
       </c>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
+      <c r="V54" s="30"/>
+    </row>
+    <row r="55" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6">
+        <f>SUM(K45:K54)</f>
+        <v>147.38799999999998</v>
+      </c>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="V55" s="30"/>
     </row>
   </sheetData>
   <hyperlinks>
